--- a/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_14_5.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_14_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2945612.092091082</v>
+        <v>-2946382.10569015</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1359040.492873524</v>
+        <v>1359040.492873525</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>6.05642108929943</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1221,19 +1221,19 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
+        <v>5.309829763041574</v>
+      </c>
+      <c r="G9" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1263,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1288,34 +1288,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>3.334980354192922</v>
-      </c>
-      <c r="I10" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>3.33498035419292</v>
       </c>
       <c r="Y10" t="n">
         <v>6.876045741711437</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>251.3538804794597</v>
       </c>
       <c r="C11" t="n">
-        <v>60.9493102356536</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>223.3030804366621</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>250.5504088882409</v>
+        <v>250.550408888241</v>
       </c>
       <c r="F11" t="n">
         <v>275.4960845576906</v>
       </c>
       <c r="G11" t="n">
-        <v>283.4226819530071</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>8.933459372524116</v>
       </c>
       <c r="I11" t="n">
-        <v>59.81603987441156</v>
+        <v>59.81603987441162</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>66.24420776110921</v>
+        <v>66.24420776110927</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>89.52672523994676</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1430,13 +1430,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>217.8610075333922</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>254.8579774720327</v>
+        <v>254.8579774720328</v>
       </c>
     </row>
     <row r="12">
@@ -1446,16 +1446,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>35.15322246584651</v>
       </c>
       <c r="C12" t="n">
-        <v>41.32853780429485</v>
+        <v>142.2364938423215</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>26.26511927138006</v>
+        <v>26.26511927138012</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -1467,7 +1467,7 @@
         <v>109.6512419216643</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>80.18410416320771</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,28 +1494,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>83.54476967999808</v>
       </c>
       <c r="S12" t="n">
-        <v>35.33313871031907</v>
+        <v>35.33313871031913</v>
       </c>
       <c r="T12" t="n">
-        <v>199.0862173745079</v>
+        <v>67.70625619048707</v>
       </c>
       <c r="U12" t="n">
-        <v>94.54381733895099</v>
+        <v>94.54381733895104</v>
       </c>
       <c r="V12" t="n">
         <v>101.4206259654044</v>
       </c>
       <c r="W12" t="n">
-        <v>122.1919294900904</v>
+        <v>120.3150219768988</v>
       </c>
       <c r="X12" t="n">
-        <v>74.39302401945659</v>
+        <v>74.39302401945665</v>
       </c>
       <c r="Y12" t="n">
-        <v>74.30273459328347</v>
+        <v>74.30273459328353</v>
       </c>
     </row>
     <row r="13">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>48.45201899791641</v>
+        <v>48.45201899791647</v>
       </c>
       <c r="C13" t="n">
-        <v>35.86685991460695</v>
+        <v>35.86685991460701</v>
       </c>
       <c r="D13" t="n">
-        <v>17.23551183419147</v>
+        <v>17.23551183419153</v>
       </c>
       <c r="E13" t="n">
-        <v>15.05400146254829</v>
+        <v>15.05400146254834</v>
       </c>
       <c r="F13" t="n">
-        <v>14.04108683891036</v>
+        <v>14.04108683891042</v>
       </c>
       <c r="G13" t="n">
-        <v>36.38669305278287</v>
+        <v>36.38669305278293</v>
       </c>
       <c r="H13" t="n">
-        <v>28.85275705997694</v>
+        <v>28.85275705997699</v>
       </c>
       <c r="I13" t="n">
-        <v>17.32444553928513</v>
+        <v>17.32444553928519</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>35.82695699582457</v>
+        <v>35.82695699582463</v>
       </c>
       <c r="S13" t="n">
-        <v>88.72726177829101</v>
+        <v>88.72726177829107</v>
       </c>
       <c r="T13" t="n">
-        <v>95.60714817900741</v>
+        <v>95.60714817900747</v>
       </c>
       <c r="U13" t="n">
         <v>154.9268322567434</v>
       </c>
       <c r="V13" t="n">
-        <v>120.7576821398071</v>
+        <v>120.7576821398072</v>
       </c>
       <c r="W13" t="n">
-        <v>155.1430371525701</v>
+        <v>155.1430371525702</v>
       </c>
       <c r="X13" t="n">
-        <v>94.32969420501627</v>
+        <v>94.32969420501632</v>
       </c>
       <c r="Y13" t="n">
-        <v>87.2046921680739</v>
+        <v>87.20469216807396</v>
       </c>
     </row>
     <row r="14">
@@ -1604,16 +1604,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>251.3538804794597</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>223.3030804366622</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>250.550408888241</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1625,7 +1625,7 @@
         <v>202.9732493819571</v>
       </c>
       <c r="I14" t="n">
-        <v>59.81603987441164</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>66.24420776110929</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>89.52672523994676</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>119.9256841735671</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>99.79012740400375</v>
       </c>
       <c r="W14" t="n">
         <v>217.8610075333922</v>
@@ -1673,7 +1673,7 @@
         <v>238.3511394944482</v>
       </c>
       <c r="Y14" t="n">
-        <v>215.5406578085861</v>
+        <v>254.8579774720328</v>
       </c>
     </row>
     <row r="15">
@@ -1683,16 +1683,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>35.15322246584654</v>
+        <v>35.15322246584651</v>
       </c>
       <c r="C15" t="n">
-        <v>41.32853780429494</v>
+        <v>41.32853780429491</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>16.06510438061792</v>
       </c>
       <c r="E15" t="n">
-        <v>26.26511927138014</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -1704,7 +1704,7 @@
         <v>109.6512419216643</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>80.18410416320771</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,28 +1731,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>83.54476967999808</v>
       </c>
       <c r="S15" t="n">
-        <v>35.33313871031916</v>
+        <v>136.2410947483454</v>
       </c>
       <c r="T15" t="n">
-        <v>67.7062561904871</v>
+        <v>67.70625619048707</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9237785229719</v>
+        <v>94.54381733895104</v>
       </c>
       <c r="V15" t="n">
-        <v>101.4206259654045</v>
+        <v>101.4206259654044</v>
       </c>
       <c r="W15" t="n">
-        <v>122.1919294900894</v>
+        <v>120.3150219768988</v>
       </c>
       <c r="X15" t="n">
-        <v>74.39302401945667</v>
+        <v>74.39302401945665</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>74.30273459328353</v>
       </c>
     </row>
     <row r="16">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>48.4520189979165</v>
+        <v>48.45201899791647</v>
       </c>
       <c r="C16" t="n">
-        <v>35.86685991460703</v>
+        <v>35.86685991460701</v>
       </c>
       <c r="D16" t="n">
-        <v>17.23551183419156</v>
+        <v>17.23551183419153</v>
       </c>
       <c r="E16" t="n">
-        <v>15.05400146254837</v>
+        <v>15.05400146254834</v>
       </c>
       <c r="F16" t="n">
-        <v>14.04108683891045</v>
+        <v>14.04108683891042</v>
       </c>
       <c r="G16" t="n">
-        <v>36.38669305278296</v>
+        <v>36.38669305278293</v>
       </c>
       <c r="H16" t="n">
-        <v>28.85275705997702</v>
+        <v>28.85275705997699</v>
       </c>
       <c r="I16" t="n">
-        <v>17.32444553928522</v>
+        <v>17.32444553928519</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>35.82695699582466</v>
+        <v>35.82695699582463</v>
       </c>
       <c r="S16" t="n">
-        <v>88.72726177829109</v>
+        <v>88.72726177829107</v>
       </c>
       <c r="T16" t="n">
-        <v>95.6071481790075</v>
+        <v>95.60714817900747</v>
       </c>
       <c r="U16" t="n">
         <v>154.9268322567434</v>
@@ -1828,10 +1828,10 @@
         <v>155.1430371525702</v>
       </c>
       <c r="X16" t="n">
-        <v>94.32969420501635</v>
+        <v>94.32969420501632</v>
       </c>
       <c r="Y16" t="n">
-        <v>87.20469216807399</v>
+        <v>87.20469216807396</v>
       </c>
     </row>
     <row r="17">
@@ -1859,7 +1859,7 @@
         <v>177.2792960309446</v>
       </c>
       <c r="H17" t="n">
-        <v>96.82986345989454</v>
+        <v>96.82986345989457</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1898,7 +1898,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>13.78229825150452</v>
+        <v>13.78229825150453</v>
       </c>
       <c r="V17" t="n">
         <v>90.2289113640515</v>
@@ -1929,16 +1929,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>22.08808598549928</v>
       </c>
       <c r="H18" t="n">
-        <v>109.6512419216643</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1971,25 +1971,25 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>166.71309989434</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>199.0862173745079</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>147.4886501337763</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>14.1716360548362</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>13.05685010752488</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>180.3036712061527</v>
       </c>
     </row>
     <row r="20">
@@ -2135,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>13.78229825150452</v>
+        <v>13.78229825150453</v>
       </c>
       <c r="V20" t="n">
         <v>90.2289113640515</v>
@@ -2157,10 +2157,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2169,16 +2169,16 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>137.0759430815659</v>
       </c>
       <c r="H21" t="n">
-        <v>109.6512419216643</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.22434833719798</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,25 +2208,25 @@
         <v>83.54476967999808</v>
       </c>
       <c r="S21" t="n">
-        <v>166.71309989434</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>199.0862173745079</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9237785229719</v>
       </c>
       <c r="V21" t="n">
-        <v>180.2327032027978</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>14.1716360548362</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2239,10 +2239,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>31.68819818794034</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2257,10 +2257,10 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>35.42640389846889</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>77.49939401566409</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2281,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>67.37787329201957</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -2403,13 +2403,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>88.75363270988434</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>137.0759430815659</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2442,25 +2442,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>83.54476967999808</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>22.08808598549926</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9237785229719</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>14.1716360548362</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -2518,10 +2518,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>67.37787329201957</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>112.9257979141331</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2542,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>180.3036712061527</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2552,16 +2552,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>232.6091683564221</v>
+        <v>232.609168356422</v>
       </c>
       <c r="C26" t="n">
-        <v>215.1482184639491</v>
+        <v>215.148218463949</v>
       </c>
       <c r="D26" t="n">
-        <v>204.5583683136245</v>
+        <v>204.5583683136244</v>
       </c>
       <c r="E26" t="n">
-        <v>231.8056967652033</v>
+        <v>231.8056967652032</v>
       </c>
       <c r="F26" t="n">
         <v>256.7513724346529</v>
@@ -2570,10 +2570,10 @@
         <v>264.6779698299695</v>
       </c>
       <c r="H26" t="n">
-        <v>184.2285372589195</v>
+        <v>184.2285372589194</v>
       </c>
       <c r="I26" t="n">
-        <v>41.07132775137396</v>
+        <v>41.0713277513739</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>47.49949563807161</v>
+        <v>47.49949563807156</v>
       </c>
       <c r="T26" t="n">
-        <v>70.7820131169091</v>
+        <v>70.78201311690904</v>
       </c>
       <c r="U26" t="n">
         <v>101.1809720505294</v>
@@ -2621,7 +2621,7 @@
         <v>219.6064273714105</v>
       </c>
       <c r="Y26" t="n">
-        <v>236.1132653489951</v>
+        <v>236.113265348995</v>
       </c>
     </row>
     <row r="27">
@@ -2643,13 +2643,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>118.413590669831</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>109.6512419216643</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2682,16 +2682,16 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>166.71309989434</v>
+        <v>16.58842658728142</v>
       </c>
       <c r="T27" t="n">
-        <v>199.0862173745079</v>
+        <v>48.96154406744936</v>
       </c>
       <c r="U27" t="n">
-        <v>75.79910521591339</v>
+        <v>158.794725414025</v>
       </c>
       <c r="V27" t="n">
-        <v>82.67591384236678</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
@@ -2700,7 +2700,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>55.55802247024587</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>29.70730687487881</v>
+        <v>29.70730687487875</v>
       </c>
       <c r="C28" t="n">
-        <v>17.12214779156935</v>
+        <v>17.12214779156929</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2725,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>17.64198092974527</v>
+        <v>17.64198092974521</v>
       </c>
       <c r="H28" t="n">
-        <v>10.10804493693934</v>
+        <v>10.10804493693928</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>17.08224487278697</v>
+        <v>17.08224487278692</v>
       </c>
       <c r="S28" t="n">
-        <v>69.98254965525341</v>
+        <v>69.98254965525335</v>
       </c>
       <c r="T28" t="n">
-        <v>76.86243605596981</v>
+        <v>76.86243605596975</v>
       </c>
       <c r="U28" t="n">
-        <v>136.1821201337058</v>
+        <v>136.1821201337057</v>
       </c>
       <c r="V28" t="n">
         <v>102.0129700167695</v>
@@ -2776,10 +2776,10 @@
         <v>136.3983250295325</v>
       </c>
       <c r="X28" t="n">
-        <v>75.58498208197867</v>
+        <v>75.58498208197861</v>
       </c>
       <c r="Y28" t="n">
-        <v>68.4599800450363</v>
+        <v>68.45998004503625</v>
       </c>
     </row>
     <row r="29">
@@ -2877,16 +2877,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>47.4446890518503</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>77.940159284437</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>109.6512419216643</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2916,16 +2916,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>83.54476967999808</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>166.71309989434</v>
+        <v>16.58842658728142</v>
       </c>
       <c r="T30" t="n">
         <v>48.96154406744936</v>
       </c>
       <c r="U30" t="n">
-        <v>75.79910521591333</v>
+        <v>225.9237785229719</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2937,7 +2937,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>55.55802247024582</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -3105,7 +3105,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>14.62953978851323</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -3117,16 +3117,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.0759430815659</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>109.6512419216643</v>
+        <v>88.33253186099846</v>
       </c>
       <c r="I33" t="n">
-        <v>80.18410416320771</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3156,22 +3156,22 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>166.71309989434</v>
+        <v>14.80945603298585</v>
       </c>
       <c r="T33" t="n">
-        <v>199.0862173745079</v>
+        <v>47.18257351315379</v>
       </c>
       <c r="U33" t="n">
         <v>74.02013466161776</v>
       </c>
       <c r="V33" t="n">
-        <v>80.89694328807116</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>112.2634402914218</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -3320,7 +3320,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>30.39895893362034</v>
+        <v>30.39895893362035</v>
       </c>
       <c r="V35" t="n">
         <v>106.8455720461673</v>
@@ -3345,16 +3345,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>137.0759430815659</v>
@@ -3363,7 +3363,7 @@
         <v>109.6512419216643</v>
       </c>
       <c r="I36" t="n">
-        <v>80.18410416320771</v>
+        <v>31.95014711860105</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3393,10 +3393,10 @@
         <v>83.54476967999808</v>
       </c>
       <c r="S36" t="n">
-        <v>166.71309989434</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>150.9585591908296</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>5.01709209900429</v>
@@ -3408,7 +3408,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -3427,7 +3427,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>119.5702972556749</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>125.6507201947357</v>
+        <v>6.080422939060716</v>
       </c>
       <c r="U37" t="n">
         <v>65.40010701679667</v>
@@ -3582,10 +3582,10 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3594,13 +3594,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>137.0759430815659</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>80.18410416320771</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3636,7 +3636,7 @@
         <v>199.0862173745079</v>
       </c>
       <c r="U39" t="n">
-        <v>15.76341597979707</v>
+        <v>225.9237785229719</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3645,10 +3645,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>166.7947515019637</v>
       </c>
     </row>
     <row r="40">
@@ -3703,10 +3703,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>67.37787329201957</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>52.19242396365538</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3721,7 +3721,7 @@
         <v>31.23095689986042</v>
       </c>
       <c r="W40" t="n">
-        <v>185.1866091682983</v>
+        <v>65.61631191262342</v>
       </c>
       <c r="X40" t="n">
         <v>4.802968965069567</v>
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>179.9546374739201</v>
+        <v>179.95463747392</v>
       </c>
       <c r="C41" t="n">
-        <v>162.4936875814471</v>
+        <v>162.493687581447</v>
       </c>
       <c r="D41" t="n">
-        <v>151.9038374311225</v>
+        <v>151.9038374311224</v>
       </c>
       <c r="E41" t="n">
-        <v>179.1511658827013</v>
+        <v>179.1511658827012</v>
       </c>
       <c r="F41" t="n">
         <v>204.0968415521509</v>
       </c>
       <c r="G41" t="n">
-        <v>212.0234389474675</v>
+        <v>212.0234389474674</v>
       </c>
       <c r="H41" t="n">
-        <v>131.5740063764175</v>
+        <v>131.5740063764174</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3791,10 +3791,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>18.1274822344071</v>
+        <v>18.12748223440704</v>
       </c>
       <c r="U41" t="n">
-        <v>48.52644116802745</v>
+        <v>48.52644116802739</v>
       </c>
       <c r="V41" t="n">
         <v>124.9730542805744</v>
@@ -3806,7 +3806,7 @@
         <v>166.9518964889085</v>
       </c>
       <c r="Y41" t="n">
-        <v>183.4587344664931</v>
+        <v>183.458734466493</v>
       </c>
     </row>
     <row r="42">
@@ -3819,19 +3819,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>59.94536025916925</v>
       </c>
       <c r="G42" t="n">
-        <v>137.0759430815659</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3864,19 +3864,19 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>83.54476967999808</v>
       </c>
       <c r="S42" t="n">
-        <v>166.71309989434</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>199.0862173745079</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>225.9237785229719</v>
       </c>
       <c r="V42" t="n">
-        <v>203.7690361818962</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>17.3280187727514</v>
+        <v>17.32801877275135</v>
       </c>
       <c r="T43" t="n">
-        <v>24.20790517346781</v>
+        <v>24.20790517346776</v>
       </c>
       <c r="U43" t="n">
-        <v>83.52758925120376</v>
+        <v>83.52758925120371</v>
       </c>
       <c r="V43" t="n">
-        <v>49.35843913426751</v>
+        <v>49.35843913426746</v>
       </c>
       <c r="W43" t="n">
-        <v>83.74379414703051</v>
+        <v>83.74379414703046</v>
       </c>
       <c r="X43" t="n">
-        <v>22.93045119947666</v>
+        <v>22.93045119947661</v>
       </c>
       <c r="Y43" t="n">
-        <v>15.8054491625343</v>
+        <v>15.80544916253425</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>179.9546374739201</v>
+        <v>179.95463747392</v>
       </c>
       <c r="C44" t="n">
-        <v>162.4936875814471</v>
+        <v>162.493687581447</v>
       </c>
       <c r="D44" t="n">
-        <v>151.9038374311225</v>
+        <v>151.9038374311224</v>
       </c>
       <c r="E44" t="n">
-        <v>179.1511658827013</v>
+        <v>179.1511658827012</v>
       </c>
       <c r="F44" t="n">
         <v>204.0968415521509</v>
       </c>
       <c r="G44" t="n">
-        <v>212.0234389474675</v>
+        <v>212.0234389474674</v>
       </c>
       <c r="H44" t="n">
-        <v>131.5740063764175</v>
+        <v>131.5740063764174</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4028,10 +4028,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>18.1274822344071</v>
+        <v>18.12748223440704</v>
       </c>
       <c r="U44" t="n">
-        <v>48.52644116802745</v>
+        <v>48.52644116802739</v>
       </c>
       <c r="V44" t="n">
         <v>124.9730542805744</v>
@@ -4043,7 +4043,7 @@
         <v>166.9518964889085</v>
       </c>
       <c r="Y44" t="n">
-        <v>183.4587344664931</v>
+        <v>183.458734466493</v>
       </c>
     </row>
     <row r="45">
@@ -4053,7 +4053,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>72.984514494834</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -4065,13 +4065,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>137.0759430815659</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>109.6512419216643</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,7 +4104,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>166.71309989434</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>199.0862173745079</v>
@@ -4113,7 +4113,7 @@
         <v>225.9237785229719</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>204.8437863090171</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
@@ -4122,7 +4122,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>2.903491587743872</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>17.3280187727514</v>
+        <v>17.32801877275135</v>
       </c>
       <c r="T46" t="n">
-        <v>24.20790517346781</v>
+        <v>24.20790517346776</v>
       </c>
       <c r="U46" t="n">
-        <v>83.52758925120376</v>
+        <v>83.52758925120371</v>
       </c>
       <c r="V46" t="n">
-        <v>49.35843913426751</v>
+        <v>49.35843913426746</v>
       </c>
       <c r="W46" t="n">
-        <v>83.74379414703051</v>
+        <v>83.74379414703046</v>
       </c>
       <c r="X46" t="n">
-        <v>22.93045119947666</v>
+        <v>22.93045119947661</v>
       </c>
       <c r="Y46" t="n">
-        <v>15.8054491625343</v>
+        <v>15.80544916253425</v>
       </c>
     </row>
   </sheetData>
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="C8" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="D8" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="E8" t="n">
+        <v>21.38658590694733</v>
+      </c>
+      <c r="F8" t="n">
         <v>14.44108515774386</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>7.495584408540386</v>
       </c>
-      <c r="G8" t="n">
-        <v>0.5500836593369149</v>
-      </c>
       <c r="H8" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="J8" t="n">
         <v>0.5500836593369149</v>
@@ -4808,7 +4808,7 @@
         <v>7.357368943631237</v>
       </c>
       <c r="L8" t="n">
-        <v>13.8896123982571</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="M8" t="n">
         <v>20.69689768255142</v>
@@ -4817,37 +4817,37 @@
         <v>20.69689768255142</v>
       </c>
       <c r="O8" t="n">
-        <v>20.69689768255142</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="P8" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="Q8" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="R8" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="S8" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="T8" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="U8" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="V8" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="W8" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="X8" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="Y8" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>13.6131814684388</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="C9" t="n">
-        <v>7.495584408540386</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="D9" t="n">
-        <v>7.495584408540386</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="E9" t="n">
-        <v>7.495584408540386</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5500836593369149</v>
+        <v>22.14071855973305</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5500836593369149</v>
+        <v>15.19521781052957</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5500836593369149</v>
+        <v>8.2497170613261</v>
       </c>
       <c r="I9" t="n">
-        <v>0.5500836593369149</v>
+        <v>1.304216312122629</v>
       </c>
       <c r="J9" t="n">
         <v>0.5500836593369149</v>
@@ -4893,13 +4893,13 @@
         <v>7.357368943631237</v>
       </c>
       <c r="N9" t="n">
-        <v>13.8896123982571</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="O9" t="n">
-        <v>20.69689768255142</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="P9" t="n">
-        <v>20.69689768255142</v>
+        <v>20.97193951221988</v>
       </c>
       <c r="Q9" t="n">
         <v>27.50418296684575</v>
@@ -4911,22 +4911,22 @@
         <v>27.50418296684575</v>
       </c>
       <c r="T9" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="U9" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="V9" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="W9" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="X9" t="n">
-        <v>13.6131814684388</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="Y9" t="n">
-        <v>13.6131814684388</v>
+        <v>27.50418296684575</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>17.80975218218115</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="C10" t="n">
-        <v>10.86425143297768</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="D10" t="n">
-        <v>10.86425143297768</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="E10" t="n">
-        <v>10.86425143297768</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="F10" t="n">
-        <v>10.86425143297768</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="G10" t="n">
-        <v>10.86425143297768</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="H10" t="n">
         <v>7.495584408540386</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="J10" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="K10" t="n">
         <v>0.5500836593369149</v>
@@ -4969,7 +4969,7 @@
         <v>7.357368943631237</v>
       </c>
       <c r="M10" t="n">
-        <v>14.16465422792556</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="N10" t="n">
         <v>20.69689768255142</v>
@@ -5002,10 +5002,10 @@
         <v>24.75525293138463</v>
       </c>
       <c r="X10" t="n">
-        <v>24.75525293138463</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="Y10" t="n">
-        <v>17.80975218218115</v>
+        <v>14.44108515774386</v>
       </c>
     </row>
     <row r="11">
@@ -5015,43 +5015,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1195.588177334909</v>
+        <v>631.2027094027891</v>
       </c>
       <c r="C11" t="n">
-        <v>1134.023217500915</v>
+        <v>631.2027094027891</v>
       </c>
       <c r="D11" t="n">
-        <v>908.4645503931758</v>
+        <v>631.2027094027891</v>
       </c>
       <c r="E11" t="n">
-        <v>655.3833292939426</v>
+        <v>378.1214883035558</v>
       </c>
       <c r="F11" t="n">
-        <v>377.1044560033461</v>
+        <v>99.84261501295919</v>
       </c>
       <c r="G11" t="n">
-        <v>90.81891867707637</v>
+        <v>99.84261501295919</v>
       </c>
       <c r="H11" t="n">
-        <v>90.81891867707637</v>
+        <v>90.81891867707643</v>
       </c>
       <c r="I11" t="n">
-        <v>30.39867637969095</v>
+        <v>30.39867637969094</v>
       </c>
       <c r="J11" t="n">
-        <v>60.58931629025233</v>
+        <v>60.58931629025221</v>
       </c>
       <c r="K11" t="n">
-        <v>226.5820636478227</v>
+        <v>226.5820636478225</v>
       </c>
       <c r="L11" t="n">
-        <v>484.787372369884</v>
+        <v>484.7873723698839</v>
       </c>
       <c r="M11" t="n">
-        <v>788.6970746328864</v>
+        <v>788.697074632886</v>
       </c>
       <c r="N11" t="n">
-        <v>1082.892356060503</v>
+        <v>1082.892356060502</v>
       </c>
       <c r="O11" t="n">
         <v>1315.504980085948</v>
@@ -5066,25 +5066,25 @@
         <v>1519.933818984547</v>
       </c>
       <c r="S11" t="n">
-        <v>1453.02047781171</v>
+        <v>1453.020477811709</v>
       </c>
       <c r="T11" t="n">
-        <v>1453.02047781171</v>
+        <v>1362.589442215804</v>
       </c>
       <c r="U11" t="n">
-        <v>1453.02047781171</v>
+        <v>1362.589442215804</v>
       </c>
       <c r="V11" t="n">
-        <v>1453.02047781171</v>
+        <v>1362.589442215804</v>
       </c>
       <c r="W11" t="n">
-        <v>1453.02047781171</v>
+        <v>1142.527818444701</v>
       </c>
       <c r="X11" t="n">
-        <v>1453.02047781171</v>
+        <v>1142.527818444701</v>
       </c>
       <c r="Y11" t="n">
-        <v>1195.588177334909</v>
+        <v>885.0955179678999</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>643.3634440937593</v>
+        <v>826.2847170242992</v>
       </c>
       <c r="C12" t="n">
-        <v>601.6174463116433</v>
+        <v>682.6114909209441</v>
       </c>
       <c r="D12" t="n">
-        <v>452.6830366503921</v>
+        <v>533.6770812596928</v>
       </c>
       <c r="E12" t="n">
-        <v>426.1526131439476</v>
+        <v>507.1466577532483</v>
       </c>
       <c r="F12" t="n">
-        <v>279.6180551708326</v>
+        <v>360.6120997801332</v>
       </c>
       <c r="G12" t="n">
-        <v>141.1575066035943</v>
+        <v>222.151551212895</v>
       </c>
       <c r="H12" t="n">
-        <v>30.39867637969095</v>
+        <v>111.3927209889917</v>
       </c>
       <c r="I12" t="n">
-        <v>30.39867637969095</v>
+        <v>30.39867637969094</v>
       </c>
       <c r="J12" t="n">
-        <v>30.39867637969095</v>
+        <v>54.68663500082921</v>
       </c>
       <c r="K12" t="n">
-        <v>30.39867637969095</v>
+        <v>222.8194679282964</v>
       </c>
       <c r="L12" t="n">
-        <v>317.8784154177993</v>
+        <v>510.2992069664047</v>
       </c>
       <c r="M12" t="n">
-        <v>598.7432884135785</v>
+        <v>886.4828271650799</v>
       </c>
       <c r="N12" t="n">
-        <v>974.926908612254</v>
+        <v>1262.666447363755</v>
       </c>
       <c r="O12" t="n">
-        <v>1286.706376621273</v>
+        <v>1416.72521963145</v>
       </c>
       <c r="P12" t="n">
-        <v>1519.933818984547</v>
+        <v>1416.72521963145</v>
       </c>
       <c r="Q12" t="n">
         <v>1519.933818984547</v>
       </c>
       <c r="R12" t="n">
-        <v>1519.933818984547</v>
+        <v>1435.545162742125</v>
       </c>
       <c r="S12" t="n">
-        <v>1484.243779883215</v>
+        <v>1399.855123640792</v>
       </c>
       <c r="T12" t="n">
-        <v>1283.146590616035</v>
+        <v>1331.464965872623</v>
       </c>
       <c r="U12" t="n">
-        <v>1187.647785223155</v>
+        <v>1235.966160479743</v>
       </c>
       <c r="V12" t="n">
-        <v>1085.202708490424</v>
+        <v>1133.521083747012</v>
       </c>
       <c r="W12" t="n">
-        <v>961.776517086292</v>
+        <v>1011.990758517821</v>
       </c>
       <c r="X12" t="n">
-        <v>886.6320483797701</v>
+        <v>936.8462898112992</v>
       </c>
       <c r="Y12" t="n">
-        <v>811.5787811138273</v>
+        <v>861.7930225453563</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>196.824288200198</v>
+        <v>196.8242882001985</v>
       </c>
       <c r="C13" t="n">
-        <v>160.5951367713021</v>
+        <v>160.5951367713025</v>
       </c>
       <c r="D13" t="n">
-        <v>143.1855288579774</v>
+        <v>143.1855288579777</v>
       </c>
       <c r="E13" t="n">
-        <v>127.9794667745953</v>
+        <v>127.9794667745955</v>
       </c>
       <c r="F13" t="n">
-        <v>113.7965507756959</v>
+        <v>113.7965507756961</v>
       </c>
       <c r="G13" t="n">
-        <v>77.04231536884456</v>
+        <v>77.04231536884467</v>
       </c>
       <c r="H13" t="n">
-        <v>47.8981163183628</v>
+        <v>47.89811631836285</v>
       </c>
       <c r="I13" t="n">
-        <v>30.39867637969095</v>
+        <v>30.39867637969094</v>
       </c>
       <c r="J13" t="n">
-        <v>30.39867637969095</v>
+        <v>30.39867637969094</v>
       </c>
       <c r="K13" t="n">
-        <v>164.219916537006</v>
+        <v>164.2199165370059</v>
       </c>
       <c r="L13" t="n">
-        <v>354.6177204728129</v>
+        <v>354.6177204728127</v>
       </c>
       <c r="M13" t="n">
-        <v>475.5672613811496</v>
+        <v>558.6842628914903</v>
       </c>
       <c r="N13" t="n">
-        <v>683.3088565641345</v>
+        <v>766.4258580744752</v>
       </c>
       <c r="O13" t="n">
-        <v>869.1045576946424</v>
+        <v>932.4666247077251</v>
       </c>
       <c r="P13" t="n">
-        <v>1023.336285705551</v>
+        <v>1086.698352718634</v>
       </c>
       <c r="Q13" t="n">
-        <v>1086.698352718632</v>
+        <v>1086.698352718634</v>
       </c>
       <c r="R13" t="n">
-        <v>1050.509507268305</v>
+        <v>1050.509507268306</v>
       </c>
       <c r="S13" t="n">
-        <v>960.8860105225561</v>
+        <v>960.8860105225571</v>
       </c>
       <c r="T13" t="n">
-        <v>864.3131335740638</v>
+        <v>864.3131335740646</v>
       </c>
       <c r="U13" t="n">
-        <v>707.8213838197777</v>
+        <v>707.8213838197784</v>
       </c>
       <c r="V13" t="n">
-        <v>585.8439271129018</v>
+        <v>585.8439271129024</v>
       </c>
       <c r="W13" t="n">
-        <v>429.1337885749522</v>
+        <v>429.1337885749527</v>
       </c>
       <c r="X13" t="n">
-        <v>333.8512691759458</v>
+        <v>333.8512691759464</v>
       </c>
       <c r="Y13" t="n">
-        <v>245.7657215314267</v>
+        <v>245.7657215314272</v>
       </c>
     </row>
     <row r="14">
@@ -5252,40 +5252,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>774.4822911082484</v>
+        <v>235.42216060389</v>
       </c>
       <c r="C14" t="n">
-        <v>774.4822911082484</v>
+        <v>235.42216060389</v>
       </c>
       <c r="D14" t="n">
-        <v>548.9236240005089</v>
+        <v>235.42216060389</v>
       </c>
       <c r="E14" t="n">
-        <v>295.8424029012756</v>
+        <v>235.42216060389</v>
       </c>
       <c r="F14" t="n">
-        <v>295.8424029012756</v>
+        <v>235.42216060389</v>
       </c>
       <c r="G14" t="n">
-        <v>295.8424029012756</v>
+        <v>235.42216060389</v>
       </c>
       <c r="H14" t="n">
-        <v>90.81891867707647</v>
+        <v>30.39867637969094</v>
       </c>
       <c r="I14" t="n">
-        <v>30.39867637969095</v>
+        <v>30.39867637969094</v>
       </c>
       <c r="J14" t="n">
-        <v>60.58931629025225</v>
+        <v>60.58931629025221</v>
       </c>
       <c r="K14" t="n">
-        <v>226.5820636478226</v>
+        <v>226.5820636478225</v>
       </c>
       <c r="L14" t="n">
-        <v>484.7873723698839</v>
+        <v>484.7873723698838</v>
       </c>
       <c r="M14" t="n">
-        <v>788.6970746328861</v>
+        <v>788.697074632886</v>
       </c>
       <c r="N14" t="n">
         <v>1082.892356060502</v>
@@ -5303,25 +5303,25 @@
         <v>1519.933818984547</v>
       </c>
       <c r="S14" t="n">
-        <v>1453.02047781171</v>
+        <v>1519.933818984547</v>
       </c>
       <c r="T14" t="n">
-        <v>1453.02047781171</v>
+        <v>1429.502783388641</v>
       </c>
       <c r="U14" t="n">
-        <v>1453.02047781171</v>
+        <v>1308.365728667866</v>
       </c>
       <c r="V14" t="n">
-        <v>1453.02047781171</v>
+        <v>1207.567620178974</v>
       </c>
       <c r="W14" t="n">
-        <v>1232.958854040606</v>
+        <v>987.5059964078704</v>
       </c>
       <c r="X14" t="n">
-        <v>992.2001272785375</v>
+        <v>746.7472696458015</v>
       </c>
       <c r="Y14" t="n">
-        <v>774.4822911082484</v>
+        <v>489.3149691690007</v>
       </c>
     </row>
     <row r="15">
@@ -5331,46 +5331,46 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>643.3634440937597</v>
+        <v>724.3574887030603</v>
       </c>
       <c r="C15" t="n">
-        <v>601.6174463116436</v>
+        <v>682.6114909209442</v>
       </c>
       <c r="D15" t="n">
-        <v>452.6830366503922</v>
+        <v>666.3841127587038</v>
       </c>
       <c r="E15" t="n">
-        <v>426.1526131439476</v>
+        <v>507.1466577532483</v>
       </c>
       <c r="F15" t="n">
-        <v>279.6180551708326</v>
+        <v>360.6120997801332</v>
       </c>
       <c r="G15" t="n">
-        <v>141.1575066035943</v>
+        <v>222.151551212895</v>
       </c>
       <c r="H15" t="n">
-        <v>30.39867637969095</v>
+        <v>111.3927209889917</v>
       </c>
       <c r="I15" t="n">
-        <v>30.39867637969095</v>
+        <v>30.39867637969094</v>
       </c>
       <c r="J15" t="n">
-        <v>30.39867637969095</v>
+        <v>54.68663500082921</v>
       </c>
       <c r="K15" t="n">
-        <v>198.5315093071581</v>
+        <v>222.8194679282964</v>
       </c>
       <c r="L15" t="n">
-        <v>486.0112483452664</v>
+        <v>510.2992069664047</v>
       </c>
       <c r="M15" t="n">
-        <v>862.1948685439418</v>
+        <v>886.4828271650799</v>
       </c>
       <c r="N15" t="n">
-        <v>974.926908612254</v>
+        <v>1262.666447363755</v>
       </c>
       <c r="O15" t="n">
-        <v>1286.706376621273</v>
+        <v>1286.706376621272</v>
       </c>
       <c r="P15" t="n">
         <v>1519.933818984547</v>
@@ -5379,28 +5379,28 @@
         <v>1519.933818984547</v>
       </c>
       <c r="R15" t="n">
-        <v>1519.933818984547</v>
+        <v>1435.545162742125</v>
       </c>
       <c r="S15" t="n">
-        <v>1484.243779883215</v>
+        <v>1297.927895319553</v>
       </c>
       <c r="T15" t="n">
-        <v>1415.853622115046</v>
+        <v>1229.537737551385</v>
       </c>
       <c r="U15" t="n">
-        <v>1187.647785223155</v>
+        <v>1134.038932158505</v>
       </c>
       <c r="V15" t="n">
-        <v>1085.202708490423</v>
+        <v>1031.593855425773</v>
       </c>
       <c r="W15" t="n">
-        <v>961.7765170862925</v>
+        <v>910.0635301965822</v>
       </c>
       <c r="X15" t="n">
-        <v>886.6320483797706</v>
+        <v>834.9190614900604</v>
       </c>
       <c r="Y15" t="n">
-        <v>678.8717496148167</v>
+        <v>759.8657942241174</v>
       </c>
     </row>
     <row r="16">
@@ -5410,49 +5410,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>196.8242882001986</v>
+        <v>196.8242882001985</v>
       </c>
       <c r="C16" t="n">
-        <v>160.5951367713026</v>
+        <v>160.5951367713025</v>
       </c>
       <c r="D16" t="n">
-        <v>143.1855288579778</v>
+        <v>143.1855288579777</v>
       </c>
       <c r="E16" t="n">
-        <v>127.9794667745957</v>
+        <v>127.9794667745955</v>
       </c>
       <c r="F16" t="n">
-        <v>113.7965507756962</v>
+        <v>113.7965507756961</v>
       </c>
       <c r="G16" t="n">
-        <v>77.04231536884473</v>
+        <v>77.04231536884467</v>
       </c>
       <c r="H16" t="n">
-        <v>47.89811631836289</v>
+        <v>47.89811631836285</v>
       </c>
       <c r="I16" t="n">
-        <v>30.39867637969095</v>
+        <v>30.39867637969094</v>
       </c>
       <c r="J16" t="n">
-        <v>83.74043787636408</v>
+        <v>83.7404378763641</v>
       </c>
       <c r="K16" t="n">
-        <v>87.49551646149845</v>
+        <v>217.5616780336791</v>
       </c>
       <c r="L16" t="n">
-        <v>277.8933203973053</v>
+        <v>407.9594819694859</v>
       </c>
       <c r="M16" t="n">
-        <v>481.9598628159829</v>
+        <v>612.0260243881636</v>
       </c>
       <c r="N16" t="n">
-        <v>689.7014579989677</v>
+        <v>813.3750181363167</v>
       </c>
       <c r="O16" t="n">
-        <v>869.1045576946442</v>
+        <v>869.1045576946439</v>
       </c>
       <c r="P16" t="n">
-        <v>1023.336285705553</v>
+        <v>1023.336285705552</v>
       </c>
       <c r="Q16" t="n">
         <v>1086.698352718634</v>
@@ -5461,25 +5461,25 @@
         <v>1050.509507268306</v>
       </c>
       <c r="S16" t="n">
-        <v>960.8860105225574</v>
+        <v>960.8860105225571</v>
       </c>
       <c r="T16" t="n">
-        <v>864.313133574065</v>
+        <v>864.3131335740646</v>
       </c>
       <c r="U16" t="n">
-        <v>707.8213838197787</v>
+        <v>707.8213838197784</v>
       </c>
       <c r="V16" t="n">
-        <v>585.8439271129027</v>
+        <v>585.8439271129024</v>
       </c>
       <c r="W16" t="n">
-        <v>429.133788574953</v>
+        <v>429.1337885749527</v>
       </c>
       <c r="X16" t="n">
-        <v>333.8512691759466</v>
+        <v>333.8512691759464</v>
       </c>
       <c r="Y16" t="n">
-        <v>245.7657215314274</v>
+        <v>245.7657215314272</v>
       </c>
     </row>
     <row r="17">
@@ -5489,40 +5489,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>871.5886968566299</v>
+        <v>871.5886968566293</v>
       </c>
       <c r="C17" t="n">
-        <v>742.5487527506459</v>
+        <v>742.5487527506455</v>
       </c>
       <c r="D17" t="n">
-        <v>624.2056269783232</v>
+        <v>624.2056269783226</v>
       </c>
       <c r="E17" t="n">
-        <v>478.3399472145067</v>
+        <v>478.3399472145061</v>
       </c>
       <c r="F17" t="n">
-        <v>307.2766152593268</v>
+        <v>307.2766152593263</v>
       </c>
       <c r="G17" t="n">
         <v>128.2066192684733</v>
       </c>
       <c r="H17" t="n">
-        <v>30.39867637969095</v>
+        <v>30.39867637969094</v>
       </c>
       <c r="I17" t="n">
-        <v>30.39867637969095</v>
+        <v>30.39867637969094</v>
       </c>
       <c r="J17" t="n">
-        <v>60.58931629025225</v>
+        <v>60.58931629025224</v>
       </c>
       <c r="K17" t="n">
-        <v>226.5820636478226</v>
+        <v>226.5820636478225</v>
       </c>
       <c r="L17" t="n">
         <v>484.7873723698839</v>
       </c>
       <c r="M17" t="n">
-        <v>788.6970746328861</v>
+        <v>788.697074632886</v>
       </c>
       <c r="N17" t="n">
         <v>1082.892356060502</v>
@@ -5558,7 +5558,7 @@
         <v>1168.482723227708</v>
       </c>
       <c r="Y17" t="n">
-        <v>1018.265964086324</v>
+        <v>1018.265964086323</v>
       </c>
     </row>
     <row r="18">
@@ -5568,49 +5568,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>611.0795035190876</v>
+        <v>681.8693262657905</v>
       </c>
       <c r="C18" t="n">
-        <v>436.6264742379606</v>
+        <v>507.4162969846635</v>
       </c>
       <c r="D18" t="n">
-        <v>287.6920645767093</v>
+        <v>358.4818873234123</v>
       </c>
       <c r="E18" t="n">
-        <v>287.6920645767093</v>
+        <v>199.2444323179568</v>
       </c>
       <c r="F18" t="n">
-        <v>141.1575066035943</v>
+        <v>52.70987434484172</v>
       </c>
       <c r="G18" t="n">
-        <v>141.1575066035943</v>
+        <v>30.39867637969094</v>
       </c>
       <c r="H18" t="n">
-        <v>30.39867637969095</v>
+        <v>30.39867637969094</v>
       </c>
       <c r="I18" t="n">
-        <v>30.39867637969095</v>
+        <v>30.39867637969094</v>
       </c>
       <c r="J18" t="n">
-        <v>30.39867637969095</v>
+        <v>54.68663500082921</v>
       </c>
       <c r="K18" t="n">
-        <v>30.39867637969095</v>
+        <v>65.09877218697289</v>
       </c>
       <c r="L18" t="n">
-        <v>317.8784154177992</v>
+        <v>352.5785112250812</v>
       </c>
       <c r="M18" t="n">
-        <v>694.0620356164746</v>
+        <v>728.7621314237565</v>
       </c>
       <c r="N18" t="n">
-        <v>871.7183092591576</v>
+        <v>1104.945751622432</v>
       </c>
       <c r="O18" t="n">
-        <v>1183.497777268176</v>
+        <v>1416.72521963145</v>
       </c>
       <c r="P18" t="n">
-        <v>1416.725219631451</v>
+        <v>1416.72521963145</v>
       </c>
       <c r="Q18" t="n">
         <v>1519.933818984547</v>
@@ -5619,25 +5619,25 @@
         <v>1519.933818984547</v>
       </c>
       <c r="S18" t="n">
-        <v>1351.536748384204</v>
+        <v>1519.933818984547</v>
       </c>
       <c r="T18" t="n">
-        <v>1150.439559117024</v>
+        <v>1519.933818984547</v>
       </c>
       <c r="U18" t="n">
-        <v>1001.461124638462</v>
+        <v>1519.933818984547</v>
       </c>
       <c r="V18" t="n">
-        <v>1001.461124638462</v>
+        <v>1519.933818984547</v>
       </c>
       <c r="W18" t="n">
-        <v>987.1463407446884</v>
+        <v>1265.696462256345</v>
       </c>
       <c r="X18" t="n">
-        <v>779.2948405391555</v>
+        <v>1057.844962050812</v>
       </c>
       <c r="Y18" t="n">
-        <v>779.2948405391555</v>
+        <v>850.0846632858586</v>
       </c>
     </row>
     <row r="19">
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>212.5235967899462</v>
+        <v>30.39867637969094</v>
       </c>
       <c r="C19" t="n">
-        <v>43.58741386203931</v>
+        <v>30.39867637969094</v>
       </c>
       <c r="D19" t="n">
-        <v>43.58741386203931</v>
+        <v>30.39867637969094</v>
       </c>
       <c r="E19" t="n">
-        <v>43.58741386203931</v>
+        <v>30.39867637969094</v>
       </c>
       <c r="F19" t="n">
-        <v>43.58741386203931</v>
+        <v>30.39867637969094</v>
       </c>
       <c r="G19" t="n">
-        <v>30.39867637969095</v>
+        <v>30.39867637969094</v>
       </c>
       <c r="H19" t="n">
-        <v>30.39867637969095</v>
+        <v>30.39867637969094</v>
       </c>
       <c r="I19" t="n">
-        <v>30.39867637969095</v>
+        <v>30.39867637969094</v>
       </c>
       <c r="J19" t="n">
-        <v>30.39867637969095</v>
+        <v>30.39867637969094</v>
       </c>
       <c r="K19" t="n">
-        <v>34.15375496482532</v>
+        <v>34.1537549648253</v>
       </c>
       <c r="L19" t="n">
-        <v>94.48539732845151</v>
+        <v>94.4853973284515</v>
       </c>
       <c r="M19" t="n">
         <v>168.4857781749486</v>
@@ -5716,7 +5716,7 @@
         <v>212.5235967899462</v>
       </c>
       <c r="Y19" t="n">
-        <v>212.5235967899462</v>
+        <v>30.39867637969094</v>
       </c>
     </row>
     <row r="20">
@@ -5726,40 +5726,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>871.5886968566299</v>
+        <v>871.588696856629</v>
       </c>
       <c r="C20" t="n">
-        <v>742.5487527506459</v>
+        <v>742.5487527506452</v>
       </c>
       <c r="D20" t="n">
-        <v>624.2056269783232</v>
+        <v>624.2056269783225</v>
       </c>
       <c r="E20" t="n">
-        <v>478.3399472145067</v>
+        <v>478.3399472145061</v>
       </c>
       <c r="F20" t="n">
-        <v>307.2766152593268</v>
+        <v>307.2766152593263</v>
       </c>
       <c r="G20" t="n">
         <v>128.2066192684733</v>
       </c>
       <c r="H20" t="n">
-        <v>30.39867637969095</v>
+        <v>30.39867637969094</v>
       </c>
       <c r="I20" t="n">
-        <v>30.39867637969095</v>
+        <v>30.39867637969094</v>
       </c>
       <c r="J20" t="n">
-        <v>60.58931629025225</v>
+        <v>60.58931629025224</v>
       </c>
       <c r="K20" t="n">
-        <v>226.5820636478226</v>
+        <v>226.5820636478225</v>
       </c>
       <c r="L20" t="n">
         <v>484.7873723698839</v>
       </c>
       <c r="M20" t="n">
-        <v>788.6970746328861</v>
+        <v>788.697074632886</v>
       </c>
       <c r="N20" t="n">
         <v>1082.892356060502</v>
@@ -5786,16 +5786,16 @@
         <v>1506.012305599189</v>
       </c>
       <c r="V20" t="n">
-        <v>1414.871991090047</v>
+        <v>1414.871991090046</v>
       </c>
       <c r="W20" t="n">
-        <v>1302.02590865436</v>
+        <v>1302.025908654359</v>
       </c>
       <c r="X20" t="n">
-        <v>1168.482723227708</v>
+        <v>1168.482723227707</v>
       </c>
       <c r="Y20" t="n">
-        <v>1018.265964086324</v>
+        <v>1018.265964086323</v>
       </c>
     </row>
     <row r="21">
@@ -5805,31 +5805,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>454.0710844519596</v>
+        <v>341.8830236646887</v>
       </c>
       <c r="C21" t="n">
-        <v>279.6180551708326</v>
+        <v>341.8830236646887</v>
       </c>
       <c r="D21" t="n">
-        <v>279.6180551708326</v>
+        <v>341.8830236646887</v>
       </c>
       <c r="E21" t="n">
-        <v>279.6180551708326</v>
+        <v>341.8830236646887</v>
       </c>
       <c r="F21" t="n">
-        <v>279.6180551708326</v>
+        <v>195.3484656915736</v>
       </c>
       <c r="G21" t="n">
-        <v>141.1575066035943</v>
+        <v>56.88791712433536</v>
       </c>
       <c r="H21" t="n">
-        <v>30.39867637969095</v>
+        <v>56.88791712433536</v>
       </c>
       <c r="I21" t="n">
-        <v>30.39867637969095</v>
+        <v>30.39867637969094</v>
       </c>
       <c r="J21" t="n">
-        <v>54.68663500082923</v>
+        <v>54.68663500082921</v>
       </c>
       <c r="K21" t="n">
         <v>222.8194679282964</v>
@@ -5838,16 +5838,16 @@
         <v>510.2992069664047</v>
       </c>
       <c r="M21" t="n">
-        <v>886.4828271650802</v>
+        <v>871.7183092591572</v>
       </c>
       <c r="N21" t="n">
-        <v>1183.497777268176</v>
+        <v>871.7183092591572</v>
       </c>
       <c r="O21" t="n">
         <v>1183.497777268176</v>
       </c>
       <c r="P21" t="n">
-        <v>1416.725219631451</v>
+        <v>1416.72521963145</v>
       </c>
       <c r="Q21" t="n">
         <v>1519.933818984547</v>
@@ -5856,25 +5856,25 @@
         <v>1435.545162742125</v>
       </c>
       <c r="S21" t="n">
-        <v>1267.148092141782</v>
+        <v>1435.545162742125</v>
       </c>
       <c r="T21" t="n">
-        <v>1066.050902874602</v>
+        <v>1435.545162742125</v>
       </c>
       <c r="U21" t="n">
-        <v>1066.050902874602</v>
+        <v>1207.339325850234</v>
       </c>
       <c r="V21" t="n">
-        <v>883.9976673162203</v>
+        <v>972.1872176184911</v>
       </c>
       <c r="W21" t="n">
-        <v>869.6828834224464</v>
+        <v>717.9498608902895</v>
       </c>
       <c r="X21" t="n">
-        <v>661.8313832169135</v>
+        <v>510.0983606847567</v>
       </c>
       <c r="Y21" t="n">
-        <v>454.0710844519596</v>
+        <v>510.0983606847567</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>212.5235967899462</v>
+        <v>1338.342640120958</v>
       </c>
       <c r="C22" t="n">
-        <v>180.5153157920267</v>
+        <v>1338.342640120958</v>
       </c>
       <c r="D22" t="n">
-        <v>30.39867637969095</v>
+        <v>1338.342640120958</v>
       </c>
       <c r="E22" t="n">
-        <v>30.39867637969095</v>
+        <v>1338.342640120958</v>
       </c>
       <c r="F22" t="n">
-        <v>30.39867637969095</v>
+        <v>1338.342640120958</v>
       </c>
       <c r="G22" t="n">
-        <v>30.39867637969095</v>
+        <v>1338.342640120958</v>
       </c>
       <c r="H22" t="n">
-        <v>30.39867637969095</v>
+        <v>1338.342640120958</v>
       </c>
       <c r="I22" t="n">
-        <v>30.39867637969095</v>
+        <v>1302.558393758868</v>
       </c>
       <c r="J22" t="n">
-        <v>30.39867637969095</v>
+        <v>1224.27617758143</v>
       </c>
       <c r="K22" t="n">
-        <v>34.15375496482532</v>
+        <v>1228.031256166564</v>
       </c>
       <c r="L22" t="n">
-        <v>94.48539732845151</v>
+        <v>1288.36289853019</v>
       </c>
       <c r="M22" t="n">
-        <v>168.4857781749486</v>
+        <v>1362.363279376688</v>
       </c>
       <c r="N22" t="n">
-        <v>246.1612117857528</v>
+        <v>1440.038712987492</v>
       </c>
       <c r="O22" t="n">
-        <v>301.8907513440799</v>
+        <v>1495.768252545819</v>
       </c>
       <c r="P22" t="n">
-        <v>326.0563177828079</v>
+        <v>1519.933818984547</v>
       </c>
       <c r="Q22" t="n">
-        <v>326.0563177828079</v>
+        <v>1451.87536111382</v>
       </c>
       <c r="R22" t="n">
-        <v>326.0563177828079</v>
+        <v>1451.87536111382</v>
       </c>
       <c r="S22" t="n">
-        <v>326.0563177828079</v>
+        <v>1451.87536111382</v>
       </c>
       <c r="T22" t="n">
-        <v>326.0563177828079</v>
+        <v>1451.87536111382</v>
       </c>
       <c r="U22" t="n">
-        <v>276.7801093639383</v>
+        <v>1402.59915269495</v>
       </c>
       <c r="V22" t="n">
-        <v>262.0181939924792</v>
+        <v>1387.837237323491</v>
       </c>
       <c r="W22" t="n">
-        <v>212.5235967899462</v>
+        <v>1338.342640120958</v>
       </c>
       <c r="X22" t="n">
-        <v>212.5235967899462</v>
+        <v>1338.342640120958</v>
       </c>
       <c r="Y22" t="n">
-        <v>212.5235967899462</v>
+        <v>1338.342640120958</v>
       </c>
     </row>
     <row r="23">
@@ -5981,22 +5981,22 @@
         <v>128.2066192684733</v>
       </c>
       <c r="H23" t="n">
-        <v>30.39867637969095</v>
+        <v>30.39867637969094</v>
       </c>
       <c r="I23" t="n">
-        <v>30.39867637969095</v>
+        <v>30.3986763796912</v>
       </c>
       <c r="J23" t="n">
-        <v>60.58931629025225</v>
+        <v>60.5893162902525</v>
       </c>
       <c r="K23" t="n">
-        <v>226.5820636478226</v>
+        <v>226.5820636478228</v>
       </c>
       <c r="L23" t="n">
-        <v>484.7873723698839</v>
+        <v>484.7873723698841</v>
       </c>
       <c r="M23" t="n">
-        <v>788.6970746328861</v>
+        <v>788.6970746328863</v>
       </c>
       <c r="N23" t="n">
         <v>1082.892356060502</v>
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>581.8967979396957</v>
+        <v>659.5581283006397</v>
       </c>
       <c r="C24" t="n">
-        <v>407.4437686585687</v>
+        <v>485.1050990195127</v>
       </c>
       <c r="D24" t="n">
-        <v>258.5093589973175</v>
+        <v>336.1706893582615</v>
       </c>
       <c r="E24" t="n">
-        <v>168.8592249469292</v>
+        <v>176.933234352806</v>
       </c>
       <c r="F24" t="n">
-        <v>168.8592249469292</v>
+        <v>30.39867637969094</v>
       </c>
       <c r="G24" t="n">
-        <v>30.39867637969095</v>
+        <v>30.39867637969094</v>
       </c>
       <c r="H24" t="n">
-        <v>30.39867637969095</v>
+        <v>30.39867637969094</v>
       </c>
       <c r="I24" t="n">
-        <v>30.39867637969095</v>
+        <v>30.39867637969094</v>
       </c>
       <c r="J24" t="n">
-        <v>54.68663500082923</v>
+        <v>30.39867637969094</v>
       </c>
       <c r="K24" t="n">
-        <v>143.6507978327172</v>
+        <v>30.39867637969094</v>
       </c>
       <c r="L24" t="n">
-        <v>431.1305368708254</v>
+        <v>317.8784154177992</v>
       </c>
       <c r="M24" t="n">
-        <v>807.3141570695009</v>
+        <v>694.0620356164745</v>
       </c>
       <c r="N24" t="n">
-        <v>1183.497777268176</v>
+        <v>1070.24565581515</v>
       </c>
       <c r="O24" t="n">
-        <v>1183.497777268176</v>
+        <v>1382.025123824169</v>
       </c>
       <c r="P24" t="n">
-        <v>1416.725219631451</v>
+        <v>1519.933818984547</v>
       </c>
       <c r="Q24" t="n">
         <v>1519.933818984547</v>
       </c>
       <c r="R24" t="n">
-        <v>1435.545162742125</v>
+        <v>1519.933818984547</v>
       </c>
       <c r="S24" t="n">
-        <v>1435.545162742125</v>
+        <v>1519.933818984547</v>
       </c>
       <c r="T24" t="n">
-        <v>1435.545162742125</v>
+        <v>1497.622621019396</v>
       </c>
       <c r="U24" t="n">
-        <v>1207.339325850234</v>
+        <v>1497.622621019396</v>
       </c>
       <c r="V24" t="n">
-        <v>972.1872176184916</v>
+        <v>1497.622621019396</v>
       </c>
       <c r="W24" t="n">
-        <v>957.8724337247177</v>
+        <v>1243.385264291195</v>
       </c>
       <c r="X24" t="n">
-        <v>957.8724337247177</v>
+        <v>1035.533764085662</v>
       </c>
       <c r="Y24" t="n">
-        <v>750.1121349597638</v>
+        <v>827.7734653207078</v>
       </c>
     </row>
     <row r="25">
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>30.39867637969095</v>
+        <v>30.39867637969094</v>
       </c>
       <c r="C25" t="n">
-        <v>30.39867637969095</v>
+        <v>30.39867637969094</v>
       </c>
       <c r="D25" t="n">
-        <v>30.39867637969095</v>
+        <v>30.39867637969094</v>
       </c>
       <c r="E25" t="n">
-        <v>30.39867637969095</v>
+        <v>30.39867637969094</v>
       </c>
       <c r="F25" t="n">
-        <v>30.39867637969095</v>
+        <v>30.39867637969094</v>
       </c>
       <c r="G25" t="n">
-        <v>30.39867637969095</v>
+        <v>30.39867637969094</v>
       </c>
       <c r="H25" t="n">
-        <v>30.39867637969095</v>
+        <v>30.39867637969094</v>
       </c>
       <c r="I25" t="n">
-        <v>30.39867637969095</v>
+        <v>30.39867637969094</v>
       </c>
       <c r="J25" t="n">
-        <v>30.39867637969095</v>
+        <v>30.39867637969094</v>
       </c>
       <c r="K25" t="n">
-        <v>34.15375496482532</v>
+        <v>34.1537549648253</v>
       </c>
       <c r="L25" t="n">
-        <v>94.48539732845151</v>
+        <v>94.4853973284515</v>
       </c>
       <c r="M25" t="n">
         <v>168.4857781749486</v>
@@ -6166,31 +6166,31 @@
         <v>326.0563177828079</v>
       </c>
       <c r="Q25" t="n">
-        <v>326.0563177828079</v>
+        <v>257.997859912081</v>
       </c>
       <c r="R25" t="n">
-        <v>326.0563177828079</v>
+        <v>143.9313973725526</v>
       </c>
       <c r="S25" t="n">
-        <v>326.0563177828079</v>
+        <v>143.9313973725526</v>
       </c>
       <c r="T25" t="n">
-        <v>326.0563177828079</v>
+        <v>143.9313973725526</v>
       </c>
       <c r="U25" t="n">
-        <v>276.7801093639383</v>
+        <v>94.65518895368305</v>
       </c>
       <c r="V25" t="n">
-        <v>262.0181939924792</v>
+        <v>79.89327358222387</v>
       </c>
       <c r="W25" t="n">
-        <v>212.5235967899462</v>
+        <v>30.39867637969094</v>
       </c>
       <c r="X25" t="n">
-        <v>212.5235967899462</v>
+        <v>30.39867637969094</v>
       </c>
       <c r="Y25" t="n">
-        <v>30.39867637969095</v>
+        <v>30.39867637969094</v>
       </c>
     </row>
     <row r="26">
@@ -6200,37 +6200,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1467.668723218726</v>
+        <v>1467.668723218727</v>
       </c>
       <c r="C26" t="n">
         <v>1250.347290426859</v>
       </c>
       <c r="D26" t="n">
-        <v>1043.722675968652</v>
+        <v>1043.722675968653</v>
       </c>
       <c r="E26" t="n">
-        <v>809.5755075189518</v>
+        <v>809.5755075189522</v>
       </c>
       <c r="F26" t="n">
-        <v>550.2306868778883</v>
+        <v>550.2306868778887</v>
       </c>
       <c r="G26" t="n">
-        <v>282.8792022011514</v>
+        <v>282.8792022011519</v>
       </c>
       <c r="H26" t="n">
-        <v>96.78977062648528</v>
+        <v>96.78977062648491</v>
       </c>
       <c r="I26" t="n">
         <v>55.30358097863248</v>
       </c>
       <c r="J26" t="n">
-        <v>234.117647463182</v>
+        <v>234.1176474631824</v>
       </c>
       <c r="K26" t="n">
-        <v>548.7338213947403</v>
+        <v>548.7338213947406</v>
       </c>
       <c r="L26" t="n">
-        <v>955.5625566907895</v>
+        <v>955.5625566907898</v>
       </c>
       <c r="M26" t="n">
         <v>1408.09568552778</v>
@@ -6239,7 +6239,7 @@
         <v>1850.914393529384</v>
       </c>
       <c r="O26" t="n">
-        <v>2232.150444128817</v>
+        <v>2232.150444128818</v>
       </c>
       <c r="P26" t="n">
         <v>2541.62898071773</v>
@@ -6254,7 +6254,7 @@
         <v>2717.199760408319</v>
       </c>
       <c r="T26" t="n">
-        <v>2645.702777461946</v>
+        <v>2645.702777461947</v>
       </c>
       <c r="U26" t="n">
         <v>2543.499775390705</v>
@@ -6279,22 +6279,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>768.2969926956534</v>
+        <v>684.4630328995813</v>
       </c>
       <c r="C27" t="n">
-        <v>593.8439634145265</v>
+        <v>510.0100036184543</v>
       </c>
       <c r="D27" t="n">
-        <v>444.9095537532752</v>
+        <v>361.075593957203</v>
       </c>
       <c r="E27" t="n">
-        <v>285.6720987478197</v>
+        <v>201.8381389517475</v>
       </c>
       <c r="F27" t="n">
-        <v>285.6720987478197</v>
+        <v>55.30358097863248</v>
       </c>
       <c r="G27" t="n">
-        <v>166.0624112025358</v>
+        <v>55.30358097863248</v>
       </c>
       <c r="H27" t="n">
         <v>55.30358097863248</v>
@@ -6330,25 +6330,25 @@
         <v>1984.290437959935</v>
       </c>
       <c r="S27" t="n">
-        <v>1815.893367359591</v>
+        <v>1967.534451508135</v>
       </c>
       <c r="T27" t="n">
-        <v>1614.796178092412</v>
+        <v>1918.0783463895</v>
       </c>
       <c r="U27" t="n">
-        <v>1538.231425349065</v>
+        <v>1757.67963385008</v>
       </c>
       <c r="V27" t="n">
-        <v>1454.720401265866</v>
+        <v>1522.527525618338</v>
       </c>
       <c r="W27" t="n">
-        <v>1200.483044537664</v>
+        <v>1268.290168890136</v>
       </c>
       <c r="X27" t="n">
-        <v>992.6315443321314</v>
+        <v>1060.438668684603</v>
       </c>
       <c r="Y27" t="n">
-        <v>936.5123297157214</v>
+        <v>852.6783699196494</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>96.97520536237832</v>
+        <v>90.82450804513434</v>
       </c>
       <c r="C28" t="n">
-        <v>79.68010658301534</v>
+        <v>73.52940926577142</v>
       </c>
       <c r="D28" t="n">
-        <v>79.68010658301534</v>
+        <v>75.02351755172914</v>
       </c>
       <c r="E28" t="n">
-        <v>83.33391013689976</v>
+        <v>78.67732110561361</v>
       </c>
       <c r="F28" t="n">
-        <v>83.33391013689976</v>
+        <v>83.33391013689965</v>
       </c>
       <c r="G28" t="n">
-        <v>65.51372737958131</v>
+        <v>65.51372737958125</v>
       </c>
       <c r="H28" t="n">
         <v>55.30358097863248</v>
       </c>
       <c r="I28" t="n">
-        <v>55.30358097863248</v>
+        <v>56.70964489654748</v>
       </c>
       <c r="J28" t="n">
-        <v>55.30358097863248</v>
+        <v>128.608671395028</v>
       </c>
       <c r="K28" t="n">
-        <v>59.05865956376685</v>
+        <v>280.9871765541503</v>
       </c>
       <c r="L28" t="n">
-        <v>268.013728501381</v>
+        <v>489.9422454917645</v>
       </c>
       <c r="M28" t="n">
-        <v>490.6375359218659</v>
+        <v>563.9426263382616</v>
       </c>
       <c r="N28" t="n">
-        <v>716.9363961066581</v>
+        <v>641.6180599490658</v>
       </c>
       <c r="O28" t="n">
-        <v>772.6659356649852</v>
+        <v>697.3475995073929</v>
       </c>
       <c r="P28" t="n">
-        <v>796.8315021037132</v>
+        <v>728.3727667028835</v>
       </c>
       <c r="Q28" t="n">
-        <v>816.4427960350165</v>
+        <v>810.2920987177721</v>
       </c>
       <c r="R28" t="n">
-        <v>799.1880032342216</v>
+        <v>793.0373059169772</v>
       </c>
       <c r="S28" t="n">
-        <v>728.498559138006</v>
+        <v>722.3478618207616</v>
       </c>
       <c r="T28" t="n">
-        <v>650.8597348390466</v>
+        <v>644.7090375218023</v>
       </c>
       <c r="U28" t="n">
-        <v>513.3020377342933</v>
+        <v>507.1513404170491</v>
       </c>
       <c r="V28" t="n">
-        <v>410.2586336769504</v>
+        <v>404.1079363597062</v>
       </c>
       <c r="W28" t="n">
-        <v>272.4825477885337</v>
+        <v>266.3318504712895</v>
       </c>
       <c r="X28" t="n">
-        <v>196.1340810390602</v>
+        <v>189.9833837218162</v>
       </c>
       <c r="Y28" t="n">
-        <v>126.9825860440741</v>
+        <v>120.83188872683</v>
       </c>
     </row>
     <row r="29">
@@ -6440,31 +6440,31 @@
         <v>1467.668723218726</v>
       </c>
       <c r="C29" t="n">
-        <v>1250.347290426858</v>
+        <v>1250.347290426859</v>
       </c>
       <c r="D29" t="n">
         <v>1043.722675968652</v>
       </c>
       <c r="E29" t="n">
-        <v>809.5755075189516</v>
+        <v>809.5755075189518</v>
       </c>
       <c r="F29" t="n">
-        <v>550.230686877888</v>
+        <v>550.2306868778882</v>
       </c>
       <c r="G29" t="n">
-        <v>282.8792022011511</v>
+        <v>282.8792022011513</v>
       </c>
       <c r="H29" t="n">
-        <v>96.78977062648491</v>
+        <v>96.78977062648528</v>
       </c>
       <c r="I29" t="n">
         <v>55.30358097863247</v>
       </c>
       <c r="J29" t="n">
-        <v>234.1176474631817</v>
+        <v>234.117647463182</v>
       </c>
       <c r="K29" t="n">
-        <v>548.7338213947399</v>
+        <v>548.7338213947403</v>
       </c>
       <c r="L29" t="n">
         <v>955.5625566907894</v>
@@ -6516,22 +6516,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>683.9083364532314</v>
+        <v>616.6559085471097</v>
       </c>
       <c r="C30" t="n">
-        <v>509.4553071721044</v>
+        <v>442.2028792659827</v>
       </c>
       <c r="D30" t="n">
-        <v>360.5208975108532</v>
+        <v>293.2684696047314</v>
       </c>
       <c r="E30" t="n">
-        <v>312.5969691756508</v>
+        <v>134.0310145992759</v>
       </c>
       <c r="F30" t="n">
-        <v>166.0624112025358</v>
+        <v>55.30358097863247</v>
       </c>
       <c r="G30" t="n">
-        <v>166.0624112025358</v>
+        <v>55.30358097863247</v>
       </c>
       <c r="H30" t="n">
         <v>55.30358097863247</v>
@@ -6564,28 +6564,28 @@
         <v>1984.290437959935</v>
       </c>
       <c r="R30" t="n">
-        <v>1899.901781717512</v>
+        <v>1984.290437959935</v>
       </c>
       <c r="S30" t="n">
-        <v>1731.504711117169</v>
+        <v>1967.534451508135</v>
       </c>
       <c r="T30" t="n">
-        <v>1682.048605998533</v>
+        <v>1918.0783463895</v>
       </c>
       <c r="U30" t="n">
-        <v>1605.483853255186</v>
+        <v>1689.872509497609</v>
       </c>
       <c r="V30" t="n">
-        <v>1370.331745023444</v>
+        <v>1454.720401265866</v>
       </c>
       <c r="W30" t="n">
-        <v>1116.094388295242</v>
+        <v>1200.483044537664</v>
       </c>
       <c r="X30" t="n">
-        <v>908.2428880897094</v>
+        <v>992.6315443321316</v>
       </c>
       <c r="Y30" t="n">
-        <v>852.1236734732995</v>
+        <v>784.8712455671778</v>
       </c>
     </row>
     <row r="31">
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>90.82450804513434</v>
+        <v>100.6290089162626</v>
       </c>
       <c r="C31" t="n">
-        <v>73.52940926577142</v>
+        <v>83.33391013689965</v>
       </c>
       <c r="D31" t="n">
-        <v>75.02351755172914</v>
+        <v>83.33391013689965</v>
       </c>
       <c r="E31" t="n">
-        <v>78.67732110561361</v>
+        <v>83.33391013689965</v>
       </c>
       <c r="F31" t="n">
         <v>83.33391013689965</v>
@@ -6616,55 +6616,55 @@
         <v>55.30358097863247</v>
       </c>
       <c r="I31" t="n">
-        <v>56.70964489654747</v>
+        <v>55.30358097863247</v>
       </c>
       <c r="J31" t="n">
-        <v>56.70964489654747</v>
+        <v>55.30358097863247</v>
       </c>
       <c r="K31" t="n">
-        <v>209.0881500556698</v>
+        <v>207.6820861377548</v>
       </c>
       <c r="L31" t="n">
-        <v>269.419792419296</v>
+        <v>268.013728501381</v>
       </c>
       <c r="M31" t="n">
-        <v>492.043599839781</v>
+        <v>365.279206833065</v>
       </c>
       <c r="N31" t="n">
-        <v>569.7190334505852</v>
+        <v>591.5780670178573</v>
       </c>
       <c r="O31" t="n">
-        <v>774.0719995829003</v>
+        <v>795.9310331501723</v>
       </c>
       <c r="P31" t="n">
-        <v>798.2375660216283</v>
+        <v>820.0965995889003</v>
       </c>
       <c r="Q31" t="n">
-        <v>810.2920987177721</v>
+        <v>820.0965995889003</v>
       </c>
       <c r="R31" t="n">
-        <v>793.0373059169772</v>
+        <v>802.8418067881054</v>
       </c>
       <c r="S31" t="n">
-        <v>722.3478618207616</v>
+        <v>732.1523626918898</v>
       </c>
       <c r="T31" t="n">
-        <v>644.7090375218023</v>
+        <v>654.5135383929305</v>
       </c>
       <c r="U31" t="n">
-        <v>507.1513404170491</v>
+        <v>516.9558412881772</v>
       </c>
       <c r="V31" t="n">
-        <v>404.1079363597062</v>
+        <v>413.9124372308344</v>
       </c>
       <c r="W31" t="n">
-        <v>266.3318504712895</v>
+        <v>276.1363513424177</v>
       </c>
       <c r="X31" t="n">
-        <v>189.9833837218162</v>
+        <v>199.7878845929444</v>
       </c>
       <c r="Y31" t="n">
-        <v>120.83188872683</v>
+        <v>130.6363895979583</v>
       </c>
     </row>
     <row r="32">
@@ -6689,7 +6689,7 @@
         <v>544.2897833570491</v>
       </c>
       <c r="G32" t="n">
-        <v>278.7352386341463</v>
+        <v>278.7352386341462</v>
       </c>
       <c r="H32" t="n">
         <v>94.44274701331408</v>
@@ -6704,16 +6704,16 @@
         <v>551.7060994329083</v>
       </c>
       <c r="L32" t="n">
-        <v>960.2960155777102</v>
+        <v>917.4912886314278</v>
       </c>
       <c r="M32" t="n">
-        <v>1414.590325263453</v>
+        <v>1371.785598317171</v>
       </c>
       <c r="N32" t="n">
-        <v>1859.17021411381</v>
+        <v>1816.365487167527</v>
       </c>
       <c r="O32" t="n">
-        <v>2242.167445561996</v>
+        <v>2199.362718615713</v>
       </c>
       <c r="P32" t="n">
         <v>2510.602436053379</v>
@@ -6753,31 +6753,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>867.5918146675716</v>
+        <v>773.1377288978185</v>
       </c>
       <c r="C33" t="n">
-        <v>693.1387853864446</v>
+        <v>598.6846996166915</v>
       </c>
       <c r="D33" t="n">
-        <v>544.2043757251934</v>
+        <v>449.7502899554403</v>
       </c>
       <c r="E33" t="n">
-        <v>384.9669207197379</v>
+        <v>290.5128349499848</v>
       </c>
       <c r="F33" t="n">
-        <v>384.9669207197379</v>
+        <v>143.9782769768698</v>
       </c>
       <c r="G33" t="n">
-        <v>246.5063721524996</v>
+        <v>143.9782769768698</v>
       </c>
       <c r="H33" t="n">
-        <v>135.7475419285963</v>
+        <v>54.75349731929555</v>
       </c>
       <c r="I33" t="n">
         <v>54.75349731929555</v>
       </c>
       <c r="J33" t="n">
-        <v>79.04145594043383</v>
+        <v>79.04145594043382</v>
       </c>
       <c r="K33" t="n">
         <v>247.174288867901</v>
@@ -6804,25 +6804,25 @@
         <v>1983.740354300598</v>
       </c>
       <c r="S33" t="n">
-        <v>1815.343283700254</v>
+        <v>1968.781307802632</v>
       </c>
       <c r="T33" t="n">
-        <v>1614.246094433075</v>
+        <v>1921.12214263783</v>
       </c>
       <c r="U33" t="n">
-        <v>1539.478281643562</v>
+        <v>1846.354329848318</v>
       </c>
       <c r="V33" t="n">
-        <v>1457.764197514197</v>
+        <v>1611.202221616575</v>
       </c>
       <c r="W33" t="n">
-        <v>1203.526840785995</v>
+        <v>1356.964864888373</v>
       </c>
       <c r="X33" t="n">
-        <v>1090.129426350216</v>
+        <v>1149.11336468284</v>
       </c>
       <c r="Y33" t="n">
-        <v>882.3691275852617</v>
+        <v>941.3530659178866</v>
       </c>
     </row>
     <row r="34">
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>85.01504638067495</v>
+        <v>94.68810539542392</v>
       </c>
       <c r="C34" t="n">
-        <v>69.51688755514593</v>
+        <v>79.1899465698949</v>
       </c>
       <c r="D34" t="n">
-        <v>72.77217668985627</v>
+        <v>79.1899465698949</v>
       </c>
       <c r="E34" t="n">
-        <v>72.77217668985627</v>
+        <v>79.1899465698949</v>
       </c>
       <c r="F34" t="n">
         <v>79.1899465698949</v>
@@ -6853,55 +6853,55 @@
         <v>54.75349731929555</v>
       </c>
       <c r="I34" t="n">
-        <v>57.92074208596316</v>
+        <v>54.75349731929555</v>
       </c>
       <c r="J34" t="n">
-        <v>131.5809494331963</v>
+        <v>117.8758673713172</v>
       </c>
       <c r="K34" t="n">
-        <v>135.3360280183307</v>
+        <v>121.6309459564516</v>
       </c>
       <c r="L34" t="n">
-        <v>322.6741367280692</v>
+        <v>181.9625883200778</v>
       </c>
       <c r="M34" t="n">
-        <v>547.0591249973069</v>
+        <v>255.9629691665748</v>
       </c>
       <c r="N34" t="n">
-        <v>624.7345586081111</v>
+        <v>484.0230102001196</v>
       </c>
       <c r="O34" t="n">
-        <v>680.4640981664382</v>
+        <v>539.7525497584468</v>
       </c>
       <c r="P34" t="n">
-        <v>704.6296646051662</v>
+        <v>714.3027236199152</v>
       </c>
       <c r="Q34" t="n">
-        <v>788.3101774688074</v>
+        <v>797.9832364835564</v>
       </c>
       <c r="R34" t="n">
-        <v>772.8523246218465</v>
+        <v>782.5253836365955</v>
       </c>
       <c r="S34" t="n">
-        <v>703.9598204794648</v>
+        <v>713.6328794942139</v>
       </c>
       <c r="T34" t="n">
-        <v>628.1179361343394</v>
+        <v>637.7909951490884</v>
       </c>
       <c r="U34" t="n">
-        <v>492.3571789834201</v>
+        <v>502.0302379981691</v>
       </c>
       <c r="V34" t="n">
-        <v>391.1107148799111</v>
+        <v>400.7837738946601</v>
       </c>
       <c r="W34" t="n">
-        <v>255.1315689453284</v>
+        <v>264.8046279600774</v>
       </c>
       <c r="X34" t="n">
-        <v>180.5800421496889</v>
+        <v>190.2531011644379</v>
       </c>
       <c r="Y34" t="n">
-        <v>113.2254871085368</v>
+        <v>122.8985461232857</v>
       </c>
     </row>
     <row r="35">
@@ -6932,34 +6932,34 @@
         <v>34.50916758120384</v>
       </c>
       <c r="I35" t="n">
-        <v>34.50916758120384</v>
+        <v>63.92274609308363</v>
       </c>
       <c r="J35" t="n">
-        <v>64.69980749176514</v>
+        <v>141.6370783198772</v>
       </c>
       <c r="K35" t="n">
-        <v>230.6925548493355</v>
+        <v>307.6298256774475</v>
       </c>
       <c r="L35" t="n">
-        <v>488.8978635713968</v>
+        <v>565.8351343995088</v>
       </c>
       <c r="M35" t="n">
-        <v>915.9488123887943</v>
+        <v>869.7448366625109</v>
       </c>
       <c r="N35" t="n">
-        <v>1288.416916136147</v>
+        <v>1163.940118090127</v>
       </c>
       <c r="O35" t="n">
-        <v>1521.029540161593</v>
+        <v>1396.552742115573</v>
       </c>
       <c r="P35" t="n">
-        <v>1681.884650176518</v>
+        <v>1557.407852130498</v>
       </c>
       <c r="Q35" t="n">
-        <v>1725.458379060192</v>
+        <v>1600.981581014172</v>
       </c>
       <c r="R35" t="n">
-        <v>1725.458379060192</v>
+        <v>1702.408686756143</v>
       </c>
       <c r="S35" t="n">
         <v>1725.458379060192</v>
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>672.894455648353</v>
+        <v>785.9234191652135</v>
       </c>
       <c r="C36" t="n">
-        <v>672.894455648353</v>
+        <v>611.4703898840866</v>
       </c>
       <c r="D36" t="n">
-        <v>523.9600459871017</v>
+        <v>462.5359802228353</v>
       </c>
       <c r="E36" t="n">
-        <v>364.7225909816461</v>
+        <v>462.5359802228353</v>
       </c>
       <c r="F36" t="n">
-        <v>364.7225909816461</v>
+        <v>316.0014222497202</v>
       </c>
       <c r="G36" t="n">
-        <v>226.2620424144079</v>
+        <v>177.540873682482</v>
       </c>
       <c r="H36" t="n">
-        <v>115.5032121905046</v>
+        <v>66.78204345857864</v>
       </c>
       <c r="I36" t="n">
         <v>34.50916758120384</v>
@@ -7026,13 +7026,13 @@
         <v>901.8642157224044</v>
       </c>
       <c r="N36" t="n">
-        <v>1077.242869334802</v>
+        <v>1315.280514837117</v>
       </c>
       <c r="O36" t="n">
-        <v>1389.022337343821</v>
+        <v>1627.059982846135</v>
       </c>
       <c r="P36" t="n">
-        <v>1622.249779707096</v>
+        <v>1725.458379060192</v>
       </c>
       <c r="Q36" t="n">
         <v>1725.458379060192</v>
@@ -7041,25 +7041,25 @@
         <v>1641.06972281777</v>
       </c>
       <c r="S36" t="n">
-        <v>1472.672652217427</v>
+        <v>1641.06972281777</v>
       </c>
       <c r="T36" t="n">
-        <v>1320.189259095376</v>
+        <v>1641.06972281777</v>
       </c>
       <c r="U36" t="n">
-        <v>1315.121489298402</v>
+        <v>1636.001953020796</v>
       </c>
       <c r="V36" t="n">
-        <v>1303.107448161576</v>
+        <v>1623.98791188397</v>
       </c>
       <c r="W36" t="n">
-        <v>1048.870091433375</v>
+        <v>1369.750555155768</v>
       </c>
       <c r="X36" t="n">
-        <v>1048.870091433375</v>
+        <v>1161.899054950235</v>
       </c>
       <c r="Y36" t="n">
-        <v>841.1097926684211</v>
+        <v>954.1387561852816</v>
       </c>
     </row>
     <row r="37">
@@ -7069,10 +7069,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>34.50916758120384</v>
+        <v>155.2872456172391</v>
       </c>
       <c r="C37" t="n">
-        <v>34.50916758120384</v>
+        <v>155.2872456172391</v>
       </c>
       <c r="D37" t="n">
         <v>34.50916758120384</v>
@@ -7123,22 +7123,22 @@
         <v>330.1668089843208</v>
       </c>
       <c r="T37" t="n">
-        <v>203.2468895956989</v>
+        <v>324.0249676317342</v>
       </c>
       <c r="U37" t="n">
-        <v>137.1861754373184</v>
+        <v>257.9642534733537</v>
       </c>
       <c r="V37" t="n">
-        <v>105.6397543263483</v>
+        <v>226.4178323623835</v>
       </c>
       <c r="W37" t="n">
-        <v>39.36065138430441</v>
+        <v>160.1387294203397</v>
       </c>
       <c r="X37" t="n">
-        <v>34.50916758120384</v>
+        <v>155.2872456172391</v>
       </c>
       <c r="Y37" t="n">
-        <v>34.50916758120384</v>
+        <v>155.2872456172391</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>976.406222495209</v>
+        <v>976.4062224952081</v>
       </c>
       <c r="C38" t="n">
-        <v>830.5817726497141</v>
+        <v>830.5817726497132</v>
       </c>
       <c r="D38" t="n">
-        <v>695.4541411378805</v>
+        <v>695.4541411378796</v>
       </c>
       <c r="E38" t="n">
-        <v>532.8039556345529</v>
+        <v>532.803955634552</v>
       </c>
       <c r="F38" t="n">
-        <v>344.9561179398622</v>
+        <v>344.9561179398613</v>
       </c>
       <c r="G38" t="n">
-        <v>149.1016162094972</v>
+        <v>149.1016162094971</v>
       </c>
       <c r="H38" t="n">
-        <v>34.50916758120384</v>
+        <v>34.50916758120383</v>
       </c>
       <c r="I38" t="n">
-        <v>34.50916758120384</v>
+        <v>63.92274609308362</v>
       </c>
       <c r="J38" t="n">
-        <v>266.1138763658973</v>
+        <v>94.11338600364492</v>
       </c>
       <c r="K38" t="n">
-        <v>432.1066237234677</v>
+        <v>260.1061333612152</v>
       </c>
       <c r="L38" t="n">
-        <v>690.311932445529</v>
+        <v>518.3114420832765</v>
       </c>
       <c r="M38" t="n">
-        <v>994.2216347085312</v>
+        <v>822.2211443462786</v>
       </c>
       <c r="N38" t="n">
-        <v>1288.416916136147</v>
+        <v>1116.416425773895</v>
       </c>
       <c r="O38" t="n">
-        <v>1521.029540161593</v>
+        <v>1349.02904979934</v>
       </c>
       <c r="P38" t="n">
-        <v>1681.884650176518</v>
+        <v>1509.884159814265</v>
       </c>
       <c r="Q38" t="n">
-        <v>1725.458379060192</v>
+        <v>1600.981581014171</v>
       </c>
       <c r="R38" t="n">
-        <v>1725.458379060192</v>
+        <v>1702.408686756142</v>
       </c>
       <c r="S38" t="n">
-        <v>1725.458379060192</v>
+        <v>1725.458379060191</v>
       </c>
       <c r="T38" t="n">
-        <v>1725.458379060192</v>
+        <v>1725.458379060191</v>
       </c>
       <c r="U38" t="n">
-        <v>1694.752359935323</v>
+        <v>1694.752359935322</v>
       </c>
       <c r="V38" t="n">
-        <v>1586.827539686669</v>
+        <v>1586.827539686668</v>
       </c>
       <c r="W38" t="n">
-        <v>1457.196951511472</v>
+        <v>1457.196951511471</v>
       </c>
       <c r="X38" t="n">
-        <v>1306.869260345309</v>
+        <v>1306.869260345308</v>
       </c>
       <c r="Y38" t="n">
-        <v>1139.867995464414</v>
+        <v>1139.867995464413</v>
       </c>
     </row>
     <row r="39">
@@ -7227,31 +7227,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>642.8917130639354</v>
+        <v>262.0377701636196</v>
       </c>
       <c r="C39" t="n">
-        <v>468.4386837828084</v>
+        <v>262.0377701636196</v>
       </c>
       <c r="D39" t="n">
-        <v>319.5042741215572</v>
+        <v>262.0377701636196</v>
       </c>
       <c r="E39" t="n">
-        <v>319.5042741215572</v>
+        <v>262.0377701636196</v>
       </c>
       <c r="F39" t="n">
-        <v>172.9697161484421</v>
+        <v>115.5032121905045</v>
       </c>
       <c r="G39" t="n">
-        <v>34.50916758120384</v>
+        <v>115.5032121905045</v>
       </c>
       <c r="H39" t="n">
-        <v>34.50916758120384</v>
+        <v>115.5032121905045</v>
       </c>
       <c r="I39" t="n">
-        <v>34.50916758120384</v>
+        <v>34.50916758120383</v>
       </c>
       <c r="J39" t="n">
-        <v>58.79712620234211</v>
+        <v>58.7971262023421</v>
       </c>
       <c r="K39" t="n">
         <v>226.9299591298093</v>
@@ -7260,43 +7260,43 @@
         <v>514.4096981679176</v>
       </c>
       <c r="M39" t="n">
-        <v>767.0351695731866</v>
+        <v>901.8642157224044</v>
       </c>
       <c r="N39" t="n">
-        <v>1180.451468687899</v>
+        <v>1315.280514837117</v>
       </c>
       <c r="O39" t="n">
-        <v>1492.230936696918</v>
+        <v>1627.059982846135</v>
       </c>
       <c r="P39" t="n">
-        <v>1725.458379060192</v>
+        <v>1725.458379060191</v>
       </c>
       <c r="Q39" t="n">
-        <v>1725.458379060192</v>
+        <v>1725.458379060191</v>
       </c>
       <c r="R39" t="n">
-        <v>1725.458379060192</v>
+        <v>1725.458379060191</v>
       </c>
       <c r="S39" t="n">
-        <v>1557.061308459849</v>
+        <v>1557.061308459848</v>
       </c>
       <c r="T39" t="n">
-        <v>1355.964119192669</v>
+        <v>1355.964119192668</v>
       </c>
       <c r="U39" t="n">
-        <v>1340.041476788834</v>
+        <v>1127.758282300777</v>
       </c>
       <c r="V39" t="n">
-        <v>1104.889368557091</v>
+        <v>892.6061740690345</v>
       </c>
       <c r="W39" t="n">
-        <v>850.6520118288893</v>
+        <v>638.3688173408329</v>
       </c>
       <c r="X39" t="n">
-        <v>850.6520118288893</v>
+        <v>430.5173171353001</v>
       </c>
       <c r="Y39" t="n">
-        <v>642.8917130639354</v>
+        <v>262.0377701636196</v>
       </c>
     </row>
     <row r="40">
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>34.50916758120384</v>
+        <v>34.50916758120383</v>
       </c>
       <c r="C40" t="n">
-        <v>34.50916758120384</v>
+        <v>34.50916758120383</v>
       </c>
       <c r="D40" t="n">
-        <v>34.50916758120384</v>
+        <v>34.50916758120383</v>
       </c>
       <c r="E40" t="n">
-        <v>34.50916758120384</v>
+        <v>34.50916758120383</v>
       </c>
       <c r="F40" t="n">
-        <v>34.50916758120384</v>
+        <v>34.50916758120383</v>
       </c>
       <c r="G40" t="n">
-        <v>34.50916758120384</v>
+        <v>34.50916758120383</v>
       </c>
       <c r="H40" t="n">
-        <v>34.50916758120384</v>
+        <v>34.50916758120383</v>
       </c>
       <c r="I40" t="n">
-        <v>34.50916758120384</v>
+        <v>34.50916758120383</v>
       </c>
       <c r="J40" t="n">
-        <v>34.50916758120384</v>
+        <v>34.50916758120383</v>
       </c>
       <c r="K40" t="n">
-        <v>38.26424616633821</v>
+        <v>38.2642461663382</v>
       </c>
       <c r="L40" t="n">
-        <v>98.59588852996441</v>
+        <v>98.59588852996438</v>
       </c>
       <c r="M40" t="n">
         <v>172.5962693764615</v>
@@ -7351,31 +7351,31 @@
         <v>330.1668089843208</v>
       </c>
       <c r="Q40" t="n">
-        <v>330.1668089843208</v>
+        <v>262.1083511135939</v>
       </c>
       <c r="R40" t="n">
-        <v>330.1668089843208</v>
+        <v>209.3887309482855</v>
       </c>
       <c r="S40" t="n">
-        <v>330.1668089843208</v>
+        <v>209.3887309482855</v>
       </c>
       <c r="T40" t="n">
-        <v>324.0249676317342</v>
+        <v>203.2468895956989</v>
       </c>
       <c r="U40" t="n">
-        <v>257.9642534733537</v>
+        <v>137.1861754373184</v>
       </c>
       <c r="V40" t="n">
-        <v>226.4178323623835</v>
+        <v>105.6397543263483</v>
       </c>
       <c r="W40" t="n">
-        <v>39.36065138430441</v>
+        <v>39.3606513843044</v>
       </c>
       <c r="X40" t="n">
-        <v>34.50916758120384</v>
+        <v>34.50916758120383</v>
       </c>
       <c r="Y40" t="n">
-        <v>34.50916758120384</v>
+        <v>34.50916758120383</v>
       </c>
     </row>
     <row r="41">
@@ -7388,64 +7388,64 @@
         <v>1091.127662321284</v>
       </c>
       <c r="C41" t="n">
-        <v>926.9926243602267</v>
+        <v>926.9926243602262</v>
       </c>
       <c r="D41" t="n">
-        <v>773.5544047328303</v>
+        <v>773.5544047328298</v>
       </c>
       <c r="E41" t="n">
-        <v>592.5936311139401</v>
+        <v>592.5936311139396</v>
       </c>
       <c r="F41" t="n">
-        <v>386.4352053036866</v>
+        <v>386.4352053036862</v>
       </c>
       <c r="G41" t="n">
-        <v>172.2701154577602</v>
+        <v>172.2701154577601</v>
       </c>
       <c r="H41" t="n">
-        <v>39.36707871390414</v>
+        <v>39.36707871390411</v>
       </c>
       <c r="I41" t="n">
-        <v>39.36707871390414</v>
+        <v>50.83444981372093</v>
       </c>
       <c r="J41" t="n">
-        <v>69.55771862446544</v>
+        <v>281.7765018719472</v>
       </c>
       <c r="K41" t="n">
-        <v>235.5504659820357</v>
+        <v>447.7692492295175</v>
       </c>
       <c r="L41" t="n">
-        <v>493.7557747040971</v>
+        <v>705.9745579515788</v>
       </c>
       <c r="M41" t="n">
-        <v>980.9233737886607</v>
+        <v>1009.884260214581</v>
       </c>
       <c r="N41" t="n">
-        <v>1468.090972873224</v>
+        <v>1304.079541642197</v>
       </c>
       <c r="O41" t="n">
-        <v>1700.70359689867</v>
+        <v>1536.692165667642</v>
       </c>
       <c r="P41" t="n">
-        <v>1924.780206811532</v>
+        <v>1836.195823589637</v>
       </c>
       <c r="Q41" t="n">
-        <v>1968.353935695207</v>
+        <v>1879.769552473311</v>
       </c>
       <c r="R41" t="n">
-        <v>1968.353935695207</v>
+        <v>1963.25045080322</v>
       </c>
       <c r="S41" t="n">
-        <v>1968.353935695207</v>
+        <v>1968.353935695206</v>
       </c>
       <c r="T41" t="n">
-        <v>1950.043347579644</v>
+        <v>1950.043347579643</v>
       </c>
       <c r="U41" t="n">
         <v>1901.026740339212</v>
       </c>
       <c r="V41" t="n">
-        <v>1774.791331974996</v>
+        <v>1774.791331974995</v>
       </c>
       <c r="W41" t="n">
         <v>1626.850155684235</v>
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>326.7620369423937</v>
+        <v>582.5428416103937</v>
       </c>
       <c r="C42" t="n">
-        <v>326.7620369423937</v>
+        <v>408.0898123292667</v>
       </c>
       <c r="D42" t="n">
-        <v>177.8276272811424</v>
+        <v>259.1554026680154</v>
       </c>
       <c r="E42" t="n">
-        <v>177.8276272811424</v>
+        <v>99.91794766255992</v>
       </c>
       <c r="F42" t="n">
-        <v>177.8276272811424</v>
+        <v>39.36707871390411</v>
       </c>
       <c r="G42" t="n">
-        <v>39.36707871390414</v>
+        <v>39.36707871390411</v>
       </c>
       <c r="H42" t="n">
-        <v>39.36707871390414</v>
+        <v>39.36707871390411</v>
       </c>
       <c r="I42" t="n">
-        <v>39.36707871390414</v>
+        <v>39.36707871390411</v>
       </c>
       <c r="J42" t="n">
-        <v>63.65503733504241</v>
+        <v>63.65503733504164</v>
       </c>
       <c r="K42" t="n">
-        <v>231.7878702625097</v>
+        <v>231.7878702625088</v>
       </c>
       <c r="L42" t="n">
-        <v>519.267609300618</v>
+        <v>519.2676093006171</v>
       </c>
       <c r="M42" t="n">
-        <v>906.7221268551049</v>
+        <v>906.722126855104</v>
       </c>
       <c r="N42" t="n">
-        <v>1320.138425969817</v>
+        <v>1320.138425969816</v>
       </c>
       <c r="O42" t="n">
-        <v>1631.917893978836</v>
+        <v>1631.917893978835</v>
       </c>
       <c r="P42" t="n">
-        <v>1865.14533634211</v>
+        <v>1865.145336342109</v>
       </c>
       <c r="Q42" t="n">
-        <v>1968.353935695207</v>
+        <v>1968.353935695206</v>
       </c>
       <c r="R42" t="n">
-        <v>1968.353935695207</v>
+        <v>1883.965279452784</v>
       </c>
       <c r="S42" t="n">
-        <v>1799.956865094863</v>
+        <v>1883.965279452784</v>
       </c>
       <c r="T42" t="n">
-        <v>1598.859675827684</v>
+        <v>1883.965279452784</v>
       </c>
       <c r="U42" t="n">
-        <v>1370.653838935793</v>
+        <v>1655.759442560893</v>
       </c>
       <c r="V42" t="n">
-        <v>1164.82652966115</v>
+        <v>1420.60733432915</v>
       </c>
       <c r="W42" t="n">
-        <v>910.5891729329485</v>
+        <v>1166.369977600948</v>
       </c>
       <c r="X42" t="n">
-        <v>702.7376727274157</v>
+        <v>958.5184773954156</v>
       </c>
       <c r="Y42" t="n">
-        <v>494.9773739624617</v>
+        <v>750.7581786304618</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>39.36707871390414</v>
+        <v>39.36707871390411</v>
       </c>
       <c r="C43" t="n">
-        <v>39.36707871390414</v>
+        <v>39.36707871390411</v>
       </c>
       <c r="D43" t="n">
-        <v>39.36707871390414</v>
+        <v>39.36707871390411</v>
       </c>
       <c r="E43" t="n">
-        <v>39.36707871390414</v>
+        <v>39.36707871390411</v>
       </c>
       <c r="F43" t="n">
-        <v>39.36707871390414</v>
+        <v>39.36707871390411</v>
       </c>
       <c r="G43" t="n">
-        <v>39.36707871390414</v>
+        <v>39.36707871390411</v>
       </c>
       <c r="H43" t="n">
-        <v>39.36707871390414</v>
+        <v>39.36707871390411</v>
       </c>
       <c r="I43" t="n">
-        <v>39.36707871390414</v>
+        <v>39.36707871390411</v>
       </c>
       <c r="J43" t="n">
-        <v>43.61009068526397</v>
+        <v>43.61009068526358</v>
       </c>
       <c r="K43" t="n">
-        <v>47.36516927039834</v>
+        <v>47.36516927039795</v>
       </c>
       <c r="L43" t="n">
-        <v>107.6968116340245</v>
+        <v>107.6968116340241</v>
       </c>
       <c r="M43" t="n">
-        <v>181.6971924805216</v>
+        <v>181.6971924805212</v>
       </c>
       <c r="N43" t="n">
-        <v>259.3726260913259</v>
+        <v>259.3726260913255</v>
       </c>
       <c r="O43" t="n">
-        <v>315.102165649653</v>
+        <v>315.1021656496526</v>
       </c>
       <c r="P43" t="n">
-        <v>339.2677320883809</v>
+        <v>339.2677320883805</v>
       </c>
       <c r="Q43" t="n">
-        <v>339.2677320883809</v>
+        <v>339.2677320883805</v>
       </c>
       <c r="R43" t="n">
-        <v>339.2677320883809</v>
+        <v>339.2677320883805</v>
       </c>
       <c r="S43" t="n">
-        <v>321.7646828229754</v>
+        <v>321.7646828229751</v>
       </c>
       <c r="T43" t="n">
-        <v>297.3122533548261</v>
+        <v>297.3122533548258</v>
       </c>
       <c r="U43" t="n">
-        <v>212.9409510808829</v>
+        <v>212.9409510808827</v>
       </c>
       <c r="V43" t="n">
-        <v>163.0839418543501</v>
+        <v>163.0839418543499</v>
       </c>
       <c r="W43" t="n">
-        <v>78.4942507967435</v>
+        <v>78.49425079674336</v>
       </c>
       <c r="X43" t="n">
-        <v>55.3321788780802</v>
+        <v>55.33217887808012</v>
       </c>
       <c r="Y43" t="n">
-        <v>39.36707871390414</v>
+        <v>39.36707871390411</v>
       </c>
     </row>
     <row r="44">
@@ -7625,52 +7625,52 @@
         <v>1091.127662321285</v>
       </c>
       <c r="C44" t="n">
-        <v>926.992624360227</v>
+        <v>926.9926243602276</v>
       </c>
       <c r="D44" t="n">
-        <v>773.5544047328306</v>
+        <v>773.5544047328312</v>
       </c>
       <c r="E44" t="n">
-        <v>592.5936311139403</v>
+        <v>592.5936311139411</v>
       </c>
       <c r="F44" t="n">
-        <v>386.4352053036869</v>
+        <v>386.4352053036877</v>
       </c>
       <c r="G44" t="n">
-        <v>172.2701154577602</v>
+        <v>172.2701154577601</v>
       </c>
       <c r="H44" t="n">
         <v>39.36707871390414</v>
       </c>
       <c r="I44" t="n">
-        <v>39.36707871390414</v>
+        <v>50.83444981372095</v>
       </c>
       <c r="J44" t="n">
-        <v>69.55771862446545</v>
+        <v>281.7765018719472</v>
       </c>
       <c r="K44" t="n">
-        <v>436.3018781297006</v>
+        <v>447.7692492295175</v>
       </c>
       <c r="L44" t="n">
-        <v>694.507186851762</v>
+        <v>705.9745579515788</v>
       </c>
       <c r="M44" t="n">
-        <v>998.4168891147642</v>
+        <v>1009.884260214581</v>
       </c>
       <c r="N44" t="n">
-        <v>1292.61217054238</v>
+        <v>1304.079541642197</v>
       </c>
       <c r="O44" t="n">
-        <v>1525.224794567826</v>
+        <v>1536.692165667642</v>
       </c>
       <c r="P44" t="n">
-        <v>1886.831316730416</v>
+        <v>1697.547275682567</v>
       </c>
       <c r="Q44" t="n">
-        <v>1930.40504561409</v>
+        <v>1879.769552473312</v>
       </c>
       <c r="R44" t="n">
-        <v>1968.353935695207</v>
+        <v>1963.25045080322</v>
       </c>
       <c r="S44" t="n">
         <v>1968.353935695207</v>
@@ -7679,7 +7679,7 @@
         <v>1950.043347579644</v>
       </c>
       <c r="U44" t="n">
-        <v>1901.026740339212</v>
+        <v>1901.026740339213</v>
       </c>
       <c r="V44" t="n">
         <v>1774.791331974996</v>
@@ -7691,7 +7691,7 @@
         <v>1458.21187640251</v>
       </c>
       <c r="Y44" t="n">
-        <v>1272.900023406052</v>
+        <v>1272.900023406053</v>
       </c>
     </row>
     <row r="45">
@@ -7701,22 +7701,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>596.7583221717525</v>
+        <v>494.0735013537259</v>
       </c>
       <c r="C45" t="n">
-        <v>596.7583221717525</v>
+        <v>494.0735013537259</v>
       </c>
       <c r="D45" t="n">
-        <v>447.8239125105012</v>
+        <v>345.1390916924747</v>
       </c>
       <c r="E45" t="n">
-        <v>288.5864575050457</v>
+        <v>185.9016366870192</v>
       </c>
       <c r="F45" t="n">
-        <v>288.5864575050457</v>
+        <v>39.36707871390414</v>
       </c>
       <c r="G45" t="n">
-        <v>150.1259089378075</v>
+        <v>39.36707871390414</v>
       </c>
       <c r="H45" t="n">
         <v>39.36707871390414</v>
@@ -7728,13 +7728,13 @@
         <v>63.65503733504238</v>
       </c>
       <c r="K45" t="n">
-        <v>231.7878702625095</v>
+        <v>231.7878702625096</v>
       </c>
       <c r="L45" t="n">
-        <v>519.2676093006178</v>
+        <v>519.267609300618</v>
       </c>
       <c r="M45" t="n">
-        <v>906.7221268551048</v>
+        <v>906.7221268551049</v>
       </c>
       <c r="N45" t="n">
         <v>1320.138425969817</v>
@@ -7743,7 +7743,7 @@
         <v>1631.917893978836</v>
       </c>
       <c r="P45" t="n">
-        <v>1865.145336342111</v>
+        <v>1865.14533634211</v>
       </c>
       <c r="Q45" t="n">
         <v>1968.353935695207</v>
@@ -7752,25 +7752,25 @@
         <v>1968.353935695207</v>
       </c>
       <c r="S45" t="n">
-        <v>1799.956865094864</v>
+        <v>1968.353935695207</v>
       </c>
       <c r="T45" t="n">
-        <v>1598.859675827684</v>
+        <v>1767.256746428027</v>
       </c>
       <c r="U45" t="n">
-        <v>1370.653838935793</v>
+        <v>1539.050909536136</v>
       </c>
       <c r="V45" t="n">
-        <v>1135.50173070405</v>
+        <v>1332.137994072482</v>
       </c>
       <c r="W45" t="n">
-        <v>881.2643739758489</v>
+        <v>1077.900637344281</v>
       </c>
       <c r="X45" t="n">
-        <v>673.4128737703161</v>
+        <v>870.0491371387479</v>
       </c>
       <c r="Y45" t="n">
-        <v>670.4800539847162</v>
+        <v>662.288838373794</v>
       </c>
     </row>
     <row r="46">
@@ -7798,55 +7798,55 @@
         <v>39.36707871390414</v>
       </c>
       <c r="H46" t="n">
-        <v>39.36707871390414</v>
+        <v>43.61009068526364</v>
       </c>
       <c r="I46" t="n">
-        <v>39.36707871390414</v>
+        <v>43.61009068526364</v>
       </c>
       <c r="J46" t="n">
-        <v>39.36707871390414</v>
+        <v>43.61009068526364</v>
       </c>
       <c r="K46" t="n">
-        <v>43.12215729903851</v>
+        <v>47.36516927039801</v>
       </c>
       <c r="L46" t="n">
-        <v>103.4537996626647</v>
+        <v>107.6968116340242</v>
       </c>
       <c r="M46" t="n">
-        <v>177.4541805091618</v>
+        <v>181.6971924805213</v>
       </c>
       <c r="N46" t="n">
-        <v>255.129614119966</v>
+        <v>259.3726260913255</v>
       </c>
       <c r="O46" t="n">
-        <v>310.8591536782932</v>
+        <v>315.1021656496526</v>
       </c>
       <c r="P46" t="n">
-        <v>335.0247201170211</v>
+        <v>339.2677320883806</v>
       </c>
       <c r="Q46" t="n">
-        <v>335.0247201170211</v>
+        <v>339.2677320883806</v>
       </c>
       <c r="R46" t="n">
-        <v>339.2677320883809</v>
+        <v>339.2677320883806</v>
       </c>
       <c r="S46" t="n">
-        <v>321.7646828229754</v>
+        <v>321.7646828229751</v>
       </c>
       <c r="T46" t="n">
-        <v>297.3122533548261</v>
+        <v>297.3122533548259</v>
       </c>
       <c r="U46" t="n">
-        <v>212.9409510808829</v>
+        <v>212.9409510808827</v>
       </c>
       <c r="V46" t="n">
-        <v>163.0839418543501</v>
+        <v>163.0839418543499</v>
       </c>
       <c r="W46" t="n">
-        <v>78.4942507967435</v>
+        <v>78.49425079674339</v>
       </c>
       <c r="X46" t="n">
-        <v>55.33217887808021</v>
+        <v>55.33217887808014</v>
       </c>
       <c r="Y46" t="n">
         <v>39.36707871390414</v>
@@ -8456,19 +8456,19 @@
         <v>226.965896786692</v>
       </c>
       <c r="L8" t="n">
-        <v>242.3646406817305</v>
+        <v>242.6424607116987</v>
       </c>
       <c r="M8" t="n">
-        <v>237.2222789689842</v>
+        <v>236.944458939016</v>
       </c>
       <c r="N8" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O8" t="n">
-        <v>230.0982114216867</v>
+        <v>236.9742571633982</v>
       </c>
       <c r="P8" t="n">
-        <v>238.109041496981</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8541,16 +8541,16 @@
         <v>149.0100796637298</v>
       </c>
       <c r="N9" t="n">
-        <v>137.9399377950766</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
         <v>149.4722901861559</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>140.8504531560417</v>
       </c>
       <c r="Q9" t="n">
-        <v>146.857819827733</v>
+        <v>146.5799997977648</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8617,10 +8617,10 @@
         <v>141.7607220229497</v>
       </c>
       <c r="M10" t="n">
-        <v>145.8018296893165</v>
+        <v>145.5240096593483</v>
       </c>
       <c r="N10" t="n">
-        <v>134.2837701769765</v>
+        <v>134.5615902069446</v>
       </c>
       <c r="O10" t="n">
         <v>145.3325841935542</v>
@@ -8766,28 +8766,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>101.5577438039055</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>94.6340926413996</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>358.0387561149417</v>
+        <v>454.3203189461499</v>
       </c>
       <c r="N12" t="n">
         <v>441.7336077616982</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>234.5484851945846</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>82.87949352551843</v>
       </c>
       <c r="Q12" t="n">
-        <v>105.8261772781759</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8945,7 +8945,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>101.5577438039055</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9012,13 +9012,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>454.3203189461501</v>
+        <v>454.3203189461499</v>
       </c>
       <c r="N15" t="n">
-        <v>175.6209005593112</v>
+        <v>441.7336077616982</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>103.216320537839</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9240,25 +9240,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>101.5577438039055</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>94.63409264139963</v>
+        <v>105.1514029304336</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>454.3203189461501</v>
+        <v>454.3203189461499</v>
       </c>
       <c r="N18" t="n">
-        <v>241.200934472817</v>
+        <v>441.7336077616982</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>82.87949352551843</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9486,13 +9486,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>454.3203189461501</v>
+        <v>439.4066644957229</v>
       </c>
       <c r="N21" t="n">
-        <v>361.7652541298</v>
+        <v>61.75015301556144</v>
       </c>
       <c r="O21" t="n">
-        <v>78.93356371206411</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9714,28 +9714,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>101.5577438039055</v>
       </c>
       <c r="K24" t="n">
-        <v>184.4968833806804</v>
+        <v>94.63409264139963</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>454.3203189461501</v>
+        <v>454.3203189461499</v>
       </c>
       <c r="N24" t="n">
-        <v>441.7336077616983</v>
+        <v>441.7336077616982</v>
       </c>
       <c r="O24" t="n">
-        <v>78.93356371206411</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>222.1812058087289</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>105.826177278176</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -10674,16 +10674,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>238.9003081795998</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>182.2718129336565</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>105.826177278176</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10908,7 +10908,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>329.5141080437194</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
@@ -10917,7 +10917,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>182.2718129336556</v>
       </c>
       <c r="Q39" t="n">
         <v>105.826177278176</v>
@@ -11136,10 +11136,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>126.0910353404081</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125788</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>251.3538804794597</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>172.9436203513331</v>
+        <v>233.8929305869867</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>223.3030804366621</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23270,10 +23270,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>283.4226819530072</v>
       </c>
       <c r="H11" t="n">
-        <v>202.9732493819571</v>
+        <v>194.039790009433</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,19 +23309,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>89.5267252399467</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>119.925684173567</v>
+        <v>119.9256841735671</v>
       </c>
       <c r="V11" t="n">
-        <v>196.372297286114</v>
+        <v>196.3722972861141</v>
       </c>
       <c r="W11" t="n">
-        <v>217.8610075333921</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>238.3511394944481</v>
+        <v>238.3511394944482</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23492,19 +23492,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>251.3538804794598</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>233.8929305869868</v>
+        <v>233.8929305869867</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>223.3030804366621</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>250.550408888241</v>
       </c>
       <c r="F14" t="n">
-        <v>275.4960845576907</v>
+        <v>275.4960845576906</v>
       </c>
       <c r="G14" t="n">
         <v>283.4226819530072</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>59.81603987441162</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,16 +23543,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>66.24420776110927</v>
       </c>
       <c r="T14" t="n">
-        <v>89.52672523994678</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>119.9256841735671</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>196.3722972861141</v>
+        <v>96.58216988211032</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>39.31731966344665</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -26320,19 +26320,19 @@
         <v>102546.3756498899</v>
       </c>
       <c r="E2" t="n">
-        <v>87811.61057383039</v>
+        <v>87811.61057383033</v>
       </c>
       <c r="F2" t="n">
-        <v>87811.61057383037</v>
+        <v>87811.61057383036</v>
       </c>
       <c r="G2" t="n">
-        <v>102630.2212330354</v>
+        <v>102630.2212330355</v>
       </c>
       <c r="H2" t="n">
         <v>102630.2212330354</v>
       </c>
       <c r="I2" t="n">
-        <v>102630.2212330354</v>
+        <v>102630.2212330355</v>
       </c>
       <c r="J2" t="n">
         <v>102630.2212330355</v>
@@ -26350,7 +26350,7 @@
         <v>102630.2212330354</v>
       </c>
       <c r="O2" t="n">
-        <v>102630.2212330354</v>
+        <v>102630.2212330355</v>
       </c>
       <c r="P2" t="n">
         <v>102630.2212330354</v>
@@ -26372,13 +26372,13 @@
         <v>2135.906088747824</v>
       </c>
       <c r="E3" t="n">
-        <v>316447.7421719641</v>
+        <v>316447.7421719639</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>84914.70873765009</v>
+        <v>84914.70873765006</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>86337.88518108655</v>
+        <v>86337.88518108652</v>
       </c>
       <c r="M3" t="n">
-        <v>85120.19345298701</v>
+        <v>85120.19345298698</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>35296.30877041432</v>
+        <v>35296.30877041436</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,10 +26424,10 @@
         <v>419946.1207682426</v>
       </c>
       <c r="E4" t="n">
+        <v>285083.4340342777</v>
+      </c>
+      <c r="F4" t="n">
         <v>285083.4340342778</v>
-      </c>
-      <c r="F4" t="n">
-        <v>285083.4340342777</v>
       </c>
       <c r="G4" t="n">
         <v>352510.1306736338</v>
@@ -26439,7 +26439,7 @@
         <v>352510.1306736338</v>
       </c>
       <c r="J4" t="n">
-        <v>350004.9802630957</v>
+        <v>350004.9802630958</v>
       </c>
       <c r="K4" t="n">
         <v>350004.9802630958</v>
@@ -26457,7 +26457,7 @@
         <v>349052.7393806165</v>
       </c>
       <c r="P4" t="n">
-        <v>349052.7393806163</v>
+        <v>349052.7393806165</v>
       </c>
     </row>
     <row r="5">
@@ -26476,19 +26476,19 @@
         <v>34045.66358109605</v>
       </c>
       <c r="E5" t="n">
-        <v>36859.86279422478</v>
+        <v>36859.86279422476</v>
       </c>
       <c r="F5" t="n">
-        <v>36859.86279422477</v>
+        <v>36859.86279422476</v>
       </c>
       <c r="G5" t="n">
-        <v>45783.23110530665</v>
+        <v>45783.23110530664</v>
       </c>
       <c r="H5" t="n">
-        <v>45783.23110530665</v>
+        <v>45783.23110530664</v>
       </c>
       <c r="I5" t="n">
-        <v>45783.23110530665</v>
+        <v>45783.23110530664</v>
       </c>
       <c r="J5" t="n">
         <v>57363.43949289199</v>
@@ -26503,10 +26503,10 @@
         <v>47510.25837157166</v>
       </c>
       <c r="N5" t="n">
-        <v>47510.25837157166</v>
+        <v>47510.25837157165</v>
       </c>
       <c r="O5" t="n">
-        <v>49678.31152845951</v>
+        <v>49678.3115284595</v>
       </c>
       <c r="P5" t="n">
         <v>49678.31152845951</v>
@@ -26519,19 +26519,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-351365.8265499014</v>
+        <v>-351370.2401277696</v>
       </c>
       <c r="C6" t="n">
-        <v>-351365.8265499015</v>
+        <v>-351370.2401277695</v>
       </c>
       <c r="D6" t="n">
-        <v>-353581.3147881966</v>
+        <v>-353582.9916998595</v>
       </c>
       <c r="E6" t="n">
-        <v>-550579.4284266364</v>
+        <v>-550875.8006398203</v>
       </c>
       <c r="F6" t="n">
-        <v>-234131.6862546721</v>
+        <v>-234428.0584678563</v>
       </c>
       <c r="G6" t="n">
         <v>-380577.8492835551</v>
@@ -26543,7 +26543,7 @@
         <v>-295663.140545905</v>
       </c>
       <c r="J6" t="n">
-        <v>-421375.9641670173</v>
+        <v>-421375.9641670174</v>
       </c>
       <c r="K6" t="n">
         <v>-304738.1985229523</v>
@@ -26558,10 +26558,10 @@
         <v>-295804.9341721126</v>
       </c>
       <c r="O6" t="n">
-        <v>-331397.1384464549</v>
+        <v>-331397.1384464548</v>
       </c>
       <c r="P6" t="n">
-        <v>-296100.8296760404</v>
+        <v>-296100.8296760406</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>131.3799611840209</v>
+        <v>131.3799611840208</v>
       </c>
       <c r="F2" t="n">
         <v>131.3799611840208</v>
@@ -26744,7 +26744,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>124.3984765541379</v>
+        <v>124.3984765541378</v>
       </c>
       <c r="F3" t="n">
         <v>124.3984765541378</v>
@@ -26796,19 +26796,19 @@
         <v>6.876045741711437</v>
       </c>
       <c r="E4" t="n">
-        <v>379.9834547461368</v>
+        <v>379.9834547461367</v>
       </c>
       <c r="F4" t="n">
-        <v>379.9834547461368</v>
+        <v>379.9834547461367</v>
       </c>
       <c r="G4" t="n">
-        <v>379.9834547461368</v>
+        <v>379.9834547461367</v>
       </c>
       <c r="H4" t="n">
-        <v>379.9834547461368</v>
+        <v>379.9834547461367</v>
       </c>
       <c r="I4" t="n">
-        <v>379.9834547461368</v>
+        <v>379.9834547461367</v>
       </c>
       <c r="J4" t="n">
         <v>691.294762232906</v>
@@ -26823,10 +26823,10 @@
         <v>431.364594765048</v>
       </c>
       <c r="N4" t="n">
-        <v>431.364594765048</v>
+        <v>431.3645947650478</v>
       </c>
       <c r="O4" t="n">
-        <v>492.0884839238017</v>
+        <v>492.0884839238014</v>
       </c>
       <c r="P4" t="n">
         <v>492.0884839238017</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>131.3799611840209</v>
+        <v>131.3799611840208</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>107.9223564763582</v>
+        <v>107.9223564763581</v>
       </c>
       <c r="M2" t="n">
         <v>69.00304256261347</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>25.85380515058887</v>
+        <v>25.85380515058893</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>124.3984765541379</v>
+        <v>124.3984765541378</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="E4" t="n">
-        <v>373.1074090044254</v>
+        <v>373.1074090044253</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>311.3113074867692</v>
+        <v>311.3113074867693</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>120.053287278279</v>
+        <v>120.0532872782788</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>131.3799611840209</v>
+        <v>131.3799611840208</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="M4" t="n">
-        <v>373.1074090044254</v>
+        <v>373.1074090044253</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>375.8577959217691</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27859,7 +27859,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>375.8739489829624</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27874,7 +27874,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>5.073243612901081</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27895,7 +27895,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>3.934278125245373</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -27932,7 +27932,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>166.6520778990163</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -27941,19 +27941,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>138.1931666516724</v>
+        <v>139.7593826303423</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>130.4674714214992</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>105.359398494785</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>82.52058710970364</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27983,7 +27983,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>193.2886829531102</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -27995,7 +27995,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>198.896939461766</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>172.9559344402259</v>
       </c>
       <c r="C10" t="n">
-        <v>160.3707753569164</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28026,16 +28026,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>158.8921921532466</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>148.5744291855468</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>15.39344608417142</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>222.3746750348442</v>
       </c>
       <c r="Y10" t="n">
         <v>211.7086076103834</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>131.3799611840209</v>
+        <v>131.3799611840208</v>
       </c>
       <c r="C11" t="n">
-        <v>131.3799611840209</v>
+        <v>131.3799611840208</v>
       </c>
       <c r="D11" t="n">
-        <v>131.3799611840209</v>
+        <v>131.3799611840208</v>
       </c>
       <c r="E11" t="n">
-        <v>131.3799611840209</v>
+        <v>131.3799611840208</v>
       </c>
       <c r="F11" t="n">
-        <v>131.3799611840209</v>
+        <v>131.3799611840208</v>
       </c>
       <c r="G11" t="n">
-        <v>131.3799611840209</v>
+        <v>131.3799611840208</v>
       </c>
       <c r="H11" t="n">
-        <v>131.3799611840209</v>
+        <v>131.3799611840208</v>
       </c>
       <c r="I11" t="n">
-        <v>131.3799611840209</v>
+        <v>131.3799611840208</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>118.4550644623804</v>
       </c>
       <c r="S11" t="n">
-        <v>131.3799611840209</v>
+        <v>131.3799611840208</v>
       </c>
       <c r="T11" t="n">
-        <v>131.3799611840209</v>
+        <v>131.3799611840208</v>
       </c>
       <c r="U11" t="n">
-        <v>131.3799611840209</v>
+        <v>131.3799611840208</v>
       </c>
       <c r="V11" t="n">
-        <v>131.3799611840209</v>
+        <v>131.3799611840208</v>
       </c>
       <c r="W11" t="n">
-        <v>131.3799611840209</v>
+        <v>131.3799611840208</v>
       </c>
       <c r="X11" t="n">
-        <v>131.3799611840209</v>
+        <v>131.3799611840208</v>
       </c>
       <c r="Y11" t="n">
-        <v>131.3799611840209</v>
+        <v>131.3799611840208</v>
       </c>
     </row>
     <row r="12">
@@ -28166,16 +28166,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>131.3799611840208</v>
       </c>
       <c r="C12" t="n">
-        <v>131.3799611840209</v>
+        <v>30.47200514599422</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>131.3799611840209</v>
+        <v>131.3799611840208</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -28187,7 +28187,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>80.18410416320769</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28214,28 +28214,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>83.54476967999807</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>131.3799611840209</v>
+        <v>131.3799611840208</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>131.3799611840208</v>
       </c>
       <c r="U12" t="n">
-        <v>131.3799611840209</v>
+        <v>131.3799611840208</v>
       </c>
       <c r="V12" t="n">
-        <v>131.3799611840209</v>
+        <v>131.3799611840208</v>
       </c>
       <c r="W12" t="n">
-        <v>129.5030536708292</v>
+        <v>131.3799611840208</v>
       </c>
       <c r="X12" t="n">
-        <v>131.3799611840209</v>
+        <v>131.3799611840208</v>
       </c>
       <c r="Y12" t="n">
-        <v>131.3799611840209</v>
+        <v>131.3799611840208</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>131.3799611840209</v>
+        <v>131.3799611840208</v>
       </c>
       <c r="C13" t="n">
-        <v>131.3799611840209</v>
+        <v>131.3799611840208</v>
       </c>
       <c r="D13" t="n">
-        <v>131.3799611840209</v>
+        <v>131.3799611840208</v>
       </c>
       <c r="E13" t="n">
-        <v>131.3799611840209</v>
+        <v>131.3799611840208</v>
       </c>
       <c r="F13" t="n">
-        <v>131.3799611840209</v>
+        <v>131.3799611840208</v>
       </c>
       <c r="G13" t="n">
-        <v>131.3799611840209</v>
+        <v>131.3799611840208</v>
       </c>
       <c r="H13" t="n">
-        <v>131.3799611840209</v>
+        <v>131.3799611840208</v>
       </c>
       <c r="I13" t="n">
-        <v>131.3799611840209</v>
+        <v>131.3799611840208</v>
       </c>
       <c r="J13" t="n">
-        <v>77.49939401566408</v>
+        <v>77.49939401566409</v>
       </c>
       <c r="K13" t="n">
-        <v>131.3799611840209</v>
+        <v>131.3799611840208</v>
       </c>
       <c r="L13" t="n">
-        <v>131.3799611840209</v>
+        <v>131.3799611840208</v>
       </c>
       <c r="M13" t="n">
-        <v>47.42339400185813</v>
+        <v>131.3799611840208</v>
       </c>
       <c r="N13" t="n">
-        <v>131.3799611840209</v>
+        <v>131.3799611840208</v>
       </c>
       <c r="O13" t="n">
-        <v>131.3799611840209</v>
+        <v>111.4254818938615</v>
       </c>
       <c r="P13" t="n">
-        <v>131.3799611840209</v>
+        <v>131.3799611840208</v>
       </c>
       <c r="Q13" t="n">
-        <v>131.3799611840209</v>
+        <v>67.37787329201959</v>
       </c>
       <c r="R13" t="n">
-        <v>131.3799611840209</v>
+        <v>131.3799611840208</v>
       </c>
       <c r="S13" t="n">
-        <v>131.3799611840209</v>
+        <v>131.3799611840208</v>
       </c>
       <c r="T13" t="n">
-        <v>131.3799611840209</v>
+        <v>131.3799611840208</v>
       </c>
       <c r="U13" t="n">
-        <v>131.3799611840209</v>
+        <v>131.3799611840208</v>
       </c>
       <c r="V13" t="n">
-        <v>131.3799611840209</v>
+        <v>131.3799611840208</v>
       </c>
       <c r="W13" t="n">
-        <v>131.3799611840209</v>
+        <v>131.3799611840208</v>
       </c>
       <c r="X13" t="n">
-        <v>131.3799611840209</v>
+        <v>131.3799611840208</v>
       </c>
       <c r="Y13" t="n">
-        <v>131.3799611840209</v>
+        <v>131.3799611840208</v>
       </c>
     </row>
     <row r="14">
@@ -28409,10 +28409,10 @@
         <v>131.3799611840208</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>131.3799611840208</v>
       </c>
       <c r="E15" t="n">
-        <v>131.3799611840208</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -28424,7 +28424,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>80.18410416320771</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28451,28 +28451,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>83.54476967999808</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>131.3799611840208</v>
+        <v>30.47200514599459</v>
       </c>
       <c r="T15" t="n">
         <v>131.3799611840208</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>131.3799611840208</v>
       </c>
       <c r="V15" t="n">
         <v>131.3799611840208</v>
       </c>
       <c r="W15" t="n">
-        <v>129.5030536708302</v>
+        <v>131.3799611840208</v>
       </c>
       <c r="X15" t="n">
         <v>131.3799611840208</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>131.3799611840208</v>
       </c>
     </row>
     <row r="16">
@@ -28509,7 +28509,7 @@
         <v>131.3799611840208</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>131.3799611840208</v>
       </c>
       <c r="L16" t="n">
         <v>131.3799611840208</v>
@@ -28518,10 +28518,10 @@
         <v>131.3799611840208</v>
       </c>
       <c r="N16" t="n">
-        <v>131.3799611840208</v>
+        <v>124.9227880175241</v>
       </c>
       <c r="O16" t="n">
-        <v>124.9227880175246</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>131.3799611840208</v>
@@ -28606,7 +28606,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.629008122312371e-13</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>118.4550644623804</v>
@@ -28649,16 +28649,16 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.0759430815659</v>
+        <v>114.9878570960666</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>109.6512419216643</v>
       </c>
       <c r="I18" t="n">
         <v>80.18410416320771</v>
@@ -28691,25 +28691,25 @@
         <v>83.54476967999808</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>166.71309989434</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>199.0862173745079</v>
       </c>
       <c r="U18" t="n">
-        <v>78.4351283891956</v>
+        <v>225.9237785229719</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>237.5233471060834</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -28722,7 +28722,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -28734,7 +28734,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>154.7098041292789</v>
+        <v>167.7666542368038</v>
       </c>
       <c r="H19" t="n">
         <v>160.2327182439978</v>
@@ -28788,7 +28788,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>38.28098214594206</v>
       </c>
     </row>
     <row r="20">
@@ -28877,10 +28877,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -28889,16 +28889,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>109.6512419216643</v>
       </c>
       <c r="I21" t="n">
-        <v>80.18410416320771</v>
+        <v>53.95975582600973</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28928,25 +28928,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>166.71309989434</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>199.0862173745079</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9237785229719</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>52.56788394662746</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>237.5233471060834</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -28959,10 +28959,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>135.5586229106875</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -28977,10 +28977,10 @@
         <v>160.2327182439978</v>
       </c>
       <c r="I22" t="n">
-        <v>148.704406723306</v>
+        <v>113.2780028248371</v>
       </c>
       <c r="J22" t="n">
-        <v>77.49939401566409</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29001,7 +29001,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>67.37787329201957</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>167.2069181798455</v>
@@ -29123,13 +29123,13 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>68.8914477455166</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.0759430815659</v>
       </c>
       <c r="H24" t="n">
         <v>109.6512419216643</v>
@@ -29162,25 +29162,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>83.54476967999808</v>
       </c>
       <c r="S24" t="n">
         <v>166.71309989434</v>
       </c>
       <c r="T24" t="n">
-        <v>199.0862173745079</v>
+        <v>176.9981313890086</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9237785229719</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>237.5233471060834</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -29238,10 +29238,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>67.37787329201957</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>167.2069181798455</v>
+        <v>54.28112026571233</v>
       </c>
       <c r="S25" t="n">
         <v>220.1072229623119</v>
@@ -29262,7 +29262,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>38.28098214594209</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -29296,7 +29296,7 @@
         <v>150.1246733070585</v>
       </c>
       <c r="J26" t="n">
-        <v>150.1246733070585</v>
+        <v>150.1246733070592</v>
       </c>
       <c r="K26" t="n">
         <v>150.1246733070585</v>
@@ -29363,13 +29363,13 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>18.66235241173486</v>
+        <v>137.0759430815659</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>109.6512419216643</v>
       </c>
       <c r="I27" t="n">
         <v>80.18410416320771</v>
@@ -29402,16 +29402,16 @@
         <v>83.54476967999808</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>150.1246733070585</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>150.1246733070585</v>
       </c>
       <c r="U27" t="n">
-        <v>150.1246733070585</v>
+        <v>67.12905310894689</v>
       </c>
       <c r="V27" t="n">
-        <v>150.1246733070585</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -29420,7 +29420,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>150.1246733070585</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -29436,13 +29436,13 @@
         <v>150.1246733070585</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>150.1246733070585</v>
       </c>
       <c r="E28" t="n">
         <v>150.1246733070585</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>150.1246733070585</v>
       </c>
       <c r="G28" t="n">
         <v>150.1246733070585</v>
@@ -29451,31 +29451,31 @@
         <v>150.1246733070585</v>
       </c>
       <c r="I28" t="n">
-        <v>148.704406723306</v>
+        <v>150.1246733070585</v>
       </c>
       <c r="J28" t="n">
-        <v>77.49939401566409</v>
+        <v>150.1246733070585</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>150.1246733070585</v>
       </c>
       <c r="L28" t="n">
         <v>150.1246733070585</v>
       </c>
       <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>6.928889653295574</v>
+      </c>
+      <c r="Q28" t="n">
         <v>150.1246733070585</v>
-      </c>
-      <c r="N28" t="n">
-        <v>150.1246733070585</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>87.18726110141684</v>
       </c>
       <c r="R28" t="n">
         <v>150.1246733070585</v>
@@ -29597,16 +29597,16 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>110.2003914035506</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>67.12905310894688</v>
       </c>
       <c r="G30" t="n">
         <v>137.0759430815659</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>109.6512419216643</v>
       </c>
       <c r="I30" t="n">
         <v>80.18410416320771</v>
@@ -29636,16 +29636,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>83.54476967999808</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>150.1246733070585</v>
       </c>
       <c r="T30" t="n">
         <v>150.1246733070585</v>
       </c>
       <c r="U30" t="n">
-        <v>150.1246733070585</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -29657,7 +29657,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>150.1246733070585</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -29673,13 +29673,13 @@
         <v>150.1246733070585</v>
       </c>
       <c r="D31" t="n">
-        <v>150.1246733070585</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>150.1246733070585</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>150.1246733070585</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>150.1246733070585</v>
@@ -29688,7 +29688,7 @@
         <v>150.1246733070585</v>
       </c>
       <c r="I31" t="n">
-        <v>150.1246733070585</v>
+        <v>148.704406723306</v>
       </c>
       <c r="J31" t="n">
         <v>77.49939401566409</v>
@@ -29700,10 +29700,10 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
+        <v>23.50009846988578</v>
+      </c>
+      <c r="N31" t="n">
         <v>150.1246733070585</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>150.1246733070585</v>
@@ -29712,7 +29712,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>79.55416894469012</v>
+        <v>67.37787329201957</v>
       </c>
       <c r="R31" t="n">
         <v>150.1246733070585</v>
@@ -29776,7 +29776,7 @@
         <v>151.9036438613541</v>
       </c>
       <c r="L32" t="n">
-        <v>151.9036438613541</v>
+        <v>108.6665459358163</v>
       </c>
       <c r="M32" t="n">
         <v>151.9036438613541</v>
@@ -29788,7 +29788,7 @@
         <v>151.9036438613541</v>
       </c>
       <c r="P32" t="n">
-        <v>108.6665459358161</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="Q32" t="n">
         <v>151.9036438613541</v>
@@ -29825,7 +29825,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>151.9036438613541</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -29837,16 +29837,16 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.0759430815659</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>21.31871006066582</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>80.18410416320771</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -29876,22 +29876,22 @@
         <v>83.54476967999808</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="U33" t="n">
         <v>151.9036438613541</v>
       </c>
       <c r="V33" t="n">
-        <v>151.9036438613541</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>93.50954491205565</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -29910,13 +29910,13 @@
         <v>151.9036438613541</v>
       </c>
       <c r="D34" t="n">
-        <v>151.9036438613541</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>151.9036438613541</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>151.9036438613541</v>
@@ -29925,28 +29925,28 @@
         <v>151.9036438613541</v>
       </c>
       <c r="I34" t="n">
+        <v>148.704406723306</v>
+      </c>
+      <c r="J34" t="n">
+        <v>141.2593637651809</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
         <v>151.9036438613541</v>
       </c>
-      <c r="J34" t="n">
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
         <v>151.9036438613541</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>128.2893599455681</v>
-      </c>
-      <c r="M34" t="n">
-        <v>151.9036438613541</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>151.9036438613541</v>
@@ -30004,10 +30004,10 @@
         <v>220.9066864239676</v>
       </c>
       <c r="I35" t="n">
-        <v>191.1960010584324</v>
+        <v>220.9066864239676</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>48.00372961235579</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -30016,10 +30016,10 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>124.3850975296922</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>79.06345688862314</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -30031,10 +30031,10 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>118.4550644623804</v>
+        <v>220.9066864239676</v>
       </c>
       <c r="S35" t="n">
-        <v>197.6241689451301</v>
+        <v>220.9066864239676</v>
       </c>
       <c r="T35" t="n">
         <v>220.9066864239676</v>
@@ -30065,16 +30065,16 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -30083,7 +30083,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>48.23395704460665</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30113,10 +30113,10 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>166.71309989434</v>
       </c>
       <c r="T36" t="n">
-        <v>48.12765818367834</v>
+        <v>199.0862173745079</v>
       </c>
       <c r="U36" t="n">
         <v>220.9066864239676</v>
@@ -30128,7 +30128,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -30147,7 +30147,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>29.04517576253745</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -30195,7 +30195,7 @@
         <v>220.1072229623119</v>
       </c>
       <c r="T37" t="n">
-        <v>101.3363891682927</v>
+        <v>220.9066864239676</v>
       </c>
       <c r="U37" t="n">
         <v>220.9066864239676</v>
@@ -30241,10 +30241,10 @@
         <v>220.9066864239676</v>
       </c>
       <c r="I38" t="n">
-        <v>191.1960010584324</v>
+        <v>220.9066864239676</v>
       </c>
       <c r="J38" t="n">
-        <v>203.4485544183154</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -30265,13 +30265,13 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>48.00372961235488</v>
       </c>
       <c r="R38" t="n">
-        <v>118.4550644623804</v>
+        <v>220.9066864239676</v>
       </c>
       <c r="S38" t="n">
-        <v>197.6241689451301</v>
+        <v>220.9066864239676</v>
       </c>
       <c r="T38" t="n">
         <v>220.9066864239676</v>
@@ -30302,10 +30302,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -30314,13 +30314,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.0759430815659</v>
       </c>
       <c r="H39" t="n">
         <v>109.6512419216643</v>
       </c>
       <c r="I39" t="n">
-        <v>80.18410416320771</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30356,7 +30356,7 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>210.1603625431748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -30365,10 +30365,10 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>38.88794427534066</v>
       </c>
     </row>
     <row r="40">
@@ -30423,10 +30423,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>67.37787329201957</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>167.2069181798455</v>
+        <v>115.0144942161901</v>
       </c>
       <c r="S40" t="n">
         <v>220.1072229623119</v>
@@ -30441,7 +30441,7 @@
         <v>220.9066864239676</v>
       </c>
       <c r="W40" t="n">
-        <v>101.3363891682927</v>
+        <v>220.9066864239676</v>
       </c>
       <c r="X40" t="n">
         <v>220.9066864239676</v>
@@ -30478,10 +30478,10 @@
         <v>202.7792041895605</v>
       </c>
       <c r="I41" t="n">
-        <v>191.1960010584324</v>
+        <v>202.7792041895605</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>202.7792041895605</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -30490,25 +30490,25 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>185.1089866884459</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>194.9215329868156</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>63.86010090700765</v>
+        <v>140.0490382899693</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>118.4550644623804</v>
+        <v>202.7792041895605</v>
       </c>
       <c r="S41" t="n">
-        <v>197.6241689451301</v>
+        <v>202.7792041895605</v>
       </c>
       <c r="T41" t="n">
         <v>202.7792041895605</v>
@@ -30539,19 +30539,19 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>85.12385213421463</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.0759430815659</v>
       </c>
       <c r="H42" t="n">
         <v>109.6512419216643</v>
@@ -30584,19 +30584,19 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>83.54476967999808</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>166.71309989434</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>199.0862173745079</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>29.03155096752909</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -30639,7 +30639,7 @@
         <v>148.704406723306</v>
       </c>
       <c r="J43" t="n">
-        <v>81.78526469380535</v>
+        <v>81.78526469380496</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30715,37 +30715,37 @@
         <v>202.7792041895605</v>
       </c>
       <c r="I44" t="n">
-        <v>191.1960010584324</v>
+        <v>202.7792041895605</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>202.7792041895605</v>
       </c>
       <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>140.0490382899702</v>
+      </c>
+      <c r="R44" t="n">
         <v>202.7792041895605</v>
       </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
+      <c r="S44" t="n">
         <v>202.7792041895605</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>156.7872766655287</v>
-      </c>
-      <c r="S44" t="n">
-        <v>197.6241689451301</v>
       </c>
       <c r="T44" t="n">
         <v>202.7792041895605</v>
@@ -30773,7 +30773,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>93.54866915503334</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
@@ -30785,13 +30785,13 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.0759430815659</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>109.6512419216643</v>
       </c>
       <c r="I45" t="n">
         <v>80.18410416320771</v>
@@ -30824,7 +30824,7 @@
         <v>83.54476967999808</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>166.71309989434</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -30833,7 +30833,7 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>27.95680084040814</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -30842,7 +30842,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>202.7792041895605</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -30870,7 +30870,7 @@
         <v>167.7666542368038</v>
       </c>
       <c r="H46" t="n">
-        <v>160.2327182439978</v>
+        <v>164.5185889221387</v>
       </c>
       <c r="I46" t="n">
         <v>148.704406723306</v>
@@ -30900,7 +30900,7 @@
         <v>67.37787329201957</v>
       </c>
       <c r="R46" t="n">
-        <v>171.4927888579867</v>
+        <v>167.2069181798455</v>
       </c>
       <c r="S46" t="n">
         <v>202.7792041895605</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5000943781070867</v>
+        <v>0.5000943781070862</v>
       </c>
       <c r="H11" t="n">
-        <v>5.121591549789202</v>
+        <v>5.121591549789199</v>
       </c>
       <c r="I11" t="n">
-        <v>19.27988851197348</v>
+        <v>19.27988851197346</v>
       </c>
       <c r="J11" t="n">
-        <v>42.44488522386639</v>
+        <v>42.44488522386635</v>
       </c>
       <c r="K11" t="n">
-        <v>63.61388024913938</v>
+        <v>63.61388024913933</v>
       </c>
       <c r="L11" t="n">
-        <v>78.91864357313415</v>
+        <v>78.91864357313408</v>
       </c>
       <c r="M11" t="n">
-        <v>87.81219696979605</v>
+        <v>87.81219696979598</v>
       </c>
       <c r="N11" t="n">
-        <v>89.23309012159281</v>
+        <v>89.23309012159274</v>
       </c>
       <c r="O11" t="n">
-        <v>84.26027664929046</v>
+        <v>84.26027664929039</v>
       </c>
       <c r="P11" t="n">
-        <v>71.91419668977176</v>
+        <v>71.91419668977169</v>
       </c>
       <c r="Q11" t="n">
-        <v>54.00456677381169</v>
+        <v>54.00456677381165</v>
       </c>
       <c r="R11" t="n">
-        <v>31.41405347876931</v>
+        <v>31.41405347876929</v>
       </c>
       <c r="S11" t="n">
-        <v>11.39590064111525</v>
+        <v>11.39590064111524</v>
       </c>
       <c r="T11" t="n">
-        <v>2.189163140163773</v>
+        <v>2.189163140163771</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04000755024856693</v>
+        <v>0.04000755024856689</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2675740816447494</v>
+        <v>0.2675740816447492</v>
       </c>
       <c r="H12" t="n">
-        <v>2.584202314832186</v>
+        <v>2.584202314832184</v>
       </c>
       <c r="I12" t="n">
-        <v>9.212528688207383</v>
+        <v>9.212528688207376</v>
       </c>
       <c r="J12" t="n">
-        <v>25.27988286276118</v>
+        <v>25.27988286276116</v>
       </c>
       <c r="K12" t="n">
-        <v>43.20734633295939</v>
+        <v>43.20734633295935</v>
       </c>
       <c r="L12" t="n">
-        <v>58.097609262383</v>
+        <v>58.09760926238295</v>
       </c>
       <c r="M12" t="n">
-        <v>67.79716972200515</v>
+        <v>67.79716972200509</v>
       </c>
       <c r="N12" t="n">
-        <v>69.59155906777193</v>
+        <v>69.59155906777187</v>
       </c>
       <c r="O12" t="n">
-        <v>63.66268073238037</v>
+        <v>63.66268073238032</v>
       </c>
       <c r="P12" t="n">
-        <v>51.09491388881185</v>
+        <v>51.09491388881181</v>
       </c>
       <c r="Q12" t="n">
-        <v>34.15559680784556</v>
+        <v>34.15559680784554</v>
       </c>
       <c r="R12" t="n">
-        <v>16.61306447264506</v>
+        <v>16.61306447264505</v>
       </c>
       <c r="S12" t="n">
-        <v>4.970071209497865</v>
+        <v>4.970071209497861</v>
       </c>
       <c r="T12" t="n">
-        <v>1.078511320313705</v>
+        <v>1.078511320313704</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01760355800294405</v>
+        <v>0.01760355800294404</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2243251216550027</v>
+        <v>0.2243251216550026</v>
       </c>
       <c r="H13" t="n">
-        <v>1.994454263441753</v>
+        <v>1.994454263441751</v>
       </c>
       <c r="I13" t="n">
-        <v>6.746068203952267</v>
+        <v>6.746068203952261</v>
       </c>
       <c r="J13" t="n">
-        <v>15.85978610100869</v>
+        <v>15.85978610100868</v>
       </c>
       <c r="K13" t="n">
-        <v>26.06250049773577</v>
+        <v>26.06250049773575</v>
       </c>
       <c r="L13" t="n">
-        <v>33.3510276322356</v>
+        <v>33.35102763223557</v>
       </c>
       <c r="M13" t="n">
-        <v>35.16398247906556</v>
+        <v>35.16398247906553</v>
       </c>
       <c r="N13" t="n">
-        <v>34.32786157107876</v>
+        <v>34.32786157107873</v>
       </c>
       <c r="O13" t="n">
-        <v>31.70733628629077</v>
+        <v>31.70733628629074</v>
       </c>
       <c r="P13" t="n">
-        <v>27.13110380452868</v>
+        <v>27.13110380452866</v>
       </c>
       <c r="Q13" t="n">
-        <v>18.78416995967482</v>
+        <v>18.78416995967481</v>
       </c>
       <c r="R13" t="n">
-        <v>10.08647319732403</v>
+        <v>10.08647319732402</v>
       </c>
       <c r="S13" t="n">
-        <v>3.909375074660365</v>
+        <v>3.909375074660362</v>
       </c>
       <c r="T13" t="n">
-        <v>0.9584800652531933</v>
+        <v>0.9584800652531925</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01223591572663653</v>
+        <v>0.01223591572663652</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31990,34 +31990,34 @@
         <v>0.5000943781070863</v>
       </c>
       <c r="H14" t="n">
-        <v>5.1215915497892</v>
+        <v>5.121591549789199</v>
       </c>
       <c r="I14" t="n">
-        <v>19.27988851197347</v>
+        <v>19.27988851197346</v>
       </c>
       <c r="J14" t="n">
         <v>42.44488522386636</v>
       </c>
       <c r="K14" t="n">
-        <v>63.61388024913934</v>
+        <v>63.61388024913933</v>
       </c>
       <c r="L14" t="n">
-        <v>78.9186435731341</v>
+        <v>78.91864357313409</v>
       </c>
       <c r="M14" t="n">
-        <v>87.81219696979599</v>
+        <v>87.81219696979598</v>
       </c>
       <c r="N14" t="n">
-        <v>89.23309012159277</v>
+        <v>89.23309012159275</v>
       </c>
       <c r="O14" t="n">
-        <v>84.26027664929042</v>
+        <v>84.2602766492904</v>
       </c>
       <c r="P14" t="n">
-        <v>71.91419668977171</v>
+        <v>71.9141966897717</v>
       </c>
       <c r="Q14" t="n">
-        <v>54.00456677381166</v>
+        <v>54.00456677381165</v>
       </c>
       <c r="R14" t="n">
         <v>31.41405347876929</v>
@@ -32026,7 +32026,7 @@
         <v>11.39590064111524</v>
       </c>
       <c r="T14" t="n">
-        <v>2.189163140163772</v>
+        <v>2.189163140163771</v>
       </c>
       <c r="U14" t="n">
         <v>0.0400075502485669</v>
@@ -32069,34 +32069,34 @@
         <v>0.2675740816447493</v>
       </c>
       <c r="H15" t="n">
-        <v>2.584202314832185</v>
+        <v>2.584202314832184</v>
       </c>
       <c r="I15" t="n">
         <v>9.212528688207378</v>
       </c>
       <c r="J15" t="n">
-        <v>25.27988286276117</v>
+        <v>25.27988286276116</v>
       </c>
       <c r="K15" t="n">
-        <v>43.20734633295937</v>
+        <v>43.20734633295936</v>
       </c>
       <c r="L15" t="n">
-        <v>58.09760926238296</v>
+        <v>58.09760926238295</v>
       </c>
       <c r="M15" t="n">
-        <v>67.79716972200511</v>
+        <v>67.79716972200509</v>
       </c>
       <c r="N15" t="n">
-        <v>69.59155906777188</v>
+        <v>69.59155906777187</v>
       </c>
       <c r="O15" t="n">
-        <v>63.66268073238033</v>
+        <v>63.66268073238032</v>
       </c>
       <c r="P15" t="n">
         <v>51.09491388881182</v>
       </c>
       <c r="Q15" t="n">
-        <v>34.15559680784555</v>
+        <v>34.15559680784554</v>
       </c>
       <c r="R15" t="n">
         <v>16.61306447264505</v>
@@ -32151,7 +32151,7 @@
         <v>1.994454263441752</v>
       </c>
       <c r="I16" t="n">
-        <v>6.746068203952262</v>
+        <v>6.746068203952261</v>
       </c>
       <c r="J16" t="n">
         <v>15.85978610100868</v>
@@ -32160,16 +32160,16 @@
         <v>26.06250049773575</v>
       </c>
       <c r="L16" t="n">
-        <v>33.35102763223558</v>
+        <v>33.35102763223557</v>
       </c>
       <c r="M16" t="n">
-        <v>35.16398247906555</v>
+        <v>35.16398247906554</v>
       </c>
       <c r="N16" t="n">
         <v>34.32786157107874</v>
       </c>
       <c r="O16" t="n">
-        <v>31.70733628629075</v>
+        <v>31.70733628629074</v>
       </c>
       <c r="P16" t="n">
         <v>27.13110380452867</v>
@@ -32181,10 +32181,10 @@
         <v>10.08647319732402</v>
       </c>
       <c r="S16" t="n">
-        <v>3.909375074660363</v>
+        <v>3.909375074660362</v>
       </c>
       <c r="T16" t="n">
-        <v>0.9584800652531927</v>
+        <v>0.9584800652531926</v>
       </c>
       <c r="U16" t="n">
         <v>0.01223591572663652</v>
@@ -32227,34 +32227,34 @@
         <v>0.5000943781070863</v>
       </c>
       <c r="H17" t="n">
-        <v>5.1215915497892</v>
+        <v>5.121591549789199</v>
       </c>
       <c r="I17" t="n">
-        <v>19.27988851197347</v>
+        <v>19.27988851197346</v>
       </c>
       <c r="J17" t="n">
         <v>42.44488522386636</v>
       </c>
       <c r="K17" t="n">
-        <v>63.61388024913934</v>
+        <v>63.61388024913933</v>
       </c>
       <c r="L17" t="n">
-        <v>78.9186435731341</v>
+        <v>78.91864357313409</v>
       </c>
       <c r="M17" t="n">
-        <v>87.81219696979599</v>
+        <v>87.81219696979598</v>
       </c>
       <c r="N17" t="n">
-        <v>89.23309012159277</v>
+        <v>89.23309012159275</v>
       </c>
       <c r="O17" t="n">
-        <v>84.26027664929042</v>
+        <v>84.2602766492904</v>
       </c>
       <c r="P17" t="n">
-        <v>71.91419668977171</v>
+        <v>71.9141966897717</v>
       </c>
       <c r="Q17" t="n">
-        <v>54.00456677381166</v>
+        <v>54.00456677381165</v>
       </c>
       <c r="R17" t="n">
         <v>31.41405347876929</v>
@@ -32263,7 +32263,7 @@
         <v>11.39590064111524</v>
       </c>
       <c r="T17" t="n">
-        <v>2.189163140163772</v>
+        <v>2.189163140163771</v>
       </c>
       <c r="U17" t="n">
         <v>0.0400075502485669</v>
@@ -32306,34 +32306,34 @@
         <v>0.2675740816447493</v>
       </c>
       <c r="H18" t="n">
-        <v>2.584202314832185</v>
+        <v>2.584202314832184</v>
       </c>
       <c r="I18" t="n">
         <v>9.212528688207378</v>
       </c>
       <c r="J18" t="n">
-        <v>25.27988286276117</v>
+        <v>25.27988286276116</v>
       </c>
       <c r="K18" t="n">
-        <v>43.20734633295937</v>
+        <v>43.20734633295936</v>
       </c>
       <c r="L18" t="n">
-        <v>58.09760926238296</v>
+        <v>58.09760926238295</v>
       </c>
       <c r="M18" t="n">
-        <v>67.79716972200511</v>
+        <v>67.79716972200509</v>
       </c>
       <c r="N18" t="n">
-        <v>69.59155906777188</v>
+        <v>69.59155906777187</v>
       </c>
       <c r="O18" t="n">
-        <v>63.66268073238033</v>
+        <v>63.66268073238032</v>
       </c>
       <c r="P18" t="n">
         <v>51.09491388881182</v>
       </c>
       <c r="Q18" t="n">
-        <v>34.15559680784555</v>
+        <v>34.15559680784554</v>
       </c>
       <c r="R18" t="n">
         <v>16.61306447264505</v>
@@ -32388,7 +32388,7 @@
         <v>1.994454263441752</v>
       </c>
       <c r="I19" t="n">
-        <v>6.746068203952262</v>
+        <v>6.746068203952261</v>
       </c>
       <c r="J19" t="n">
         <v>15.85978610100868</v>
@@ -32397,16 +32397,16 @@
         <v>26.06250049773575</v>
       </c>
       <c r="L19" t="n">
-        <v>33.35102763223558</v>
+        <v>33.35102763223557</v>
       </c>
       <c r="M19" t="n">
-        <v>35.16398247906555</v>
+        <v>35.16398247906554</v>
       </c>
       <c r="N19" t="n">
         <v>34.32786157107874</v>
       </c>
       <c r="O19" t="n">
-        <v>31.70733628629075</v>
+        <v>31.70733628629074</v>
       </c>
       <c r="P19" t="n">
         <v>27.13110380452867</v>
@@ -32418,10 +32418,10 @@
         <v>10.08647319732402</v>
       </c>
       <c r="S19" t="n">
-        <v>3.909375074660363</v>
+        <v>3.909375074660362</v>
       </c>
       <c r="T19" t="n">
-        <v>0.9584800652531927</v>
+        <v>0.9584800652531926</v>
       </c>
       <c r="U19" t="n">
         <v>0.01223591572663652</v>
@@ -32464,34 +32464,34 @@
         <v>0.5000943781070863</v>
       </c>
       <c r="H20" t="n">
-        <v>5.1215915497892</v>
+        <v>5.121591549789199</v>
       </c>
       <c r="I20" t="n">
-        <v>19.27988851197347</v>
+        <v>19.27988851197346</v>
       </c>
       <c r="J20" t="n">
         <v>42.44488522386636</v>
       </c>
       <c r="K20" t="n">
-        <v>63.61388024913934</v>
+        <v>63.61388024913933</v>
       </c>
       <c r="L20" t="n">
-        <v>78.9186435731341</v>
+        <v>78.91864357313409</v>
       </c>
       <c r="M20" t="n">
-        <v>87.81219696979599</v>
+        <v>87.81219696979598</v>
       </c>
       <c r="N20" t="n">
-        <v>89.23309012159277</v>
+        <v>89.23309012159275</v>
       </c>
       <c r="O20" t="n">
-        <v>84.26027664929042</v>
+        <v>84.2602766492904</v>
       </c>
       <c r="P20" t="n">
-        <v>71.91419668977171</v>
+        <v>71.9141966897717</v>
       </c>
       <c r="Q20" t="n">
-        <v>54.00456677381166</v>
+        <v>54.00456677381165</v>
       </c>
       <c r="R20" t="n">
         <v>31.41405347876929</v>
@@ -32500,7 +32500,7 @@
         <v>11.39590064111524</v>
       </c>
       <c r="T20" t="n">
-        <v>2.189163140163772</v>
+        <v>2.189163140163771</v>
       </c>
       <c r="U20" t="n">
         <v>0.0400075502485669</v>
@@ -32543,34 +32543,34 @@
         <v>0.2675740816447493</v>
       </c>
       <c r="H21" t="n">
-        <v>2.584202314832185</v>
+        <v>2.584202314832184</v>
       </c>
       <c r="I21" t="n">
         <v>9.212528688207378</v>
       </c>
       <c r="J21" t="n">
-        <v>25.27988286276117</v>
+        <v>25.27988286276116</v>
       </c>
       <c r="K21" t="n">
-        <v>43.20734633295937</v>
+        <v>43.20734633295936</v>
       </c>
       <c r="L21" t="n">
-        <v>58.09760926238296</v>
+        <v>58.09760926238295</v>
       </c>
       <c r="M21" t="n">
-        <v>67.79716972200511</v>
+        <v>67.79716972200509</v>
       </c>
       <c r="N21" t="n">
-        <v>69.59155906777188</v>
+        <v>69.59155906777187</v>
       </c>
       <c r="O21" t="n">
-        <v>63.66268073238033</v>
+        <v>63.66268073238032</v>
       </c>
       <c r="P21" t="n">
         <v>51.09491388881182</v>
       </c>
       <c r="Q21" t="n">
-        <v>34.15559680784555</v>
+        <v>34.15559680784554</v>
       </c>
       <c r="R21" t="n">
         <v>16.61306447264505</v>
@@ -32625,7 +32625,7 @@
         <v>1.994454263441752</v>
       </c>
       <c r="I22" t="n">
-        <v>6.746068203952262</v>
+        <v>6.746068203952261</v>
       </c>
       <c r="J22" t="n">
         <v>15.85978610100868</v>
@@ -32634,16 +32634,16 @@
         <v>26.06250049773575</v>
       </c>
       <c r="L22" t="n">
-        <v>33.35102763223558</v>
+        <v>33.35102763223557</v>
       </c>
       <c r="M22" t="n">
-        <v>35.16398247906555</v>
+        <v>35.16398247906554</v>
       </c>
       <c r="N22" t="n">
         <v>34.32786157107874</v>
       </c>
       <c r="O22" t="n">
-        <v>31.70733628629075</v>
+        <v>31.70733628629074</v>
       </c>
       <c r="P22" t="n">
         <v>27.13110380452867</v>
@@ -32655,10 +32655,10 @@
         <v>10.08647319732402</v>
       </c>
       <c r="S22" t="n">
-        <v>3.909375074660363</v>
+        <v>3.909375074660362</v>
       </c>
       <c r="T22" t="n">
-        <v>0.9584800652531927</v>
+        <v>0.9584800652531926</v>
       </c>
       <c r="U22" t="n">
         <v>0.01223591572663652</v>
@@ -32701,34 +32701,34 @@
         <v>0.5000943781070863</v>
       </c>
       <c r="H23" t="n">
-        <v>5.1215915497892</v>
+        <v>5.121591549789199</v>
       </c>
       <c r="I23" t="n">
-        <v>19.27988851197347</v>
+        <v>19.27988851197346</v>
       </c>
       <c r="J23" t="n">
         <v>42.44488522386636</v>
       </c>
       <c r="K23" t="n">
-        <v>63.61388024913934</v>
+        <v>63.61388024913933</v>
       </c>
       <c r="L23" t="n">
-        <v>78.9186435731341</v>
+        <v>78.91864357313409</v>
       </c>
       <c r="M23" t="n">
-        <v>87.81219696979599</v>
+        <v>87.81219696979598</v>
       </c>
       <c r="N23" t="n">
-        <v>89.23309012159277</v>
+        <v>89.23309012159275</v>
       </c>
       <c r="O23" t="n">
-        <v>84.26027664929042</v>
+        <v>84.2602766492904</v>
       </c>
       <c r="P23" t="n">
-        <v>71.91419668977171</v>
+        <v>71.9141966897717</v>
       </c>
       <c r="Q23" t="n">
-        <v>54.00456677381166</v>
+        <v>54.00456677381165</v>
       </c>
       <c r="R23" t="n">
         <v>31.41405347876929</v>
@@ -32737,7 +32737,7 @@
         <v>11.39590064111524</v>
       </c>
       <c r="T23" t="n">
-        <v>2.189163140163772</v>
+        <v>2.189163140163771</v>
       </c>
       <c r="U23" t="n">
         <v>0.0400075502485669</v>
@@ -32780,34 +32780,34 @@
         <v>0.2675740816447493</v>
       </c>
       <c r="H24" t="n">
-        <v>2.584202314832185</v>
+        <v>2.584202314832184</v>
       </c>
       <c r="I24" t="n">
         <v>9.212528688207378</v>
       </c>
       <c r="J24" t="n">
-        <v>25.27988286276117</v>
+        <v>25.27988286276116</v>
       </c>
       <c r="K24" t="n">
-        <v>43.20734633295937</v>
+        <v>43.20734633295936</v>
       </c>
       <c r="L24" t="n">
-        <v>58.09760926238296</v>
+        <v>58.09760926238295</v>
       </c>
       <c r="M24" t="n">
-        <v>67.79716972200511</v>
+        <v>67.79716972200509</v>
       </c>
       <c r="N24" t="n">
-        <v>69.59155906777188</v>
+        <v>69.59155906777187</v>
       </c>
       <c r="O24" t="n">
-        <v>63.66268073238033</v>
+        <v>63.66268073238032</v>
       </c>
       <c r="P24" t="n">
         <v>51.09491388881182</v>
       </c>
       <c r="Q24" t="n">
-        <v>34.15559680784555</v>
+        <v>34.15559680784554</v>
       </c>
       <c r="R24" t="n">
         <v>16.61306447264505</v>
@@ -32862,7 +32862,7 @@
         <v>1.994454263441752</v>
       </c>
       <c r="I25" t="n">
-        <v>6.746068203952262</v>
+        <v>6.746068203952261</v>
       </c>
       <c r="J25" t="n">
         <v>15.85978610100868</v>
@@ -32871,16 +32871,16 @@
         <v>26.06250049773575</v>
       </c>
       <c r="L25" t="n">
-        <v>33.35102763223558</v>
+        <v>33.35102763223557</v>
       </c>
       <c r="M25" t="n">
-        <v>35.16398247906555</v>
+        <v>35.16398247906554</v>
       </c>
       <c r="N25" t="n">
         <v>34.32786157107874</v>
       </c>
       <c r="O25" t="n">
-        <v>31.70733628629075</v>
+        <v>31.70733628629074</v>
       </c>
       <c r="P25" t="n">
         <v>27.13110380452867</v>
@@ -32892,10 +32892,10 @@
         <v>10.08647319732402</v>
       </c>
       <c r="S25" t="n">
-        <v>3.909375074660363</v>
+        <v>3.909375074660362</v>
       </c>
       <c r="T25" t="n">
-        <v>0.9584800652531927</v>
+        <v>0.9584800652531926</v>
       </c>
       <c r="U25" t="n">
         <v>0.01223591572663652</v>
@@ -32938,34 +32938,34 @@
         <v>0.5000943781070863</v>
       </c>
       <c r="H26" t="n">
-        <v>5.1215915497892</v>
+        <v>5.121591549789199</v>
       </c>
       <c r="I26" t="n">
-        <v>19.27988851197347</v>
+        <v>19.27988851197346</v>
       </c>
       <c r="J26" t="n">
         <v>42.44488522386636</v>
       </c>
       <c r="K26" t="n">
-        <v>63.61388024913934</v>
+        <v>63.61388024913933</v>
       </c>
       <c r="L26" t="n">
-        <v>78.9186435731341</v>
+        <v>78.91864357313409</v>
       </c>
       <c r="M26" t="n">
-        <v>87.81219696979599</v>
+        <v>87.81219696979598</v>
       </c>
       <c r="N26" t="n">
-        <v>89.23309012159277</v>
+        <v>89.23309012159275</v>
       </c>
       <c r="O26" t="n">
-        <v>84.26027664929042</v>
+        <v>84.2602766492904</v>
       </c>
       <c r="P26" t="n">
-        <v>71.91419668977171</v>
+        <v>71.9141966897717</v>
       </c>
       <c r="Q26" t="n">
-        <v>54.00456677381166</v>
+        <v>54.00456677381165</v>
       </c>
       <c r="R26" t="n">
         <v>31.41405347876929</v>
@@ -32974,7 +32974,7 @@
         <v>11.39590064111524</v>
       </c>
       <c r="T26" t="n">
-        <v>2.189163140163772</v>
+        <v>2.189163140163771</v>
       </c>
       <c r="U26" t="n">
         <v>0.0400075502485669</v>
@@ -33017,34 +33017,34 @@
         <v>0.2675740816447493</v>
       </c>
       <c r="H27" t="n">
-        <v>2.584202314832185</v>
+        <v>2.584202314832184</v>
       </c>
       <c r="I27" t="n">
         <v>9.212528688207378</v>
       </c>
       <c r="J27" t="n">
-        <v>25.27988286276117</v>
+        <v>25.27988286276116</v>
       </c>
       <c r="K27" t="n">
-        <v>43.20734633295937</v>
+        <v>43.20734633295936</v>
       </c>
       <c r="L27" t="n">
-        <v>58.09760926238296</v>
+        <v>58.09760926238295</v>
       </c>
       <c r="M27" t="n">
-        <v>67.79716972200511</v>
+        <v>67.79716972200509</v>
       </c>
       <c r="N27" t="n">
-        <v>69.59155906777188</v>
+        <v>69.59155906777187</v>
       </c>
       <c r="O27" t="n">
-        <v>63.66268073238033</v>
+        <v>63.66268073238032</v>
       </c>
       <c r="P27" t="n">
         <v>51.09491388881182</v>
       </c>
       <c r="Q27" t="n">
-        <v>34.15559680784555</v>
+        <v>34.15559680784554</v>
       </c>
       <c r="R27" t="n">
         <v>16.61306447264505</v>
@@ -33099,7 +33099,7 @@
         <v>1.994454263441752</v>
       </c>
       <c r="I28" t="n">
-        <v>6.746068203952262</v>
+        <v>6.746068203952261</v>
       </c>
       <c r="J28" t="n">
         <v>15.85978610100868</v>
@@ -33108,16 +33108,16 @@
         <v>26.06250049773575</v>
       </c>
       <c r="L28" t="n">
-        <v>33.35102763223558</v>
+        <v>33.35102763223557</v>
       </c>
       <c r="M28" t="n">
-        <v>35.16398247906555</v>
+        <v>35.16398247906554</v>
       </c>
       <c r="N28" t="n">
         <v>34.32786157107874</v>
       </c>
       <c r="O28" t="n">
-        <v>31.70733628629075</v>
+        <v>31.70733628629074</v>
       </c>
       <c r="P28" t="n">
         <v>27.13110380452867</v>
@@ -33129,10 +33129,10 @@
         <v>10.08647319732402</v>
       </c>
       <c r="S28" t="n">
-        <v>3.909375074660363</v>
+        <v>3.909375074660362</v>
       </c>
       <c r="T28" t="n">
-        <v>0.9584800652531927</v>
+        <v>0.9584800652531926</v>
       </c>
       <c r="U28" t="n">
         <v>0.01223591572663652</v>
@@ -33175,34 +33175,34 @@
         <v>0.5000943781070863</v>
       </c>
       <c r="H29" t="n">
-        <v>5.1215915497892</v>
+        <v>5.121591549789199</v>
       </c>
       <c r="I29" t="n">
-        <v>19.27988851197347</v>
+        <v>19.27988851197346</v>
       </c>
       <c r="J29" t="n">
         <v>42.44488522386636</v>
       </c>
       <c r="K29" t="n">
-        <v>63.61388024913934</v>
+        <v>63.61388024913933</v>
       </c>
       <c r="L29" t="n">
-        <v>78.9186435731341</v>
+        <v>78.91864357313409</v>
       </c>
       <c r="M29" t="n">
-        <v>87.81219696979599</v>
+        <v>87.81219696979598</v>
       </c>
       <c r="N29" t="n">
-        <v>89.23309012159277</v>
+        <v>89.23309012159275</v>
       </c>
       <c r="O29" t="n">
-        <v>84.26027664929042</v>
+        <v>84.2602766492904</v>
       </c>
       <c r="P29" t="n">
-        <v>71.91419668977171</v>
+        <v>71.9141966897717</v>
       </c>
       <c r="Q29" t="n">
-        <v>54.00456677381166</v>
+        <v>54.00456677381165</v>
       </c>
       <c r="R29" t="n">
         <v>31.41405347876929</v>
@@ -33211,7 +33211,7 @@
         <v>11.39590064111524</v>
       </c>
       <c r="T29" t="n">
-        <v>2.189163140163772</v>
+        <v>2.189163140163771</v>
       </c>
       <c r="U29" t="n">
         <v>0.0400075502485669</v>
@@ -33254,34 +33254,34 @@
         <v>0.2675740816447493</v>
       </c>
       <c r="H30" t="n">
-        <v>2.584202314832185</v>
+        <v>2.584202314832184</v>
       </c>
       <c r="I30" t="n">
         <v>9.212528688207378</v>
       </c>
       <c r="J30" t="n">
-        <v>25.27988286276117</v>
+        <v>25.27988286276116</v>
       </c>
       <c r="K30" t="n">
-        <v>43.20734633295937</v>
+        <v>43.20734633295936</v>
       </c>
       <c r="L30" t="n">
-        <v>58.09760926238296</v>
+        <v>58.09760926238295</v>
       </c>
       <c r="M30" t="n">
-        <v>67.79716972200511</v>
+        <v>67.79716972200509</v>
       </c>
       <c r="N30" t="n">
-        <v>69.59155906777188</v>
+        <v>69.59155906777187</v>
       </c>
       <c r="O30" t="n">
-        <v>63.66268073238033</v>
+        <v>63.66268073238032</v>
       </c>
       <c r="P30" t="n">
         <v>51.09491388881182</v>
       </c>
       <c r="Q30" t="n">
-        <v>34.15559680784555</v>
+        <v>34.15559680784554</v>
       </c>
       <c r="R30" t="n">
         <v>16.61306447264505</v>
@@ -33336,7 +33336,7 @@
         <v>1.994454263441752</v>
       </c>
       <c r="I31" t="n">
-        <v>6.746068203952262</v>
+        <v>6.746068203952261</v>
       </c>
       <c r="J31" t="n">
         <v>15.85978610100868</v>
@@ -33345,16 +33345,16 @@
         <v>26.06250049773575</v>
       </c>
       <c r="L31" t="n">
-        <v>33.35102763223558</v>
+        <v>33.35102763223557</v>
       </c>
       <c r="M31" t="n">
-        <v>35.16398247906555</v>
+        <v>35.16398247906554</v>
       </c>
       <c r="N31" t="n">
         <v>34.32786157107874</v>
       </c>
       <c r="O31" t="n">
-        <v>31.70733628629075</v>
+        <v>31.70733628629074</v>
       </c>
       <c r="P31" t="n">
         <v>27.13110380452867</v>
@@ -33366,10 +33366,10 @@
         <v>10.08647319732402</v>
       </c>
       <c r="S31" t="n">
-        <v>3.909375074660363</v>
+        <v>3.909375074660362</v>
       </c>
       <c r="T31" t="n">
-        <v>0.9584800652531927</v>
+        <v>0.9584800652531926</v>
       </c>
       <c r="U31" t="n">
         <v>0.01223591572663652</v>
@@ -33412,34 +33412,34 @@
         <v>0.5000943781070863</v>
       </c>
       <c r="H32" t="n">
-        <v>5.1215915497892</v>
+        <v>5.121591549789199</v>
       </c>
       <c r="I32" t="n">
-        <v>19.27988851197347</v>
+        <v>19.27988851197346</v>
       </c>
       <c r="J32" t="n">
         <v>42.44488522386636</v>
       </c>
       <c r="K32" t="n">
-        <v>63.61388024913934</v>
+        <v>63.61388024913933</v>
       </c>
       <c r="L32" t="n">
-        <v>78.9186435731341</v>
+        <v>78.91864357313409</v>
       </c>
       <c r="M32" t="n">
-        <v>87.81219696979599</v>
+        <v>87.81219696979598</v>
       </c>
       <c r="N32" t="n">
-        <v>89.23309012159277</v>
+        <v>89.23309012159275</v>
       </c>
       <c r="O32" t="n">
-        <v>84.26027664929042</v>
+        <v>84.2602766492904</v>
       </c>
       <c r="P32" t="n">
-        <v>71.91419668977171</v>
+        <v>71.9141966897717</v>
       </c>
       <c r="Q32" t="n">
-        <v>54.00456677381166</v>
+        <v>54.00456677381165</v>
       </c>
       <c r="R32" t="n">
         <v>31.41405347876929</v>
@@ -33448,7 +33448,7 @@
         <v>11.39590064111524</v>
       </c>
       <c r="T32" t="n">
-        <v>2.189163140163772</v>
+        <v>2.189163140163771</v>
       </c>
       <c r="U32" t="n">
         <v>0.0400075502485669</v>
@@ -33491,34 +33491,34 @@
         <v>0.2675740816447493</v>
       </c>
       <c r="H33" t="n">
-        <v>2.584202314832185</v>
+        <v>2.584202314832184</v>
       </c>
       <c r="I33" t="n">
         <v>9.212528688207378</v>
       </c>
       <c r="J33" t="n">
-        <v>25.27988286276117</v>
+        <v>25.27988286276116</v>
       </c>
       <c r="K33" t="n">
-        <v>43.20734633295937</v>
+        <v>43.20734633295936</v>
       </c>
       <c r="L33" t="n">
-        <v>58.09760926238296</v>
+        <v>58.09760926238295</v>
       </c>
       <c r="M33" t="n">
-        <v>67.79716972200511</v>
+        <v>67.79716972200509</v>
       </c>
       <c r="N33" t="n">
-        <v>69.59155906777188</v>
+        <v>69.59155906777187</v>
       </c>
       <c r="O33" t="n">
-        <v>63.66268073238033</v>
+        <v>63.66268073238032</v>
       </c>
       <c r="P33" t="n">
         <v>51.09491388881182</v>
       </c>
       <c r="Q33" t="n">
-        <v>34.15559680784555</v>
+        <v>34.15559680784554</v>
       </c>
       <c r="R33" t="n">
         <v>16.61306447264505</v>
@@ -33573,7 +33573,7 @@
         <v>1.994454263441752</v>
       </c>
       <c r="I34" t="n">
-        <v>6.746068203952262</v>
+        <v>6.746068203952261</v>
       </c>
       <c r="J34" t="n">
         <v>15.85978610100868</v>
@@ -33582,16 +33582,16 @@
         <v>26.06250049773575</v>
       </c>
       <c r="L34" t="n">
-        <v>33.35102763223558</v>
+        <v>33.35102763223557</v>
       </c>
       <c r="M34" t="n">
-        <v>35.16398247906555</v>
+        <v>35.16398247906554</v>
       </c>
       <c r="N34" t="n">
         <v>34.32786157107874</v>
       </c>
       <c r="O34" t="n">
-        <v>31.70733628629075</v>
+        <v>31.70733628629074</v>
       </c>
       <c r="P34" t="n">
         <v>27.13110380452867</v>
@@ -33603,10 +33603,10 @@
         <v>10.08647319732402</v>
       </c>
       <c r="S34" t="n">
-        <v>3.909375074660363</v>
+        <v>3.909375074660362</v>
       </c>
       <c r="T34" t="n">
-        <v>0.9584800652531927</v>
+        <v>0.9584800652531926</v>
       </c>
       <c r="U34" t="n">
         <v>0.01223591572663652</v>
@@ -33649,34 +33649,34 @@
         <v>0.5000943781070863</v>
       </c>
       <c r="H35" t="n">
-        <v>5.1215915497892</v>
+        <v>5.121591549789199</v>
       </c>
       <c r="I35" t="n">
-        <v>19.27988851197347</v>
+        <v>19.27988851197346</v>
       </c>
       <c r="J35" t="n">
         <v>42.44488522386636</v>
       </c>
       <c r="K35" t="n">
-        <v>63.61388024913934</v>
+        <v>63.61388024913933</v>
       </c>
       <c r="L35" t="n">
-        <v>78.9186435731341</v>
+        <v>78.91864357313409</v>
       </c>
       <c r="M35" t="n">
-        <v>87.81219696979599</v>
+        <v>87.81219696979598</v>
       </c>
       <c r="N35" t="n">
-        <v>89.23309012159277</v>
+        <v>89.23309012159275</v>
       </c>
       <c r="O35" t="n">
-        <v>84.26027664929042</v>
+        <v>84.2602766492904</v>
       </c>
       <c r="P35" t="n">
-        <v>71.91419668977171</v>
+        <v>71.9141966897717</v>
       </c>
       <c r="Q35" t="n">
-        <v>54.00456677381166</v>
+        <v>54.00456677381165</v>
       </c>
       <c r="R35" t="n">
         <v>31.41405347876929</v>
@@ -33685,7 +33685,7 @@
         <v>11.39590064111524</v>
       </c>
       <c r="T35" t="n">
-        <v>2.189163140163772</v>
+        <v>2.189163140163771</v>
       </c>
       <c r="U35" t="n">
         <v>0.0400075502485669</v>
@@ -33728,34 +33728,34 @@
         <v>0.2675740816447493</v>
       </c>
       <c r="H36" t="n">
-        <v>2.584202314832185</v>
+        <v>2.584202314832184</v>
       </c>
       <c r="I36" t="n">
         <v>9.212528688207378</v>
       </c>
       <c r="J36" t="n">
-        <v>25.27988286276117</v>
+        <v>25.27988286276116</v>
       </c>
       <c r="K36" t="n">
-        <v>43.20734633295937</v>
+        <v>43.20734633295936</v>
       </c>
       <c r="L36" t="n">
-        <v>58.09760926238296</v>
+        <v>58.09760926238295</v>
       </c>
       <c r="M36" t="n">
-        <v>67.79716972200511</v>
+        <v>67.79716972200509</v>
       </c>
       <c r="N36" t="n">
-        <v>69.59155906777188</v>
+        <v>69.59155906777187</v>
       </c>
       <c r="O36" t="n">
-        <v>63.66268073238033</v>
+        <v>63.66268073238032</v>
       </c>
       <c r="P36" t="n">
         <v>51.09491388881182</v>
       </c>
       <c r="Q36" t="n">
-        <v>34.15559680784555</v>
+        <v>34.15559680784554</v>
       </c>
       <c r="R36" t="n">
         <v>16.61306447264505</v>
@@ -33810,7 +33810,7 @@
         <v>1.994454263441752</v>
       </c>
       <c r="I37" t="n">
-        <v>6.746068203952262</v>
+        <v>6.746068203952261</v>
       </c>
       <c r="J37" t="n">
         <v>15.85978610100868</v>
@@ -33819,16 +33819,16 @@
         <v>26.06250049773575</v>
       </c>
       <c r="L37" t="n">
-        <v>33.35102763223558</v>
+        <v>33.35102763223557</v>
       </c>
       <c r="M37" t="n">
-        <v>35.16398247906555</v>
+        <v>35.16398247906554</v>
       </c>
       <c r="N37" t="n">
         <v>34.32786157107874</v>
       </c>
       <c r="O37" t="n">
-        <v>31.70733628629075</v>
+        <v>31.70733628629074</v>
       </c>
       <c r="P37" t="n">
         <v>27.13110380452867</v>
@@ -33840,10 +33840,10 @@
         <v>10.08647319732402</v>
       </c>
       <c r="S37" t="n">
-        <v>3.909375074660363</v>
+        <v>3.909375074660362</v>
       </c>
       <c r="T37" t="n">
-        <v>0.9584800652531927</v>
+        <v>0.9584800652531926</v>
       </c>
       <c r="U37" t="n">
         <v>0.01223591572663652</v>
@@ -33886,34 +33886,34 @@
         <v>0.5000943781070863</v>
       </c>
       <c r="H38" t="n">
-        <v>5.1215915497892</v>
+        <v>5.121591549789199</v>
       </c>
       <c r="I38" t="n">
-        <v>19.27988851197347</v>
+        <v>19.27988851197346</v>
       </c>
       <c r="J38" t="n">
         <v>42.44488522386636</v>
       </c>
       <c r="K38" t="n">
-        <v>63.61388024913934</v>
+        <v>63.61388024913933</v>
       </c>
       <c r="L38" t="n">
-        <v>78.9186435731341</v>
+        <v>78.91864357313409</v>
       </c>
       <c r="M38" t="n">
-        <v>87.81219696979599</v>
+        <v>87.81219696979598</v>
       </c>
       <c r="N38" t="n">
-        <v>89.23309012159277</v>
+        <v>89.23309012159275</v>
       </c>
       <c r="O38" t="n">
-        <v>84.26027664929042</v>
+        <v>84.2602766492904</v>
       </c>
       <c r="P38" t="n">
-        <v>71.91419668977171</v>
+        <v>71.9141966897717</v>
       </c>
       <c r="Q38" t="n">
-        <v>54.00456677381166</v>
+        <v>54.00456677381165</v>
       </c>
       <c r="R38" t="n">
         <v>31.41405347876929</v>
@@ -33922,7 +33922,7 @@
         <v>11.39590064111524</v>
       </c>
       <c r="T38" t="n">
-        <v>2.189163140163772</v>
+        <v>2.189163140163771</v>
       </c>
       <c r="U38" t="n">
         <v>0.0400075502485669</v>
@@ -33965,34 +33965,34 @@
         <v>0.2675740816447493</v>
       </c>
       <c r="H39" t="n">
-        <v>2.584202314832185</v>
+        <v>2.584202314832184</v>
       </c>
       <c r="I39" t="n">
         <v>9.212528688207378</v>
       </c>
       <c r="J39" t="n">
-        <v>25.27988286276117</v>
+        <v>25.27988286276116</v>
       </c>
       <c r="K39" t="n">
-        <v>43.20734633295937</v>
+        <v>43.20734633295936</v>
       </c>
       <c r="L39" t="n">
-        <v>58.09760926238296</v>
+        <v>58.09760926238295</v>
       </c>
       <c r="M39" t="n">
-        <v>67.79716972200511</v>
+        <v>67.79716972200509</v>
       </c>
       <c r="N39" t="n">
-        <v>69.59155906777188</v>
+        <v>69.59155906777187</v>
       </c>
       <c r="O39" t="n">
-        <v>63.66268073238033</v>
+        <v>63.66268073238032</v>
       </c>
       <c r="P39" t="n">
         <v>51.09491388881182</v>
       </c>
       <c r="Q39" t="n">
-        <v>34.15559680784555</v>
+        <v>34.15559680784554</v>
       </c>
       <c r="R39" t="n">
         <v>16.61306447264505</v>
@@ -34047,7 +34047,7 @@
         <v>1.994454263441752</v>
       </c>
       <c r="I40" t="n">
-        <v>6.746068203952262</v>
+        <v>6.746068203952261</v>
       </c>
       <c r="J40" t="n">
         <v>15.85978610100868</v>
@@ -34056,16 +34056,16 @@
         <v>26.06250049773575</v>
       </c>
       <c r="L40" t="n">
-        <v>33.35102763223558</v>
+        <v>33.35102763223557</v>
       </c>
       <c r="M40" t="n">
-        <v>35.16398247906555</v>
+        <v>35.16398247906554</v>
       </c>
       <c r="N40" t="n">
         <v>34.32786157107874</v>
       </c>
       <c r="O40" t="n">
-        <v>31.70733628629075</v>
+        <v>31.70733628629074</v>
       </c>
       <c r="P40" t="n">
         <v>27.13110380452867</v>
@@ -34077,10 +34077,10 @@
         <v>10.08647319732402</v>
       </c>
       <c r="S40" t="n">
-        <v>3.909375074660363</v>
+        <v>3.909375074660362</v>
       </c>
       <c r="T40" t="n">
-        <v>0.9584800652531927</v>
+        <v>0.9584800652531926</v>
       </c>
       <c r="U40" t="n">
         <v>0.01223591572663652</v>
@@ -34123,34 +34123,34 @@
         <v>0.5000943781070863</v>
       </c>
       <c r="H41" t="n">
-        <v>5.1215915497892</v>
+        <v>5.121591549789199</v>
       </c>
       <c r="I41" t="n">
-        <v>19.27988851197347</v>
+        <v>19.27988851197346</v>
       </c>
       <c r="J41" t="n">
         <v>42.44488522386636</v>
       </c>
       <c r="K41" t="n">
-        <v>63.61388024913934</v>
+        <v>63.61388024913933</v>
       </c>
       <c r="L41" t="n">
-        <v>78.9186435731341</v>
+        <v>78.91864357313409</v>
       </c>
       <c r="M41" t="n">
-        <v>87.81219696979599</v>
+        <v>87.81219696979598</v>
       </c>
       <c r="N41" t="n">
-        <v>89.23309012159277</v>
+        <v>89.23309012159275</v>
       </c>
       <c r="O41" t="n">
-        <v>84.26027664929042</v>
+        <v>84.2602766492904</v>
       </c>
       <c r="P41" t="n">
-        <v>71.91419668977171</v>
+        <v>71.9141966897717</v>
       </c>
       <c r="Q41" t="n">
-        <v>54.00456677381166</v>
+        <v>54.00456677381165</v>
       </c>
       <c r="R41" t="n">
         <v>31.41405347876929</v>
@@ -34159,7 +34159,7 @@
         <v>11.39590064111524</v>
       </c>
       <c r="T41" t="n">
-        <v>2.189163140163772</v>
+        <v>2.189163140163771</v>
       </c>
       <c r="U41" t="n">
         <v>0.0400075502485669</v>
@@ -34202,34 +34202,34 @@
         <v>0.2675740816447493</v>
       </c>
       <c r="H42" t="n">
-        <v>2.584202314832185</v>
+        <v>2.584202314832184</v>
       </c>
       <c r="I42" t="n">
         <v>9.212528688207378</v>
       </c>
       <c r="J42" t="n">
-        <v>25.27988286276117</v>
+        <v>25.27988286276116</v>
       </c>
       <c r="K42" t="n">
-        <v>43.20734633295937</v>
+        <v>43.20734633295936</v>
       </c>
       <c r="L42" t="n">
-        <v>58.09760926238296</v>
+        <v>58.09760926238295</v>
       </c>
       <c r="M42" t="n">
-        <v>67.79716972200511</v>
+        <v>67.79716972200509</v>
       </c>
       <c r="N42" t="n">
-        <v>69.59155906777188</v>
+        <v>69.59155906777187</v>
       </c>
       <c r="O42" t="n">
-        <v>63.66268073238033</v>
+        <v>63.66268073238032</v>
       </c>
       <c r="P42" t="n">
         <v>51.09491388881182</v>
       </c>
       <c r="Q42" t="n">
-        <v>34.15559680784555</v>
+        <v>34.15559680784554</v>
       </c>
       <c r="R42" t="n">
         <v>16.61306447264505</v>
@@ -34284,7 +34284,7 @@
         <v>1.994454263441752</v>
       </c>
       <c r="I43" t="n">
-        <v>6.746068203952262</v>
+        <v>6.746068203952261</v>
       </c>
       <c r="J43" t="n">
         <v>15.85978610100868</v>
@@ -34293,16 +34293,16 @@
         <v>26.06250049773575</v>
       </c>
       <c r="L43" t="n">
-        <v>33.35102763223558</v>
+        <v>33.35102763223557</v>
       </c>
       <c r="M43" t="n">
-        <v>35.16398247906555</v>
+        <v>35.16398247906554</v>
       </c>
       <c r="N43" t="n">
         <v>34.32786157107874</v>
       </c>
       <c r="O43" t="n">
-        <v>31.70733628629075</v>
+        <v>31.70733628629074</v>
       </c>
       <c r="P43" t="n">
         <v>27.13110380452867</v>
@@ -34314,10 +34314,10 @@
         <v>10.08647319732402</v>
       </c>
       <c r="S43" t="n">
-        <v>3.909375074660363</v>
+        <v>3.909375074660362</v>
       </c>
       <c r="T43" t="n">
-        <v>0.9584800652531927</v>
+        <v>0.9584800652531926</v>
       </c>
       <c r="U43" t="n">
         <v>0.01223591572663652</v>
@@ -34360,34 +34360,34 @@
         <v>0.5000943781070863</v>
       </c>
       <c r="H44" t="n">
-        <v>5.1215915497892</v>
+        <v>5.121591549789199</v>
       </c>
       <c r="I44" t="n">
-        <v>19.27988851197347</v>
+        <v>19.27988851197346</v>
       </c>
       <c r="J44" t="n">
         <v>42.44488522386636</v>
       </c>
       <c r="K44" t="n">
-        <v>63.61388024913934</v>
+        <v>63.61388024913933</v>
       </c>
       <c r="L44" t="n">
-        <v>78.9186435731341</v>
+        <v>78.91864357313409</v>
       </c>
       <c r="M44" t="n">
-        <v>87.81219696979599</v>
+        <v>87.81219696979598</v>
       </c>
       <c r="N44" t="n">
-        <v>89.23309012159277</v>
+        <v>89.23309012159275</v>
       </c>
       <c r="O44" t="n">
-        <v>84.26027664929042</v>
+        <v>84.2602766492904</v>
       </c>
       <c r="P44" t="n">
-        <v>71.91419668977171</v>
+        <v>71.9141966897717</v>
       </c>
       <c r="Q44" t="n">
-        <v>54.00456677381166</v>
+        <v>54.00456677381165</v>
       </c>
       <c r="R44" t="n">
         <v>31.41405347876929</v>
@@ -34396,7 +34396,7 @@
         <v>11.39590064111524</v>
       </c>
       <c r="T44" t="n">
-        <v>2.189163140163772</v>
+        <v>2.189163140163771</v>
       </c>
       <c r="U44" t="n">
         <v>0.0400075502485669</v>
@@ -34439,34 +34439,34 @@
         <v>0.2675740816447493</v>
       </c>
       <c r="H45" t="n">
-        <v>2.584202314832185</v>
+        <v>2.584202314832184</v>
       </c>
       <c r="I45" t="n">
         <v>9.212528688207378</v>
       </c>
       <c r="J45" t="n">
-        <v>25.27988286276117</v>
+        <v>25.27988286276116</v>
       </c>
       <c r="K45" t="n">
-        <v>43.20734633295937</v>
+        <v>43.20734633295936</v>
       </c>
       <c r="L45" t="n">
-        <v>58.09760926238296</v>
+        <v>58.09760926238295</v>
       </c>
       <c r="M45" t="n">
-        <v>67.79716972200511</v>
+        <v>67.79716972200509</v>
       </c>
       <c r="N45" t="n">
-        <v>69.59155906777188</v>
+        <v>69.59155906777187</v>
       </c>
       <c r="O45" t="n">
-        <v>63.66268073238033</v>
+        <v>63.66268073238032</v>
       </c>
       <c r="P45" t="n">
         <v>51.09491388881182</v>
       </c>
       <c r="Q45" t="n">
-        <v>34.15559680784555</v>
+        <v>34.15559680784554</v>
       </c>
       <c r="R45" t="n">
         <v>16.61306447264505</v>
@@ -34521,7 +34521,7 @@
         <v>1.994454263441752</v>
       </c>
       <c r="I46" t="n">
-        <v>6.746068203952262</v>
+        <v>6.746068203952261</v>
       </c>
       <c r="J46" t="n">
         <v>15.85978610100868</v>
@@ -34530,16 +34530,16 @@
         <v>26.06250049773575</v>
       </c>
       <c r="L46" t="n">
-        <v>33.35102763223558</v>
+        <v>33.35102763223557</v>
       </c>
       <c r="M46" t="n">
-        <v>35.16398247906555</v>
+        <v>35.16398247906554</v>
       </c>
       <c r="N46" t="n">
         <v>34.32786157107874</v>
       </c>
       <c r="O46" t="n">
-        <v>31.70733628629075</v>
+        <v>31.70733628629074</v>
       </c>
       <c r="P46" t="n">
         <v>27.13110380452867</v>
@@ -34551,10 +34551,10 @@
         <v>10.08647319732402</v>
       </c>
       <c r="S46" t="n">
-        <v>3.909375074660363</v>
+        <v>3.909375074660362</v>
       </c>
       <c r="T46" t="n">
-        <v>0.9584800652531927</v>
+        <v>0.9584800652531926</v>
       </c>
       <c r="U46" t="n">
         <v>0.01223591572663652</v>
@@ -35176,19 +35176,19 @@
         <v>6.876045741711437</v>
       </c>
       <c r="L8" t="n">
-        <v>6.598225711743296</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="M8" t="n">
+        <v>6.598225711743297</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
       <c r="P8" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35261,16 +35261,16 @@
         <v>6.876045741711437</v>
       </c>
       <c r="N9" t="n">
-        <v>6.598225711743296</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.876045741711437</v>
+        <v>6.598225711743297</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35337,10 +35337,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="M10" t="n">
+        <v>6.598225711743296</v>
+      </c>
+      <c r="N10" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="N10" t="n">
-        <v>6.598225711743297</v>
       </c>
       <c r="O10" t="n">
         <v>6.876045741711437</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>30.49559586925387</v>
+        <v>30.49559586925383</v>
       </c>
       <c r="K11" t="n">
-        <v>167.6694417753236</v>
+        <v>167.6694417753235</v>
       </c>
       <c r="L11" t="n">
         <v>260.8134431535973</v>
       </c>
       <c r="M11" t="n">
-        <v>306.9794972353558</v>
+        <v>306.9794972353557</v>
       </c>
       <c r="N11" t="n">
         <v>297.166950936986</v>
       </c>
       <c r="O11" t="n">
-        <v>234.9622464903491</v>
+        <v>234.962246490349</v>
       </c>
       <c r="P11" t="n">
-        <v>162.4799091059849</v>
+        <v>162.4799091059848</v>
       </c>
       <c r="Q11" t="n">
-        <v>44.01386755926688</v>
+        <v>44.01386755926684</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>24.5332915365033</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>169.831144371179</v>
       </c>
       <c r="L12" t="n">
-        <v>290.383574785968</v>
+        <v>290.3835747859679</v>
       </c>
       <c r="M12" t="n">
-        <v>283.7018919149285</v>
+        <v>379.9834547461367</v>
       </c>
       <c r="N12" t="n">
-        <v>379.9834547461368</v>
+        <v>379.9834547461367</v>
       </c>
       <c r="O12" t="n">
-        <v>314.9287555646654</v>
+        <v>155.6149214825205</v>
       </c>
       <c r="P12" t="n">
-        <v>235.5832751144188</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>104.2511104576731</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35568,25 +35568,25 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>135.1729698558738</v>
+        <v>135.1729698558737</v>
       </c>
       <c r="L13" t="n">
-        <v>192.3210140765726</v>
+        <v>192.3210140765725</v>
       </c>
       <c r="M13" t="n">
-        <v>122.1712534427643</v>
+        <v>206.127820624927</v>
       </c>
       <c r="N13" t="n">
-        <v>209.8399951343282</v>
+        <v>209.8399951343281</v>
       </c>
       <c r="O13" t="n">
-        <v>187.6724253843513</v>
+        <v>167.7179460941919</v>
       </c>
       <c r="P13" t="n">
-        <v>155.7896242534431</v>
+        <v>155.789624253443</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.00208789200133</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35653,19 +35653,19 @@
         <v>260.8134431535973</v>
       </c>
       <c r="M14" t="n">
-        <v>306.9794972353558</v>
+        <v>306.9794972353557</v>
       </c>
       <c r="N14" t="n">
         <v>297.166950936986</v>
       </c>
       <c r="O14" t="n">
-        <v>234.9622464903491</v>
+        <v>234.962246490349</v>
       </c>
       <c r="P14" t="n">
         <v>162.4799091059848</v>
       </c>
       <c r="Q14" t="n">
-        <v>44.01386755926712</v>
+        <v>44.01386755926685</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>24.53329153650331</v>
       </c>
       <c r="K15" t="n">
         <v>169.831144371179</v>
@@ -35732,13 +35732,13 @@
         <v>290.3835747859679</v>
       </c>
       <c r="M15" t="n">
-        <v>379.9834547461368</v>
+        <v>379.9834547461367</v>
       </c>
       <c r="N15" t="n">
-        <v>113.8707475437497</v>
+        <v>379.9834547461367</v>
       </c>
       <c r="O15" t="n">
-        <v>314.9287555646654</v>
+        <v>24.28275682577484</v>
       </c>
       <c r="P15" t="n">
         <v>235.5832751144187</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>53.88056716835671</v>
+        <v>53.88056716835673</v>
       </c>
       <c r="K16" t="n">
-        <v>3.793008671852903</v>
+        <v>135.1729698558737</v>
       </c>
       <c r="L16" t="n">
         <v>192.3210140765725</v>
       </c>
       <c r="M16" t="n">
-        <v>206.1278206249269</v>
+        <v>206.127820624927</v>
       </c>
       <c r="N16" t="n">
-        <v>209.8399951343281</v>
+        <v>203.3828219678315</v>
       </c>
       <c r="O16" t="n">
-        <v>181.215252217855</v>
+        <v>56.29246420033041</v>
       </c>
       <c r="P16" t="n">
         <v>155.789624253443</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.00208789200123</v>
+        <v>64.00208789200126</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35890,19 +35890,19 @@
         <v>260.8134431535973</v>
       </c>
       <c r="M17" t="n">
-        <v>306.9794972353558</v>
+        <v>306.9794972353557</v>
       </c>
       <c r="N17" t="n">
         <v>297.166950936986</v>
       </c>
       <c r="O17" t="n">
-        <v>234.9622464903491</v>
+        <v>234.962246490349</v>
       </c>
       <c r="P17" t="n">
         <v>162.4799091059848</v>
       </c>
       <c r="Q17" t="n">
-        <v>44.01386755926712</v>
+        <v>44.01386755926685</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>24.53329153650331</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>10.51731028903402</v>
       </c>
       <c r="L18" t="n">
         <v>290.3835747859679</v>
       </c>
       <c r="M18" t="n">
-        <v>379.9834547461368</v>
+        <v>379.9834547461367</v>
       </c>
       <c r="N18" t="n">
-        <v>179.4507814572556</v>
+        <v>379.9834547461367</v>
       </c>
       <c r="O18" t="n">
         <v>314.9287555646654</v>
       </c>
       <c r="P18" t="n">
-        <v>235.5832751144187</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>104.2511104576731</v>
@@ -36042,10 +36042,10 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>3.793008671852903</v>
+        <v>3.793008671852899</v>
       </c>
       <c r="L19" t="n">
-        <v>60.94105289255172</v>
+        <v>60.94105289255171</v>
       </c>
       <c r="M19" t="n">
         <v>74.74785944090613</v>
@@ -36054,7 +36054,7 @@
         <v>78.46003395030733</v>
       </c>
       <c r="O19" t="n">
-        <v>56.29246420033042</v>
+        <v>56.29246420033041</v>
       </c>
       <c r="P19" t="n">
         <v>24.40966306942216</v>
@@ -36127,19 +36127,19 @@
         <v>260.8134431535973</v>
       </c>
       <c r="M20" t="n">
-        <v>306.9794972353558</v>
+        <v>306.9794972353557</v>
       </c>
       <c r="N20" t="n">
         <v>297.166950936986</v>
       </c>
       <c r="O20" t="n">
-        <v>234.9622464903491</v>
+        <v>234.962246490349</v>
       </c>
       <c r="P20" t="n">
         <v>162.4799091059848</v>
       </c>
       <c r="Q20" t="n">
-        <v>44.01386755926686</v>
+        <v>44.01386755926685</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36206,13 +36206,13 @@
         <v>290.3835747859679</v>
       </c>
       <c r="M21" t="n">
-        <v>379.9834547461368</v>
+        <v>365.0698002957096</v>
       </c>
       <c r="N21" t="n">
-        <v>300.0151011142386</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>314.9287555646654</v>
       </c>
       <c r="P21" t="n">
         <v>235.5832751144187</v>
@@ -36279,10 +36279,10 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>3.793008671852903</v>
+        <v>3.793008671852899</v>
       </c>
       <c r="L22" t="n">
-        <v>60.94105289255172</v>
+        <v>60.94105289255171</v>
       </c>
       <c r="M22" t="n">
         <v>74.74785944090613</v>
@@ -36291,7 +36291,7 @@
         <v>78.46003395030733</v>
       </c>
       <c r="O22" t="n">
-        <v>56.29246420033042</v>
+        <v>56.29246420033041</v>
       </c>
       <c r="P22" t="n">
         <v>24.40966306942216</v>
@@ -36364,19 +36364,19 @@
         <v>260.8134431535973</v>
       </c>
       <c r="M23" t="n">
-        <v>306.9794972353558</v>
+        <v>306.9794972353557</v>
       </c>
       <c r="N23" t="n">
         <v>297.166950936986</v>
       </c>
       <c r="O23" t="n">
-        <v>234.9622464903491</v>
+        <v>234.962246490349</v>
       </c>
       <c r="P23" t="n">
         <v>162.4799091059848</v>
       </c>
       <c r="Q23" t="n">
-        <v>44.01386755926686</v>
+        <v>44.01386755926685</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>24.53329153650331</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>89.86279073928074</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>290.3835747859679</v>
       </c>
       <c r="M24" t="n">
-        <v>379.9834547461368</v>
+        <v>379.9834547461367</v>
       </c>
       <c r="N24" t="n">
-        <v>379.9834547461368</v>
+        <v>379.9834547461367</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>314.9287555646654</v>
       </c>
       <c r="P24" t="n">
-        <v>235.5832751144187</v>
+        <v>139.3017122832104</v>
       </c>
       <c r="Q24" t="n">
-        <v>104.2511104576731</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,10 +36516,10 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>3.793008671852903</v>
+        <v>3.793008671852899</v>
       </c>
       <c r="L25" t="n">
-        <v>60.94105289255172</v>
+        <v>60.94105289255171</v>
       </c>
       <c r="M25" t="n">
         <v>74.74785944090613</v>
@@ -36528,7 +36528,7 @@
         <v>78.46003395030733</v>
       </c>
       <c r="O25" t="n">
-        <v>56.29246420033042</v>
+        <v>56.29246420033041</v>
       </c>
       <c r="P25" t="n">
         <v>24.40966306942216</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>180.6202691763123</v>
+        <v>180.620269176313</v>
       </c>
       <c r="K26" t="n">
         <v>317.7941150823821</v>
@@ -36604,19 +36604,19 @@
         <v>457.1041705424143</v>
       </c>
       <c r="N26" t="n">
-        <v>447.2916242440446</v>
+        <v>447.2916242440445</v>
       </c>
       <c r="O26" t="n">
-        <v>385.0869197974075</v>
+        <v>385.0869197974076</v>
       </c>
       <c r="P26" t="n">
         <v>312.6045824130433</v>
       </c>
       <c r="Q26" t="n">
-        <v>194.1385408663253</v>
+        <v>194.1385408663254</v>
       </c>
       <c r="R26" t="n">
-        <v>31.66960884467809</v>
+        <v>31.66960884467815</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36732,13 +36732,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>1.509200288846188</v>
       </c>
       <c r="E28" t="n">
-        <v>3.690710660489316</v>
+        <v>3.690710660489373</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>4.703625284127298</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -36747,31 +36747,31 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1.420266583752521</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>72.62527929139445</v>
       </c>
       <c r="K28" t="n">
-        <v>3.793008671852903</v>
+        <v>153.9176819789114</v>
       </c>
       <c r="L28" t="n">
-        <v>211.0657261996102</v>
+        <v>211.0657261996103</v>
       </c>
       <c r="M28" t="n">
-        <v>224.8725327479646</v>
+        <v>74.74785944090613</v>
       </c>
       <c r="N28" t="n">
-        <v>228.5847072573658</v>
+        <v>78.46003395030733</v>
       </c>
       <c r="O28" t="n">
-        <v>56.29246420033042</v>
+        <v>56.29246420033041</v>
       </c>
       <c r="P28" t="n">
-        <v>24.40966306942216</v>
+        <v>31.33855272271773</v>
       </c>
       <c r="Q28" t="n">
-        <v>19.80938780939727</v>
+        <v>82.74680001503897</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36841,19 +36841,19 @@
         <v>457.1041705424143</v>
       </c>
       <c r="N29" t="n">
-        <v>447.2916242440446</v>
+        <v>447.2916242440445</v>
       </c>
       <c r="O29" t="n">
         <v>385.0869197974076</v>
       </c>
       <c r="P29" t="n">
-        <v>312.6045824130434</v>
+        <v>312.6045824130433</v>
       </c>
       <c r="Q29" t="n">
         <v>194.1385408663254</v>
       </c>
       <c r="R29" t="n">
-        <v>31.66960884467816</v>
+        <v>31.66960884467815</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36969,13 +36969,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>1.509200288846188</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>3.690710660489373</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>4.703625284127298</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -36984,7 +36984,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1.420266583752522</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -36993,13 +36993,13 @@
         <v>153.9176819789114</v>
       </c>
       <c r="L31" t="n">
-        <v>60.94105289255172</v>
+        <v>60.94105289255171</v>
       </c>
       <c r="M31" t="n">
-        <v>224.8725327479647</v>
+        <v>98.24795791079191</v>
       </c>
       <c r="N31" t="n">
-        <v>78.46003395030733</v>
+        <v>228.5847072573659</v>
       </c>
       <c r="O31" t="n">
         <v>206.417137507389</v>
@@ -37008,7 +37008,7 @@
         <v>24.40966306942216</v>
       </c>
       <c r="Q31" t="n">
-        <v>12.17629565267054</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,19 +37072,19 @@
         <v>319.5730856366777</v>
       </c>
       <c r="L32" t="n">
-        <v>412.7170870149514</v>
+        <v>369.4799890894136</v>
       </c>
       <c r="M32" t="n">
         <v>458.8831410967099</v>
       </c>
       <c r="N32" t="n">
-        <v>449.0705947983402</v>
+        <v>449.0705947983401</v>
       </c>
       <c r="O32" t="n">
         <v>386.8658903517031</v>
       </c>
       <c r="P32" t="n">
-        <v>271.1464550418009</v>
+        <v>314.3835529673389</v>
       </c>
       <c r="Q32" t="n">
         <v>195.917511420621</v>
@@ -37206,13 +37206,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>3.288170843141756</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>6.482595838422867</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -37221,28 +37221,28 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>3.19923713804809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>74.40424984569002</v>
+        <v>63.75996974951681</v>
       </c>
       <c r="K34" t="n">
-        <v>3.793008671852903</v>
+        <v>3.793008671852899</v>
       </c>
       <c r="L34" t="n">
-        <v>189.2304128381198</v>
+        <v>60.94105289255171</v>
       </c>
       <c r="M34" t="n">
-        <v>226.6515033022602</v>
+        <v>74.74785944090613</v>
       </c>
       <c r="N34" t="n">
-        <v>78.46003395030733</v>
+        <v>230.3636778116614</v>
       </c>
       <c r="O34" t="n">
-        <v>56.29246420033042</v>
+        <v>56.29246420033041</v>
       </c>
       <c r="P34" t="n">
-        <v>24.40966306942216</v>
+        <v>176.3133069307763</v>
       </c>
       <c r="Q34" t="n">
         <v>84.52577056933454</v>
@@ -37300,10 +37300,10 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>29.71068536553514</v>
       </c>
       <c r="J35" t="n">
-        <v>30.49559586925384</v>
+        <v>78.49932548160963</v>
       </c>
       <c r="K35" t="n">
         <v>167.6694417753235</v>
@@ -37312,25 +37312,25 @@
         <v>260.8134431535973</v>
       </c>
       <c r="M35" t="n">
-        <v>431.364594765048</v>
+        <v>306.9794972353557</v>
       </c>
       <c r="N35" t="n">
-        <v>376.2304078256092</v>
+        <v>297.166950936986</v>
       </c>
       <c r="O35" t="n">
-        <v>234.9622464903491</v>
+        <v>234.962246490349</v>
       </c>
       <c r="P35" t="n">
         <v>162.4799091059848</v>
       </c>
       <c r="Q35" t="n">
-        <v>44.01386755926686</v>
+        <v>44.01386755926685</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>102.4516219615872</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>23.28251747883748</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -37394,16 +37394,16 @@
         <v>391.3681995499867</v>
       </c>
       <c r="N36" t="n">
-        <v>177.1501551640384</v>
+        <v>417.5922213279921</v>
       </c>
       <c r="O36" t="n">
         <v>314.9287555646654</v>
       </c>
       <c r="P36" t="n">
-        <v>235.5832751144187</v>
+        <v>99.39231940813805</v>
       </c>
       <c r="Q36" t="n">
-        <v>104.2511104576731</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,10 +37464,10 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>3.793008671852903</v>
+        <v>3.793008671852899</v>
       </c>
       <c r="L37" t="n">
-        <v>60.94105289255172</v>
+        <v>60.94105289255171</v>
       </c>
       <c r="M37" t="n">
         <v>74.74785944090613</v>
@@ -37476,7 +37476,7 @@
         <v>78.46003395030733</v>
       </c>
       <c r="O37" t="n">
-        <v>56.29246420033042</v>
+        <v>56.29246420033041</v>
       </c>
       <c r="P37" t="n">
         <v>24.40966306942216</v>
@@ -37537,10 +37537,10 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>29.71068536553514</v>
       </c>
       <c r="J38" t="n">
-        <v>233.9441502875692</v>
+        <v>30.49559586925384</v>
       </c>
       <c r="K38" t="n">
         <v>167.6694417753235</v>
@@ -37549,25 +37549,25 @@
         <v>260.8134431535973</v>
       </c>
       <c r="M38" t="n">
-        <v>306.9794972353558</v>
+        <v>306.9794972353557</v>
       </c>
       <c r="N38" t="n">
         <v>297.166950936986</v>
       </c>
       <c r="O38" t="n">
-        <v>234.9622464903491</v>
+        <v>234.962246490349</v>
       </c>
       <c r="P38" t="n">
         <v>162.4799091059848</v>
       </c>
       <c r="Q38" t="n">
-        <v>44.01386755926686</v>
+        <v>92.01759717162173</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>102.4516219615872</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>23.28251747883748</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -37628,7 +37628,7 @@
         <v>290.3835747859679</v>
       </c>
       <c r="M39" t="n">
-        <v>255.1772438437062</v>
+        <v>391.3681995499867</v>
       </c>
       <c r="N39" t="n">
         <v>417.5922213279921</v>
@@ -37637,7 +37637,7 @@
         <v>314.9287555646654</v>
       </c>
       <c r="P39" t="n">
-        <v>235.5832751144187</v>
+        <v>99.39231940813714</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37701,10 +37701,10 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>3.793008671852903</v>
+        <v>3.793008671852899</v>
       </c>
       <c r="L40" t="n">
-        <v>60.94105289255172</v>
+        <v>60.94105289255171</v>
       </c>
       <c r="M40" t="n">
         <v>74.74785944090613</v>
@@ -37713,7 +37713,7 @@
         <v>78.46003395030733</v>
       </c>
       <c r="O40" t="n">
-        <v>56.29246420033042</v>
+        <v>56.29246420033041</v>
       </c>
       <c r="P40" t="n">
         <v>24.40966306942216</v>
@@ -37774,10 +37774,10 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>11.5832031311281</v>
       </c>
       <c r="J41" t="n">
-        <v>30.49559586925384</v>
+        <v>233.2748000588144</v>
       </c>
       <c r="K41" t="n">
         <v>167.6694417753235</v>
@@ -37786,25 +37786,25 @@
         <v>260.8134431535973</v>
       </c>
       <c r="M41" t="n">
-        <v>492.0884839238017</v>
+        <v>306.9794972353557</v>
       </c>
       <c r="N41" t="n">
-        <v>492.0884839238017</v>
+        <v>297.166950936986</v>
       </c>
       <c r="O41" t="n">
-        <v>234.9622464903491</v>
+        <v>234.962246490349</v>
       </c>
       <c r="P41" t="n">
-        <v>226.3400100129925</v>
+        <v>302.5289473959541</v>
       </c>
       <c r="Q41" t="n">
-        <v>44.01386755926686</v>
+        <v>44.01386755926685</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>84.32413972718015</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>5.155035244430444</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>24.53329153650331</v>
+        <v>24.53329153650255</v>
       </c>
       <c r="K42" t="n">
-        <v>169.8311443711791</v>
+        <v>169.831144371179</v>
       </c>
       <c r="L42" t="n">
         <v>290.3835747859679</v>
@@ -37935,13 +37935,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>4.285870678141247</v>
+        <v>4.285870678140873</v>
       </c>
       <c r="K43" t="n">
-        <v>3.793008671852903</v>
+        <v>3.793008671852899</v>
       </c>
       <c r="L43" t="n">
-        <v>60.94105289255172</v>
+        <v>60.94105289255171</v>
       </c>
       <c r="M43" t="n">
         <v>74.74785944090613</v>
@@ -37950,7 +37950,7 @@
         <v>78.46003395030733</v>
       </c>
       <c r="O43" t="n">
-        <v>56.29246420033042</v>
+        <v>56.29246420033041</v>
       </c>
       <c r="P43" t="n">
         <v>24.40966306942216</v>
@@ -38011,37 +38011,37 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>11.5832031311281</v>
       </c>
       <c r="J44" t="n">
-        <v>30.49559586925384</v>
+        <v>233.2748000588144</v>
       </c>
       <c r="K44" t="n">
-        <v>370.448645964884</v>
+        <v>167.6694417753235</v>
       </c>
       <c r="L44" t="n">
         <v>260.8134431535973</v>
       </c>
       <c r="M44" t="n">
-        <v>306.9794972353558</v>
+        <v>306.9794972353557</v>
       </c>
       <c r="N44" t="n">
         <v>297.166950936986</v>
       </c>
       <c r="O44" t="n">
-        <v>234.9622464903491</v>
+        <v>234.962246490349</v>
       </c>
       <c r="P44" t="n">
-        <v>365.2591132955453</v>
+        <v>162.4799091059848</v>
       </c>
       <c r="Q44" t="n">
-        <v>44.01386755926686</v>
+        <v>184.062905849237</v>
       </c>
       <c r="R44" t="n">
-        <v>38.3322122031483</v>
+        <v>84.32413972718015</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>5.155035244430444</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -38166,7 +38166,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>4.28587067814091</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -38175,10 +38175,10 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>3.793008671852903</v>
+        <v>3.793008671852899</v>
       </c>
       <c r="L46" t="n">
-        <v>60.94105289255172</v>
+        <v>60.94105289255171</v>
       </c>
       <c r="M46" t="n">
         <v>74.74785944090613</v>
@@ -38187,7 +38187,7 @@
         <v>78.46003395030733</v>
       </c>
       <c r="O46" t="n">
-        <v>56.29246420033042</v>
+        <v>56.29246420033041</v>
       </c>
       <c r="P46" t="n">
         <v>24.40966306942216</v>
@@ -38196,7 +38196,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.285870678141218</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
